--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51380671" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51493189" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51607699" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51720210" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51830728" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51946244" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52060763" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52170799" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52288056" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ52401569" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ52515081" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ52628592" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ52741107" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ52855627" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ52969649" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ53084176" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ53200216" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ53312724" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ53426239" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ53543751" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ53679978" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ53793500" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ53913988" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ54027502" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ54144015" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ54257533" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ54371565" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ54487087" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ54602602" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ54715111" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ54830625" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ54946666" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ55061189" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ55173222" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ55286900" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ55402875" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ55516394" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ55630245" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ55745758" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ55860286" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ55973303" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ56087827" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ56200341" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ56316437" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ56427951" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ56543461" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ56656973" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ56772005" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ56885515" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ56998037" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ37429472" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ37614580" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37842150" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38019163" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38184195" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38348983" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ38529911" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38697001" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38874159" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ39053693" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ39224979" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ39371387" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ39501065" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ39651098" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ39802605" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ39947140" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ40109432" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ40272964" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ40426003" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ40628928" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ40811752" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ41058024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ41341954" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ41505222" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ41673131" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ41841720" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ42004868" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ42181697" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ42344179" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ42500220" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ42654743" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ42826770" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ42989806" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ43157325" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ43332419" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ43504012" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ43713596" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ43978653" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ44121673" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ44260215" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ44403860" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ44549367" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ44687722" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ44827194" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ44967679" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ45113876" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ45260414" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ45407457" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ45550970" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ45695056" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37429472" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ37614580" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37842150" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38019163" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ38184195" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38348983" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ38529911" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ38697001" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38874159" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ39053693" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ39224979" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ39371387" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ39501065" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ39651098" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ39802605" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ39947140" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ40109432" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ40272964" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ40426003" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ40628928" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ40811752" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ41058024" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ41341954" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ41505222" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ41673131" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ41841720" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ42004868" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ42181697" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ42344179" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ42500220" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ42654743" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ42826770" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ42989806" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ43157325" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ43332419" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ43504012" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ43713596" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ43978653" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ44121673" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ44260215" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ44403860" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ44549367" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ44687722" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ44827194" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ44967679" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ45113876" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ45260414" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ45407457" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ45550970" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ45695056" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ15330260" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ15463775" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ15688753" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ15827122" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16037159" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16222012" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16354316" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16476778" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16593436" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ16726860" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ16854576" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ16986012" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ17108613" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ17240129" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ17356858" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ17471329" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ17606216" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ17762650" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ17909912" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18030221" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ18154069" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ18290640" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ18432405" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ18555197" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ18664850" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ18791510" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ18904305" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ19043600" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ19158718" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ19272052" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ19399976" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ19516130" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ19632708" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ19746639" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ19844041" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ19948304" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20078881" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20285127" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ20400253" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ20503474" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ20606795" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ20715471" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ20820327" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ20912147" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21028223" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ21131624" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ21232458" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ21330338" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ21466315" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ21576929" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5365.164522166819</v>
+        <v>4669.399697298675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1685343763082236</v>
+        <v>0.2140210861065637</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.849127208860182</v>
+        <v>14.44311348012616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9870558949772203</v>
+        <v>0.9338221439123164</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.5977099620797</v>
+        <v>219.8646017457581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2703146626209399</v>
+        <v>0.11055003135793</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02286851463838341</v>
+        <v>0.020893455576937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8231690654912058</v>
+        <v>0.8135482130229521</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001551655659654622</v>
+        <v>-8.727085686217575e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3046233049757236</v>
+        <v>0.4912658513884024</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.96819721447321</v>
+        <v>4.626669927190335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7253224518812915</v>
+        <v>0.8875801668869824</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.55938174235571</v>
+        <v>-22.19643451359971</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1473544928228816</v>
+        <v>0.2251590687841779</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1564.105363657377</v>
+        <v>21.36717717182455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5778612915268155</v>
+        <v>0.992084309591226</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1659.756591069955</v>
+        <v>-3027.249516204164</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5409227066769445</v>
+        <v>0.1767683865412884</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2820.207338814409</v>
+        <v>4115.199221258998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3880541176193208</v>
+        <v>0.1088073954555379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4048.5565432048</v>
+        <v>18.6256301921951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1174618243999133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>32.49612565472982</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3680234692706146</v>
+        <v>0.5588253461445543</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5320.71593444561</v>
+        <v>5028.241990734728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1571737408848001</v>
+        <v>0.1556914682162599</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.73128220042091</v>
+        <v>38.78313412257238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9151665863935838</v>
+        <v>0.8478178138540312</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1786808395496</v>
+        <v>209.7421493449207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09889831952347559</v>
+        <v>0.06099889467803508</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02901131246986145</v>
+        <v>-0.01402965268284623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8184719413089044</v>
+        <v>0.9020841210262008</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.000536960071724e-05</v>
+        <v>3.276794263724735e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8858518779301754</v>
+        <v>0.801059924338159</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.336808794969485</v>
+        <v>1.461942934233555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9196846656663173</v>
+        <v>0.9632627386845528</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.3731085679095</v>
+        <v>-15.05400790642537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3938154746716794</v>
+        <v>0.4146911736097232</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>583.7175141426198</v>
+        <v>272.9049641432898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8227270741330084</v>
+        <v>0.9074687643194687</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-893.9941607478268</v>
+        <v>-1379.426188724337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7508520198492186</v>
+        <v>0.5484379900183654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-972.5829236257628</v>
+        <v>305.4173560728282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7545502306435351</v>
+        <v>0.8851328557694808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4952298526046</v>
+        <v>-4.921769878984875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9294248176053799</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.01194941657581</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9522134508038824</v>
+        <v>0.8757367219179426</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6724.631683011329</v>
+        <v>6180.090825003148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08843265906493332</v>
+        <v>0.09736975636906524</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.5481681688706</v>
+        <v>106.3613075738448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.626622699133466</v>
+        <v>0.6031443577346893</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.87943641328616</v>
+        <v>121.8425327373836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4415440338152321</v>
+        <v>0.2506726860075058</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07099538459511351</v>
+        <v>0.09694423913301403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5258951915218286</v>
+        <v>0.3369870452869994</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.978622496855411e-05</v>
+        <v>6.414781912565388e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7554448468085213</v>
+        <v>0.5880309069734335</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.67005984907667</v>
+        <v>-25.55868803423224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5188085863423879</v>
+        <v>0.4292565747021464</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.409364622196435</v>
+        <v>-5.478918981392553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6475281503130803</v>
+        <v>0.7728703778185591</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3474.255520801846</v>
+        <v>2457.605270302626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.299771150779345</v>
+        <v>0.3724391462084672</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-903.5099679899718</v>
+        <v>-1814.295350711529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7394059081432069</v>
+        <v>0.4043648259797878</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1763.017218397313</v>
+        <v>624.7714105736663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.568568074234036</v>
+        <v>0.7610111456066315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.3981869510596</v>
+        <v>-34.36989926142584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9529526823917438</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-30.79406305606176</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3750723510035616</v>
+        <v>0.3060471016055238</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1971.962629359658</v>
+        <v>1355.659991109805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.554433040660167</v>
+        <v>0.6572327051967234</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-30.13395185853403</v>
+        <v>-26.95691267416572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.850631334832376</v>
+        <v>0.8633218885058044</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.0107452354189</v>
+        <v>244.9039112176852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05907871384010908</v>
+        <v>0.03314218558305038</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04807927551841659</v>
+        <v>-0.03408870008904917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6219407329124966</v>
+        <v>0.7103538501359214</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.513720247788792e-05</v>
+        <v>4.884752704643227e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7550534864071615</v>
+        <v>0.649665315996677</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.34550611565065</v>
+        <v>19.54839800110112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4969616621695888</v>
+        <v>0.504342909140463</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.910978040415749</v>
+        <v>6.42381049829055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9205407046553516</v>
+        <v>0.7032781880625323</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-267.8877151142094</v>
+        <v>-680.6840740526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8975551561451435</v>
+        <v>0.7193723818459228</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1887.666911325763</v>
+        <v>-2518.265636604568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4100833052746242</v>
+        <v>0.1947235753849131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1315.30808647393</v>
+        <v>-1134.66144526986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5953085819976481</v>
+        <v>0.5628615789867103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1267.601389460991</v>
+        <v>32.24137859228868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.530386309199572</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.49438421118803</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.156882332188374</v>
+        <v>0.1683053223694537</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4787.275107757873</v>
+        <v>3817.955265676155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1454726312126786</v>
+        <v>0.2327869976071227</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.11575733532084</v>
+        <v>29.60945844653656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8706745840311071</v>
+        <v>0.8609116291712503</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.2672818921527</v>
+        <v>212.7436462951735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07069282661593042</v>
+        <v>0.02645190299288709</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0499764796595572</v>
+        <v>-0.02548554516097789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5624114281313795</v>
+        <v>0.7640420024430995</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001414883422932844</v>
+        <v>-7.55109797097815e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2681261688799817</v>
+        <v>0.5154621693882288</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.54339474510709</v>
+        <v>21.43050650046041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3055125885628738</v>
+        <v>0.4608937769096713</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-38.09823391518902</v>
+        <v>-29.24409807857277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05028625035935135</v>
+        <v>0.1017047215720952</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3009.049447984135</v>
+        <v>1857.292124407791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1491441642044561</v>
+        <v>0.315804375808916</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2791.318041142031</v>
+        <v>-3444.974672643903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2303810040995101</v>
+        <v>0.1374660377931567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2803.752934935758</v>
+        <v>2213.937807538725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2235306651964111</v>
+        <v>0.3322551962683478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2409.868052546288</v>
+        <v>42.83040099270224</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2871299460455622</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>49.40710988985388</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07907826764525512</v>
+        <v>0.1215133855975508</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4265.296106198838</v>
+        <v>3596.075781782782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2528575644437263</v>
+        <v>0.3162820434284717</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-157.3805498291549</v>
+        <v>-155.5845286721523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4083736450226528</v>
+        <v>0.4094278015495071</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.0004524667109</v>
+        <v>268.2036888245951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06653669761888853</v>
+        <v>0.02683383327966818</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06886385107935483</v>
+        <v>-0.0443031084171369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5655935303079074</v>
+        <v>0.6995130002897909</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0004041593431821193</v>
+        <v>-0.0002918372722919014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.273242472836181</v>
+        <v>0.3861360061691284</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.91807590755023</v>
+        <v>29.61082475605424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3392656463285567</v>
+        <v>0.4149266445977814</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.33836496374247</v>
+        <v>-9.780236285079575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5460436835596854</v>
+        <v>0.6684472332731495</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3489.325757765013</v>
+        <v>2295.929294383983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3771778142525302</v>
+        <v>0.5259129407415897</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1228.431618803788</v>
+        <v>-2283.802028302761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6542797323596042</v>
+        <v>0.3468318055778277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2304.354463570584</v>
+        <v>306.4937727361128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4126128933469168</v>
+        <v>0.883463705193812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>182.1962568982694</v>
+        <v>15.19353015547819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9313182145037842</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.22203396743076</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5046974271442441</v>
+        <v>0.5884965267533099</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3881.377595930496</v>
+        <v>3881.19953024833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2665555441790772</v>
+        <v>0.2186850731601383</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-49.36847796968073</v>
+        <v>-49.36406237819011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8080379837340494</v>
+        <v>0.8003006224467298</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8439563210924</v>
+        <v>181.8482011122555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.179324500553023</v>
+        <v>0.156166912426202</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0117572750027046</v>
+        <v>0.01176275668656543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9197059099789276</v>
+        <v>0.9121364380692993</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.412125005690424e-06</v>
+        <v>-3.407254087511546e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9805288976116391</v>
+        <v>0.9793343954665207</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.008659897967448</v>
+        <v>1.008160082937945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9744286305070142</v>
+        <v>0.9735447680789222</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.13315672550259</v>
+        <v>-16.13208385248543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4255525285074264</v>
+        <v>0.3746090608991514</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1345.941553780446</v>
+        <v>1345.825950599603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5794661981444531</v>
+        <v>0.5436463195633524</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1528.491641799507</v>
+        <v>-1528.72155736499</v>
       </c>
       <c r="C10" t="n">
-        <v>0.632146262293634</v>
+        <v>0.5632954347092682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3996986508427653</v>
+        <v>516.1995922634933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9998903524636045</v>
+        <v>0.8277614550034273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>516.154664510178</v>
+        <v>27.75473221608956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8338843643466711</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.75479399684214</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4170660175262002</v>
+        <v>0.4040350114145129</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8725.697163724741</v>
+        <v>8214.654232811386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02615885099405338</v>
+        <v>0.02504637743723992</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7964809789269793</v>
+        <v>18.10601246857868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969369138374731</v>
+        <v>0.9278753123510587</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.6760957472829</v>
+        <v>172.4590210945805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1829121648610559</v>
+        <v>0.1030898240256169</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07321269794920301</v>
+        <v>-0.05268135470552512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5092722498270971</v>
+        <v>0.5989885175586582</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.092163893306216e-05</v>
+        <v>2.644884121972343e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9327238688577151</v>
+        <v>0.8294701669566822</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.568907587358844</v>
+        <v>-7.812931917898652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8518706211573475</v>
+        <v>0.7864868721823332</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-47.97207416801894</v>
+        <v>-45.51499301447802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0419864952795001</v>
+        <v>0.04212141190793155</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2120.533242520956</v>
+        <v>1822.335389230097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3684986649625205</v>
+        <v>0.4119997357547642</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-241.4411678835022</v>
+        <v>-901.6110557706343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9281352460715782</v>
+        <v>0.6914053442007406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1301.180908815657</v>
+        <v>-1028.172503233648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6235947415208913</v>
+        <v>0.6393543062448648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1191.657618460025</v>
+        <v>12.80469003591883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5996244097806263</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.13742275323743</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6502014144467867</v>
+        <v>0.6512074075124323</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4704.279112714214</v>
+        <v>4263.41601265238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2099342054300598</v>
+        <v>0.2327305656906171</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.854983403551614</v>
+        <v>4.342293026990205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9922786122066731</v>
+        <v>0.9815197315491732</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.33847425991</v>
+        <v>156.7311110571411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278081595311405</v>
+        <v>0.2005491502610143</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07019699568730853</v>
+        <v>0.08718738736321574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5442985609491785</v>
+        <v>0.4261501696438779</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.762334125619282e-06</v>
+        <v>2.566508501861337e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9404118345003493</v>
+        <v>0.8370246817106888</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.885944080861123</v>
+        <v>-7.882918168230972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8584729779703344</v>
+        <v>0.8063079219904092</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.569918264453378</v>
+        <v>-3.739659729902172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7412052662950719</v>
+        <v>0.8422432770817161</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2501.21116532288</v>
+        <v>1874.131417912615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3817912142259439</v>
+        <v>0.4621641538408885</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1497.680362106162</v>
+        <v>-2218.436682449955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5870880540902783</v>
+        <v>0.3524524485780975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1357.213125061539</v>
+        <v>642.995862207177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5877958532610996</v>
+        <v>0.7393461724137522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>432.817712255247</v>
+        <v>-6.97020032938255</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8293702110780514</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.591422781961896</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8738561754479218</v>
+        <v>0.8395313175910467</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-917.4219506852096</v>
+        <v>-731.6772738910968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7904199682453057</v>
+        <v>0.8052983434984702</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-154.2948186452439</v>
+        <v>-154.1016651369642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4388303380752029</v>
+        <v>0.4267790268184218</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.1033660237724</v>
+        <v>316.4380322000759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01284175108388628</v>
+        <v>0.006383043707670049</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05721934550511548</v>
+        <v>-0.06137307643309751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5967085975856662</v>
+        <v>0.5363649257909597</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.657652497145471e-05</v>
+        <v>2.247937343119124e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8179271866648972</v>
+        <v>0.8333454004014076</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.77494176834054</v>
+        <v>44.01613691533014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2738458404223461</v>
+        <v>0.2575590811499752</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.66859000728888</v>
+        <v>21.32859645715371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3111993894041196</v>
+        <v>0.2505758760878889</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1023.524517519456</v>
+        <v>-901.2681725446405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6579865354896072</v>
+        <v>0.6517503005299419</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3152.178765626537</v>
+        <v>-2992.402475730484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2772101527866718</v>
+        <v>0.2263701771630056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.9070444853314</v>
+        <v>-531.2271479951455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9083206468597187</v>
+        <v>0.7966116020471858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-467.9849126421809</v>
+        <v>22.57557188561779</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8306318794812008</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.09170588861059</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3792051337531853</v>
+        <v>0.3491151084458015</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3669.100996182067</v>
+        <v>3029.091257550598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2748666256914901</v>
+        <v>0.3637912761558614</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-46.97345249838258</v>
+        <v>-47.18035986269649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7783422272302809</v>
+        <v>0.7799006690877519</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.451660266194</v>
+        <v>232.9721073416558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1030969375306523</v>
+        <v>0.04152731365377249</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004456981735796894</v>
+        <v>0.0280046039315425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9621277797626191</v>
+        <v>0.7584016302885837</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000139854630595676</v>
+        <v>-7.107352576736178e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3231711729036325</v>
+        <v>0.5825401440239033</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.28909774556521</v>
+        <v>10.82665278655064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5325455480736636</v>
+        <v>0.7075493071988506</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.21450262892022</v>
+        <v>-16.17875067368662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1937552981646502</v>
+        <v>0.3499888041738684</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2001.216801933801</v>
+        <v>746.0453924721614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41174349815308</v>
+        <v>0.7351268052065825</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2166.83482285082</v>
+        <v>-3288.825347248418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3498770443318114</v>
+        <v>0.1314370222699898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2954.098619253048</v>
+        <v>3662.137676485951</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2396625714079328</v>
+        <v>0.1259601970670128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4020.303092258653</v>
+        <v>35.83380884337345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09465660759761732</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>47.78189675759033</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1349314170578947</v>
+        <v>0.2357288057455818</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4088.375561926052</v>
+        <v>3426.924796337098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2822391791283356</v>
+        <v>0.3204039712791132</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-27.46353269600093</v>
+        <v>-16.02369931466166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9056901817753894</v>
+        <v>0.9433443510987387</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.8393332577307</v>
+        <v>214.0659528268667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1177115636226831</v>
+        <v>0.07701484098871726</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06415036046550116</v>
+        <v>-0.04722159171418157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5904221373601672</v>
+        <v>0.6710437646257434</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.036017335206353e-05</v>
+        <v>2.56128058291834e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9411202746509451</v>
+        <v>0.8481036287088615</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.533462914537424</v>
+        <v>4.417108503801174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.818671541649947</v>
+        <v>0.9007475188683338</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.30554057300942</v>
+        <v>-16.26806471970954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3513086725263959</v>
+        <v>0.4058990276457879</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1591.971128773625</v>
+        <v>1202.845355020177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5547460770172591</v>
+        <v>0.631717580824811</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.18917130824593</v>
+        <v>-501.2189799015171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9962932590656602</v>
+        <v>0.8579760837264857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1419.719569833748</v>
+        <v>-889.3531202749164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6293662494814974</v>
+        <v>0.7303870034374389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1241.026333225419</v>
+        <v>35.69602979811619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6507531197768411</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.26563620570592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3019446394943559</v>
+        <v>0.2852224704068733</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3064.872942640237</v>
+        <v>2914.771725680402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4365517971688936</v>
+        <v>0.4028717522784767</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-27.13344386632565</v>
+        <v>-25.3581610006739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8907787889728087</v>
+        <v>0.8945461211540324</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.0120495712079</v>
+        <v>230.3814805222377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07535184125973038</v>
+        <v>0.04489344449204202</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04016018429239548</v>
+        <v>-0.03890457487337792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7133244054992545</v>
+        <v>0.7122981822122456</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001038019030340941</v>
+        <v>-9.269112895481568e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7552186590743464</v>
+        <v>0.7586974787131365</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.40661453331038</v>
+        <v>10.95792535711996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.752427300657006</v>
+        <v>0.753219216460238</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.23836040203832</v>
+        <v>-12.21167703717786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5521245117569938</v>
+        <v>0.5142419569123118</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2497.575616382586</v>
+        <v>2325.85735222531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5590668051798051</v>
+        <v>0.5338321127528547</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1041.475063430109</v>
+        <v>-1140.753599846782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7278737741288743</v>
+        <v>0.6745859252684669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-300.8830450094565</v>
+        <v>-312.1212428749895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9267323467374731</v>
+        <v>0.8962179569533575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-341.8417848884174</v>
+        <v>32.83943516494783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8904044663508167</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.27270384434525</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3046272466934344</v>
+        <v>0.2923134066596761</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-898.9573970140473</v>
+        <v>-1519.575764074596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7421534615614573</v>
+        <v>0.5896930065837594</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-185.7637541529245</v>
+        <v>-139.8565154895796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1853909463989961</v>
+        <v>0.3200216200871338</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.4590294643351</v>
+        <v>299.6130445105559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003661752423215313</v>
+        <v>0.0009846365654717724</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03354876299111775</v>
+        <v>0.05436343844814095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6730997534157803</v>
+        <v>0.5063002360582574</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00014547634411462</v>
+        <v>-4.235375108532794e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2378950938872308</v>
+        <v>0.6870359079375424</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.3495337070788</v>
+        <v>36.15013061707575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08371514336186955</v>
+        <v>0.1647585406181289</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.636622340714982</v>
+        <v>12.89265949187015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8644000439917199</v>
+        <v>0.3795350660935655</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1241.001688202001</v>
+        <v>-110.6991783994515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5094550241412783</v>
+        <v>0.9487098005970731</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2732.722681403209</v>
+        <v>-3456.385883616798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1602288690519219</v>
+        <v>0.08209939292583417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3298.777166392784</v>
+        <v>2360.402641069397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1326477631597334</v>
+        <v>0.267520724709345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3571.153886277474</v>
+        <v>47.64320182754507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1111752915346462</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>66.50776481940984</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01890498302767961</v>
+        <v>0.05873977414824293</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6589.428989888625</v>
+        <v>6576.7479837135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1382471891070276</v>
+        <v>0.09406131716021385</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.1563763558802</v>
+        <v>-111.2527974832465</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6050817737833687</v>
+        <v>0.5932569369769881</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.8518183871029</v>
+        <v>151.3340953253114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4052703742291647</v>
+        <v>0.3513123090271549</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03563806116915996</v>
+        <v>0.03594883237810681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7612082844198242</v>
+        <v>0.7323635430273689</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.138686760081449e-05</v>
+        <v>-1.113356382222933e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9319091998656854</v>
+        <v>0.9286785389787595</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.688642354066786</v>
+        <v>-7.680254065688956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8431148434551632</v>
+        <v>0.8385939347713032</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.27216967013396</v>
+        <v>-31.19248330976959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2181733207448147</v>
+        <v>0.1552813136185989</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1077.701426677318</v>
+        <v>1069.490322390706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.674918761520745</v>
+        <v>0.6285106895674327</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2412.119835752286</v>
+        <v>-2426.650783348852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.45122798094917</v>
+        <v>0.2996492756565883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.35551874059183</v>
+        <v>653.9918349205745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9945022998123996</v>
+        <v>0.7554800966806381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.2101675834249</v>
+        <v>20.24074652157301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7707305132961272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.2623324156903</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5221413074806398</v>
+        <v>0.5081674447755655</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5442.360455710535</v>
+        <v>5075.931191899749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1356953123933218</v>
+        <v>0.1423980290350289</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.49395676639028</v>
+        <v>17.01911613445077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9559932912202994</v>
+        <v>0.9268862845246386</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.1176436518385</v>
+        <v>203.5713186274616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1149656204601867</v>
+        <v>0.07606865229187086</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0456455710500589</v>
+        <v>-0.02578422157326089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7058826891298244</v>
+        <v>0.814338455605141</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.857763996464449e-05</v>
+        <v>-1.227527764182092e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8381813026301059</v>
+        <v>0.9259314255175002</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.834744378359048</v>
+        <v>2.421616509082838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8595690659036143</v>
+        <v>0.9384538983032653</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.95847317346401</v>
+        <v>-13.72849255409911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4260178843822382</v>
+        <v>0.48196382585836</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-395.3332213887406</v>
+        <v>-799.9059868616241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8823723791810993</v>
+        <v>0.7451001964791473</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1103.331683355034</v>
+        <v>-1578.447558044872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6709261155085624</v>
+        <v>0.4968657358588471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1251.702977687993</v>
+        <v>767.6954079846041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.656844790320285</v>
+        <v>0.7151732973155791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.5786050002398</v>
+        <v>-0.09804734661027226</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7975806310524076</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.038154532582958</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9058807057560498</v>
+        <v>0.9975660391739607</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4932.660761533716</v>
+        <v>4421.556577779049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1165708238493013</v>
+        <v>0.1390447484748282</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.6002528723326</v>
+        <v>123.773880782576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5512009856318146</v>
+        <v>0.5092039911508364</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.1432945704547</v>
+        <v>148.1329260957669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2370595124813215</v>
+        <v>0.1430349444287851</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08848756215622516</v>
+        <v>0.1144012201601838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3953616716026291</v>
+        <v>0.2357556737332853</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.109997671907493e-05</v>
+        <v>5.565146764306e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7269861016815039</v>
+        <v>0.6265058872452895</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.6258674687214</v>
+        <v>-28.60758662190555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.463300550385956</v>
+        <v>0.3570712352709574</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.171043285399666</v>
+        <v>-6.129395831299679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6304004194612804</v>
+        <v>0.7369857091246974</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4787.651213158315</v>
+        <v>4325.829142949769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07447145107189124</v>
+        <v>0.08844204533356143</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-320.6511288798101</v>
+        <v>-1191.409009524288</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8933654461406003</v>
+        <v>0.5544938453306629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1706.201688725394</v>
+        <v>1220.833176782095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4910827361312526</v>
+        <v>0.5415205616140575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>785.3414814775888</v>
+        <v>-9.276478814608311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7107658603350377</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.793769927411518</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7494346913677101</v>
+        <v>0.7324933032274555</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4185.926253353149</v>
+        <v>3804.004846780632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2712949764858546</v>
+        <v>0.2501778345017643</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.69768442465235</v>
+        <v>-90.83595668046001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6066418836684564</v>
+        <v>0.6040347064281029</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.4423463229533</v>
+        <v>194.0535979859885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1249819264430426</v>
+        <v>0.07750331264307825</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07786938784014213</v>
+        <v>-0.07469951400309519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4849511833484756</v>
+        <v>0.4878708278539634</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.691740122192707e-05</v>
+        <v>-6.655931394413029e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7613692410730273</v>
+        <v>0.8132328970571798</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.976108193503656</v>
+        <v>1.405188946642447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9329747102656974</v>
+        <v>0.9668318908179936</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.57528986139926</v>
+        <v>-14.98680548334921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.430070770382835</v>
+        <v>0.4189905217801407</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1749.081902834778</v>
+        <v>1268.13626037066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.676635872740174</v>
+        <v>0.7181974379359674</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.4190104274408</v>
+        <v>48.32566539010486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9373824479293295</v>
+        <v>0.9861968341475882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-705.5561518688987</v>
+        <v>-131.5799515549477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8213725609985</v>
+        <v>0.9549538210006405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-251.850044889607</v>
+        <v>36.42228945634166</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9181338891369819</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.95852719592773</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2238346503505261</v>
+        <v>0.2167292134231196</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2646.715926803891</v>
+        <v>2414.6034911679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3638678004314673</v>
+        <v>0.3721336018346338</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-46.51216376201597</v>
+        <v>-44.30985832215501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7521390072809571</v>
+        <v>0.7568128331162985</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.654999669888</v>
+        <v>336.1915998589668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004137025303829919</v>
+        <v>0.002403310430327823</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01495624827822781</v>
+        <v>-0.006445971977529732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8556780730378759</v>
+        <v>0.9305302393721291</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0004033027217104192</v>
+        <v>-0.0003717375946173941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1793120389784019</v>
+        <v>0.1656461868950259</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.64429698871814</v>
+        <v>23.84339840411335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3388944374760743</v>
+        <v>0.3446878569115106</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.281288675247538</v>
+        <v>3.966370158349434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8935108828763739</v>
+        <v>0.7974429112659075</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1186.192357360217</v>
+        <v>783.7690530249674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6915171727309076</v>
+        <v>0.7559125052511606</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1423.669573927104</v>
+        <v>-1695.010648046273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5000526515345056</v>
+        <v>0.3505264005683435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-576.2008849298481</v>
+        <v>1779.660714913972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7864032645080925</v>
+        <v>0.2917462729756751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1739.116136433697</v>
+        <v>-3.877319012656184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3175085751334797</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.285739611877961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9048957694892845</v>
+        <v>0.8844586232892813</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3910.787376865488</v>
+        <v>3851.00350774075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2200586526990765</v>
+        <v>0.2356194074722292</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.68180934980171</v>
+        <v>67.78633430246668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8815009480285407</v>
+        <v>0.7069235754992572</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.6738770300063</v>
+        <v>244.0457022138121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05838756075741702</v>
+        <v>0.03611249554317934</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0371328555603187</v>
+        <v>0.01210115868139006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6979879876652909</v>
+        <v>0.8927854042857584</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002761401922548891</v>
+        <v>-0.000203037300258306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04529009582595944</v>
+        <v>0.1028089351674898</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.45265929743086</v>
+        <v>10.38495994629086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4764202574763978</v>
+        <v>0.7703782609854006</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.71550795481872</v>
+        <v>-42.67582238935196</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03199143059313883</v>
+        <v>0.0455388384394525</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4910.343872559311</v>
+        <v>4123.382548110732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03954873986235646</v>
+        <v>0.0734615207088026</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2361.493709703191</v>
+        <v>-3195.477646149503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2889150589642827</v>
+        <v>0.1474379993341897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2991.446311797286</v>
+        <v>5986.375085137067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1975828476589314</v>
+        <v>0.05316849314075227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6638.946673068535</v>
+        <v>62.53217530372677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03360702073908036</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>71.62147784671029</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01197107468421121</v>
+        <v>0.02261774339044565</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7076.340355298629</v>
+        <v>5381.441057967942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1009783819122869</v>
+        <v>0.1592527794493086</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.8641309315893</v>
+        <v>-81.60545924159624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6091524942759879</v>
+        <v>0.7046051274496966</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.4877132682435</v>
+        <v>188.0250172975032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2591047184952365</v>
+        <v>0.1261137809490601</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09578148262317109</v>
+        <v>-0.06014820512463563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4218394560319476</v>
+        <v>0.5909169790168528</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.061269535335382e-06</v>
+        <v>2.301106843276615e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9879777689609343</v>
+        <v>0.8642041573465381</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.786780207948425</v>
+        <v>6.116873428993728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8489864271168693</v>
+        <v>0.8632395027487213</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.40917478783121</v>
+        <v>-17.09523856851719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2209342484157061</v>
+        <v>0.3703604431410944</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1059.301094542712</v>
+        <v>218.1799857022497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6642172934598422</v>
+        <v>0.9228937104020851</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.92155437326619</v>
+        <v>-1692.536900536608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9976766661218752</v>
+        <v>0.4936868599018299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3077.607938596997</v>
+        <v>-365.8079121812843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3554181051512042</v>
+        <v>0.8730281737533792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-779.7844481571997</v>
+        <v>7.863610970115346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.739153258523192</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.881717752472682</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.80259184016689</v>
+        <v>0.8023748263410313</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4780.220022028399</v>
+        <v>4352.757148135013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2575290254440226</v>
+        <v>0.1924550769629803</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-58.70059282152806</v>
+        <v>-53.2804523704591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7564614326470643</v>
+        <v>0.7693895481606015</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.0331786514732</v>
+        <v>168.2084061645994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2429347251172839</v>
+        <v>0.1161185588826732</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09190308412202086</v>
+        <v>-0.08313873280906853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4568701285649962</v>
+        <v>0.4488380663953363</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.311011954694538e-05</v>
+        <v>3.330397784132391e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8653388541701158</v>
+        <v>0.7814592156278803</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.251812548468081</v>
+        <v>-6.632417531711724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8359761392204909</v>
+        <v>0.8210447522559965</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.44206530308442</v>
+        <v>-16.90049805307569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4084733113238754</v>
+        <v>0.3468031385127517</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>959.5588939001645</v>
+        <v>769.4974004660321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6916977036100298</v>
+        <v>0.714556626635469</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1624.845827106697</v>
+        <v>1299.114176942193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6221556425134174</v>
+        <v>0.6235777694351923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-587.123474695687</v>
+        <v>-341.2419592782662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8608635283759235</v>
+        <v>0.8824895928823028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-477.0290748015032</v>
+        <v>27.33532033874508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8483953360541686</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.85357844660624</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3421876543390192</v>
+        <v>0.3355711779332096</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4907.757724143291</v>
+        <v>3937.611701784688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2096928450259224</v>
+        <v>0.2695018537583308</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-84.11791629886716</v>
+        <v>-69.599588131215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6486395801980338</v>
+        <v>0.6999942482630881</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.4653482789585</v>
+        <v>210.4341101111483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1413196894775313</v>
+        <v>0.06570732767908737</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07716705444017098</v>
+        <v>-0.04379499835502459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5817225787265674</v>
+        <v>0.7346111004317735</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.524720072257202e-05</v>
+        <v>-1.260485377730525e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7464041942849915</v>
+        <v>0.922537065617852</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.93927370060896</v>
+        <v>9.776974870175625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7049237477072836</v>
+        <v>0.7517320313152989</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-18.11036805865854</v>
+        <v>-11.92306869791984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.403214281284148</v>
+        <v>0.5370301268307716</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>728.719772633051</v>
+        <v>172.7623973661189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7654320560397387</v>
+        <v>0.9393421975945203</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.1262242713146</v>
+        <v>-571.5591936911678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9151569094600456</v>
+        <v>0.8214375446948772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1839.540131282512</v>
+        <v>-392.6914440768378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4925005459285227</v>
+        <v>0.8647183933308445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-530.2255030823753</v>
+        <v>17.08193094982546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212959340354004</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.22475532708138</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4806067484720565</v>
+        <v>0.5396062425058601</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4383.481479382986</v>
+        <v>3950.582107116913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230718571581336</v>
+        <v>0.2626433136022743</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.05062395746666</v>
+        <v>-73.0335965150166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.731886034574446</v>
+        <v>0.6809917763346098</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.8100681093785</v>
+        <v>192.5688184318696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1327336652630586</v>
+        <v>0.06822779927664976</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05091152210542449</v>
+        <v>0.05865740801450077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6182948982189628</v>
+        <v>0.5576059056134155</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.422160831707669e-05</v>
+        <v>5.050670560054973e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7825089754207307</v>
+        <v>0.6731616655476269</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.897212068922492</v>
+        <v>6.980460351906629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7989275039517894</v>
+        <v>0.818881391775143</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.962712232001429</v>
+        <v>9.25941455818392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8075821362498943</v>
+        <v>0.6267944631252592</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2280.951643756904</v>
+        <v>1632.320581171873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3592705274867628</v>
+        <v>0.4647032240761206</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2777.540553839542</v>
+        <v>-3582.521688379971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2690301532679959</v>
+        <v>0.1017327205669794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1589.738130580768</v>
+        <v>-273.1207479784598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.513795117930216</v>
+        <v>0.885421717958049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-382.6753103246529</v>
+        <v>-27.84811232505806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8430597884497669</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.30600041117882</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4979996048455739</v>
+        <v>0.4023936251298311</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.895980294123</v>
+        <v>261.5273819204049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6982018779303243</v>
+        <v>0.938680806081999</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-167.2747123709534</v>
+        <v>-152.5368991862967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3776783279156775</v>
+        <v>0.4193527203104794</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5071022526428</v>
+        <v>309.4184005998843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05395067318880113</v>
+        <v>0.01867463575594954</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1056117065267874</v>
+        <v>-0.08995389125136072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3248593767004752</v>
+        <v>0.3954448152798929</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002088324502483359</v>
+        <v>-0.0001424384548319091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1677125487356276</v>
+        <v>0.2893572176177491</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.39594685739789</v>
+        <v>46.69894669553282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2093063028152048</v>
+        <v>0.2413995574595716</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.09802104856709</v>
+        <v>-0.9282763356173973</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5953762480072159</v>
+        <v>0.9596162129071233</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2421.752964255633</v>
+        <v>1383.117059403079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3215418844750076</v>
+        <v>0.5295641978376353</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2294.607654314781</v>
+        <v>-3214.18931322449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4251111710382132</v>
+        <v>0.2446042199217697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2819.934518195563</v>
+        <v>2686.313478537993</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3118223692786577</v>
+        <v>0.2760403222570668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3257.567098150002</v>
+        <v>40.29558151182829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2008081527300439</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50.12319649571145</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1179158088120611</v>
+        <v>0.1817056504219551</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1608.969631271111</v>
+        <v>1432.885488303328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.634560759662945</v>
+        <v>0.6560877838786956</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-124.6642337291591</v>
+        <v>-116.9801046884269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4560873720638849</v>
+        <v>0.4639931868195474</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.8151450419091</v>
+        <v>253.4723748768285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01657532061596452</v>
+        <v>0.008025803233433151</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005804729304685348</v>
+        <v>0.0108941006306332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9498381782754837</v>
+        <v>0.9009564279213889</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.774229677534167e-05</v>
+        <v>4.451826982993672e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7264193542523887</v>
+        <v>0.6612687419607034</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.28184173247184</v>
+        <v>19.42412651310251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4755222313011351</v>
+        <v>0.478859802882964</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.448406374462955</v>
+        <v>6.898636722098296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7660042181221071</v>
+        <v>0.683027924086797</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-560.7036748476771</v>
+        <v>-746.8386658118452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7910209136829496</v>
+        <v>0.6983063142521211</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1764.940977951491</v>
+        <v>-2037.13354230582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4311708803130507</v>
+        <v>0.2862053698961258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-580.0057125849303</v>
+        <v>-1063.227097961338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8040824188198253</v>
+        <v>0.5731908607282097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1151.595967806258</v>
+        <v>23.92392627529798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5596110569036834</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.69663512307775</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3635924744426892</v>
+        <v>0.3680220805125479</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4539.309566216872</v>
+        <v>4194.593179539448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1981485309361087</v>
+        <v>0.2230602594493914</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.60905112984881</v>
+        <v>-1.30505096158754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9508404714129166</v>
+        <v>0.9943807836623011</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.9702189024453</v>
+        <v>184.283887690529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2024328851162607</v>
+        <v>0.1196121930838484</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05113219273195929</v>
+        <v>0.06833015011803328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6344567407471021</v>
+        <v>0.5116040272266948</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.512924286746229e-05</v>
+        <v>3.884998288573632e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8496747715348052</v>
+        <v>0.7648334821192656</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.481608227260772</v>
+        <v>-7.973637849086863</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9135745608629473</v>
+        <v>0.7981068042101979</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.619804731665068</v>
+        <v>-2.455024331590405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8353617494987381</v>
+        <v>0.9102253338148032</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3298.736835366895</v>
+        <v>2698.56734192496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2199567932138974</v>
+        <v>0.2837951526897394</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1606.578130208592</v>
+        <v>-2382.622576603667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5142690607674203</v>
+        <v>0.2851234660393556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1932.445210450652</v>
+        <v>463.9198589429277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4549760081046694</v>
+        <v>0.8169012793512198</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.3320774544527</v>
+        <v>-8.725952378482816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.934997145654111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.849826649869982</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8320637865706226</v>
+        <v>0.7840351013699749</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6352.612287072938</v>
+        <v>5866.062674690251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09334117623767141</v>
+        <v>0.09320328478670518</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-42.90242384241878</v>
+        <v>-37.53783872422747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8291714144444913</v>
+        <v>0.8464924978776655</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.2387965299656</v>
+        <v>145.6519990690765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2524385330974726</v>
+        <v>0.1808285089102876</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0503743854949481</v>
+        <v>-0.03179299702305985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6574905731253617</v>
+        <v>0.7548789752921872</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.567477590999158e-05</v>
+        <v>0.0001110392105726551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8155576580353813</v>
+        <v>0.6619453805168865</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.434103577732799</v>
+        <v>-9.083172803126274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8732077578829827</v>
+        <v>0.7776870972700799</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.23233138832995</v>
+        <v>-20.61519138219328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2479841126943562</v>
+        <v>0.2657400002452722</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-145.4675993082656</v>
+        <v>-822.1267930710037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9679345800118446</v>
+        <v>0.7946907387689933</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-997.5318494350799</v>
+        <v>-1419.744023481043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6849500908612456</v>
+        <v>0.5174355745948362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1116.031570403544</v>
+        <v>306.9167972057458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6792396324697897</v>
+        <v>0.8853930475238201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141.9000196598463</v>
+        <v>12.48559316537981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.94890242518424</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.59838004399404</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6149992284509277</v>
+        <v>0.6545010154774967</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5722.508426251495</v>
+        <v>5248.539682299835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1515432842727534</v>
+        <v>0.1155588928392832</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.87476099869167</v>
+        <v>-28.48381132164332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8802588471355562</v>
+        <v>0.8787525037403753</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.3165144158197</v>
+        <v>193.2280623357218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2083744176938373</v>
+        <v>0.1277514277123194</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006954940428194584</v>
+        <v>0.02331944673143379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9562344137470868</v>
+        <v>0.8213998912376062</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.142845662949776e-05</v>
+        <v>-3.625985125615272e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9323283221820418</v>
+        <v>0.9772332330172703</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.72666946449197</v>
+        <v>1.161494683659097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9552765491658017</v>
+        <v>0.9690138775750275</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.64206415632398</v>
+        <v>-28.01001051471626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1923305148005285</v>
+        <v>0.1621339754782138</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1791.771464325322</v>
+        <v>1489.398789852783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.483415185587686</v>
+        <v>0.4879462647827685</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1448.589641913873</v>
+        <v>-2081.610933179447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7081204770328312</v>
+        <v>0.4443918680171912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-818.5269656762521</v>
+        <v>237.4488683328009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8139941274752269</v>
+        <v>0.9174176541766971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.464229051086022</v>
+        <v>24.77198273934752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999543659608698</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.03814876746723</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4440335221950757</v>
+        <v>0.4160408039039157</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6451.002064609313</v>
+        <v>7279.374715615714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05377821840029966</v>
+        <v>0.02404824472343164</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.63464302573516</v>
+        <v>71.33588803312375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6447791003182357</v>
+        <v>0.6910883081403787</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1595400675313</v>
+        <v>123.3152411913501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.138522050053005</v>
+        <v>0.2022932908570532</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03729152527867746</v>
+        <v>0.02202956343840967</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7415136678686134</v>
+        <v>0.8424908390264617</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.880047642606965e-05</v>
+        <v>6.127590168150546e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8072840181198736</v>
+        <v>0.9572695473633411</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.3038365669888</v>
+        <v>-15.09618245618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.646913984790168</v>
+        <v>0.6264730678996254</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.44849584027855</v>
+        <v>-37.64213829544584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1236456190917707</v>
+        <v>0.05125578618319531</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350.2394976442738</v>
+        <v>1072.407499845302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8653414607170772</v>
+        <v>0.5704794391940085</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2393.547065414057</v>
+        <v>-1113.719099619049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3818004228673448</v>
+        <v>0.6241350610085803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.585971014008</v>
+        <v>556.5498992535186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3848798326969465</v>
+        <v>0.7963063314958436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>577.6010159006496</v>
+        <v>13.81729544855351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7901600788697304</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.935253970463727</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7915550049236022</v>
+        <v>0.6353752295943143</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1216.256721442081</v>
+        <v>-1645.989124932667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6782747037891519</v>
+        <v>0.5908968114251308</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.62856937274341</v>
+        <v>-82.23401521294181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4915867630645423</v>
+        <v>0.5542564290298564</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.0183011833068</v>
+        <v>303.6205673964569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00327532991567114</v>
+        <v>0.001195292738969895</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01172251686269299</v>
+        <v>0.02583064892334644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8776495146429233</v>
+        <v>0.7343546398793547</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001633576533372655</v>
+        <v>-5.39064658177631e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2174823862849031</v>
+        <v>0.6433641366314935</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.4851855134982</v>
+        <v>42.45278440980937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04780219756944921</v>
+        <v>0.1155045531993983</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3380484701583839</v>
+        <v>10.82047346217362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9833015694248874</v>
+        <v>0.4888455358740668</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1949.42595486745</v>
+        <v>320.3838720582362</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3101981018354113</v>
+        <v>0.8492206583374124</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2889.711332717608</v>
+        <v>-3943.529906635671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1215215568977984</v>
+        <v>0.03552353009892992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3290.811431162589</v>
+        <v>2354.886908273091</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1147329443797824</v>
+        <v>0.4170836705849744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3880.336310017055</v>
+        <v>50.51032414425715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1921643081812326</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>67.16436963530251</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0153558097348275</v>
+        <v>0.04895338049741138</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3636.436271706334</v>
+        <v>2786.29904138219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3768218314114153</v>
+        <v>0.4245231079370495</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.62362111191186</v>
+        <v>-47.28351925020002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7965833449345542</v>
+        <v>0.8188100667134157</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.9264216356199</v>
+        <v>207.6647844831051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1676987640910804</v>
+        <v>0.07676262214408211</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1358518849033561</v>
+        <v>-0.111912122219563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3229476552406074</v>
+        <v>0.3581279814219142</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.032575346900251e-05</v>
+        <v>-9.431876547626012e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8291159039977425</v>
+        <v>0.941489348850205</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.08636234475636</v>
+        <v>2.841203404885135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8632066463970712</v>
+        <v>0.9328069797097712</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.84470648768782</v>
+        <v>-12.54989867375119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4479339794150939</v>
+        <v>0.5166012968592817</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1662.666855639599</v>
+        <v>1183.800176759143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5513222246109035</v>
+        <v>0.6339785758262403</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1026.314161475097</v>
+        <v>450.6815643934315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7440460479367816</v>
+        <v>0.8705688407515852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1380.539128997812</v>
+        <v>506.4802882595363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6729955850542082</v>
+        <v>0.8194847086317467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.608724355264</v>
+        <v>44.14568480011765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9586169015997505</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>44.91004232284751</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.184033004156766</v>
+        <v>0.1805368461403356</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4050.344383795551</v>
+        <v>3679.967991996244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2786951357072339</v>
+        <v>0.2931210132543789</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.77630803176186</v>
+        <v>-18.63278010632007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8983209855232828</v>
+        <v>0.9270003171197297</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.8363432583065</v>
+        <v>221.6361049552081</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1083147019055516</v>
+        <v>0.07397002218299067</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002947664726273863</v>
+        <v>0.01432529555876164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9796109474218321</v>
+        <v>0.8948486286150164</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.166563382869718e-05</v>
+        <v>-9.424887591565089e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8904431172973307</v>
+        <v>0.9733573086810408</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.529499526771843</v>
+        <v>3.912109949659154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8622959631685716</v>
+        <v>0.9136069421188179</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.68798373483888</v>
+        <v>-11.70432866535923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4970212211145455</v>
+        <v>0.5477786890261183</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1426.38807987751</v>
+        <v>900.9668474326909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7267642756039256</v>
+        <v>0.8087032821889624</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1397.164257217408</v>
+        <v>-1814.197829708909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6174995467193394</v>
+        <v>0.4675456598362963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1074.447857043273</v>
+        <v>733.3382982107032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7172350665317826</v>
+        <v>0.7539361989907014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>652.3672167107861</v>
+        <v>16.27863672567305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7862945586424307</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.8227829609017</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5429198119063361</v>
+        <v>0.5794781472509145</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2402.738478172396</v>
+        <v>2371.04269514843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3436392601523648</v>
+        <v>0.3339516611326813</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.59204980630744</v>
+        <v>-35.1951724211022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7695804604983558</v>
+        <v>0.7591680479459467</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8062368536465</v>
+        <v>160.4679244961773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03624909630641111</v>
+        <v>0.02205306566462745</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0976002994266551</v>
+        <v>0.1001762065491318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1325603780207107</v>
+        <v>0.09260542183546648</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.434984465133686e-05</v>
+        <v>8.590245796251904e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2952666717109227</v>
+        <v>0.2671153107852486</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.827941245777701</v>
+        <v>-10.24106208326691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6099232464364648</v>
+        <v>0.578591487730359</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.85198641611344</v>
+        <v>11.81075909800644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5054805770419386</v>
+        <v>0.4951452813142988</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1902.632829321383</v>
+        <v>1845.093536503258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2220749714938038</v>
+        <v>0.1994739993342985</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2260.455684254826</v>
+        <v>-2362.470924558358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1575572361452574</v>
+        <v>0.07210820022488784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-188.3234875079852</v>
+        <v>581.2833684406023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9060455725224024</v>
+        <v>0.621773183610733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>545.6452462238976</v>
+        <v>0.03833484938364506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6618437492932872</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.1883755591720799</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9923931398948393</v>
+        <v>0.9984014457160424</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6999.388996963413</v>
+        <v>6077.668439967201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0581664558764868</v>
+        <v>0.084295620792464</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-109.679172692575</v>
+        <v>-99.69678578366236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.587077320766991</v>
+        <v>0.6206251052677001</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.7601788412665</v>
+        <v>202.5157373950954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3992457396147505</v>
+        <v>0.2227985684818413</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03243922148150963</v>
+        <v>0.06099030904055711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7468300569827819</v>
+        <v>0.527696625787154</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.324473832854477e-05</v>
+        <v>5.893292226991944e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7910096959940085</v>
+        <v>0.6316558274563646</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.94928809381651</v>
+        <v>-14.73649212053294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6937479739304836</v>
+        <v>0.6535758391560055</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.41508162611572</v>
+        <v>-10.92948703330771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4945418445453829</v>
+        <v>0.5980690861257051</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3883.616106031231</v>
+        <v>3079.534864215447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1604564769467031</v>
+        <v>0.2383756092914245</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-658.1842366583933</v>
+        <v>-2184.860167734951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8010730137276005</v>
+        <v>0.3061396306225678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2512.67377894733</v>
+        <v>184.6122679002801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3285699905007494</v>
+        <v>0.92113045208739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-213.1430397540217</v>
+        <v>-23.35932911153574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9110701971954399</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-24.55506963451149</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4081209235216821</v>
+        <v>0.4300777095863267</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5974.155117226062</v>
+        <v>4701.141127541239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361771071072831</v>
+        <v>0.1769120273908863</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-106.5600433025755</v>
+        <v>-70.50462509966746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6025989167941781</v>
+        <v>0.7177232443280055</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.4180228384345</v>
+        <v>225.4640196927647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1941917684311205</v>
+        <v>0.08536495309623696</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09519057765000599</v>
+        <v>-0.0718251938728251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4653086287534112</v>
+        <v>0.5622271024602588</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.37433884976253e-05</v>
+        <v>-3.830327017132742e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8685445495873152</v>
+        <v>0.9779638236361363</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.924029856024305</v>
+        <v>9.152040449164502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8160074769546942</v>
+        <v>0.7849496643318435</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-23.43453055283705</v>
+        <v>-15.92975239756085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2999959457758514</v>
+        <v>0.4141660518224671</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.1616835265977</v>
+        <v>367.3692321493363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7248833667051469</v>
+        <v>0.8792188039382708</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.9488140980666</v>
+        <v>-1337.403120211413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9609036029109126</v>
+        <v>0.5923438660849383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2621.80330669071</v>
+        <v>-63.36799507173509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4790220147769729</v>
+        <v>0.9779043737221588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-165.2035725709902</v>
+        <v>13.36564683111381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9433601108323506</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.98648053731623</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5985955430023461</v>
+        <v>0.6524669768389899</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.8206507427585</v>
+        <v>68.56097461422087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8203005041535036</v>
+        <v>0.9823542804200271</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-115.3796077765512</v>
+        <v>-120.8136998529438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4653430716782628</v>
+        <v>0.4413882372420438</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.3040678862019</v>
+        <v>246.0017629465877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240644523284545</v>
+        <v>0.01037502325433777</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003436380814607481</v>
+        <v>0.02331237598454428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9965331855286833</v>
+        <v>0.7525946372968119</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001543745254430819</v>
+        <v>-6.904758138944053e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5183364952503289</v>
+        <v>0.748692445476539</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.06255971465674</v>
+        <v>20.79270946237388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3091704225635036</v>
+        <v>0.4107690032003477</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.121529489330165</v>
+        <v>2.808652112277663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8432692685040394</v>
+        <v>0.8834224807391775</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1611.518947385495</v>
+        <v>373.3221061061413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6128765147854649</v>
+        <v>0.8947920585207004</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2522.211420481848</v>
+        <v>-3168.787390330438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2402458958382446</v>
+        <v>0.1179244018612713</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1930.650752605561</v>
+        <v>3365.372416457687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3860147731387159</v>
+        <v>0.1030320906295833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3588.802840897423</v>
+        <v>53.58837139196397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08859768749173338</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>59.69528857886749</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03482014098960966</v>
+        <v>0.0456570280622887</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5614.685274937803</v>
+        <v>5342.623447597752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1034345308751509</v>
+        <v>0.1010748145810076</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.3717864247998</v>
+        <v>140.7928165818197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5380400188521932</v>
+        <v>0.4994626493199747</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.5783027419279</v>
+        <v>190.0501451612899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121314178394593</v>
+        <v>0.08982471985596029</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01603373861019833</v>
+        <v>-0.003413611722511339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8812955081634963</v>
+        <v>0.9722608703794942</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.820272653984102e-06</v>
+        <v>1.729749543454115e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9652335281007512</v>
+        <v>0.8908272242232765</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.018312274500307</v>
+        <v>1.420957860359081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9079153278006251</v>
+        <v>0.965705037354138</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.05473819034357</v>
+        <v>-32.22984160414467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1277483492491195</v>
+        <v>0.1264674107035053</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1792.707297736069</v>
+        <v>1579.252203222275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4950609848104303</v>
+        <v>0.5249908966121681</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1265.151150124772</v>
+        <v>-1617.647731411948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6271444252484718</v>
+        <v>0.4881768118251476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-845.6966970411668</v>
+        <v>-303.1901872842368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7363465539326304</v>
+        <v>0.8917887557371948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-451.2629290069381</v>
+        <v>25.69220189312881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8462026605535324</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.75488891460019</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.356984894085474</v>
+        <v>0.3613469486324545</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4239.784144057552</v>
+        <v>3786.658409054669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2081313216834046</v>
+        <v>0.2312516883998209</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20.41319905556975</v>
+        <v>-18.18634467872062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9095289192477957</v>
+        <v>0.9176616237982612</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1220403640246</v>
+        <v>191.7653545794703</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1230892737858577</v>
+        <v>0.05976149608603031</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0749675430836208</v>
+        <v>0.07961980907262844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5019523924539502</v>
+        <v>0.4654368353452317</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.015787958915458e-05</v>
+        <v>3.626045784984331e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8666703033660405</v>
+        <v>0.7492777285263255</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.917082819614116</v>
+        <v>4.502975889485327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8467150877543649</v>
+        <v>0.8800954264749645</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.487236326040076</v>
+        <v>4.502406631833267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9390175263874484</v>
+        <v>0.8038385926284155</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2366.457299015075</v>
+        <v>1790.391392164458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3408484464766248</v>
+        <v>0.4036736032016958</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2496.204079528127</v>
+        <v>-2958.476276957125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3304505985095757</v>
+        <v>0.2097942745183481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1230.951479586619</v>
+        <v>-219.1656810518398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6165670583777558</v>
+        <v>0.9123680991741521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-418.2034982422956</v>
+        <v>-21.19972261652637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8400475042775186</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-19.34974190499439</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5850558826210217</v>
+        <v>0.5395367286955497</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4738.362019502947</v>
+        <v>4370.754456940607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3155993976883005</v>
+        <v>0.3191559420138534</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-31.95028211066818</v>
+        <v>-31.51783520721284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8722436166312859</v>
+        <v>0.8706910092587734</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7636589130365</v>
+        <v>186.9697990400966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2543841464902413</v>
+        <v>0.184262564711101</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02755147221066466</v>
+        <v>-0.01410826418958276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8246164105637275</v>
+        <v>0.8984172052167808</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.216580034619878e-05</v>
+        <v>2.490383063844911e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9327732835358866</v>
+        <v>0.8509543686403197</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.25531995865434</v>
+        <v>3.735003179656822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8992934496951657</v>
+        <v>0.9257463806588038</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.11780582828448</v>
+        <v>-14.27216882089451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4674394007155365</v>
+        <v>0.4834497865998434</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>996.8115551503142</v>
+        <v>634.8894744843265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.727259339105781</v>
+        <v>0.7949052119912381</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1202.991038388545</v>
+        <v>-1683.066467311602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7077115699392278</v>
+        <v>0.5151751189865779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-826.4929119778499</v>
+        <v>139.8481518413519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.791519894190888</v>
+        <v>0.955102696916369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-51.08783285662457</v>
+        <v>15.73895739647243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.984612615586183</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.34002287402822</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5987298518764621</v>
+        <v>0.6178159540933384</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2181.12645705415</v>
+        <v>-1698.303845934388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4951029833643825</v>
+        <v>0.565661016612492</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-163.5988406547767</v>
+        <v>-162.2089677052068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3100190334345609</v>
+        <v>0.3029486804885234</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.7098081921584</v>
+        <v>312.1755920703919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003879617733284878</v>
+        <v>0.003010196468434765</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0220781018070651</v>
+        <v>0.01326431491083627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7993243659104842</v>
+        <v>0.872906549096766</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.414054600944105e-05</v>
+        <v>4.079972538008477e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5954016508589478</v>
+        <v>0.6697986409286727</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.39261030244861</v>
+        <v>23.39763964853194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3848436032140196</v>
+        <v>0.3248632383179679</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.6864561533086</v>
+        <v>17.35633507969712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.259456894263481</v>
+        <v>0.2922184538159389</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1013.422978195615</v>
+        <v>-641.721968027915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5836785016330784</v>
+        <v>0.6946599916269458</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1735.131144780678</v>
+        <v>-1390.262740945406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4313644234703663</v>
+        <v>0.4933204344139444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>955.8096754055837</v>
+        <v>584.0980799813151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6339952115267709</v>
+        <v>0.7131541990303347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>764.9336901869274</v>
+        <v>48.99599663444269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6470761230521922</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>48.43914973569717</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09888697471820489</v>
+        <v>0.08763646588985952</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5933.954664937036</v>
+        <v>4794.063632077603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1446208379196885</v>
+        <v>0.180190765982966</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-131.4473973145206</v>
+        <v>-111.456524743752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5112781291999009</v>
+        <v>0.5661462411211859</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.2116809754898</v>
+        <v>196.5697255901635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1905764791513549</v>
+        <v>0.08744117990096331</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0974906421220231</v>
+        <v>-0.08501760522831808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4287210703378517</v>
+        <v>0.4767686940422273</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.652080453577796e-05</v>
+        <v>-1.632950964035741e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7976511624550557</v>
+        <v>0.904982648871632</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.218596018375919</v>
+        <v>8.842562886954759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8677860315951503</v>
+        <v>0.8088954453425726</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.81197892077315</v>
+        <v>-13.05577474630446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3814007064255976</v>
+        <v>0.5079950183291851</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>575.7326284617875</v>
+        <v>69.41390493251538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8219449844338822</v>
+        <v>0.9769312385651996</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1632.378314424152</v>
+        <v>232.655709962969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6508379331039429</v>
+        <v>0.9352732531754088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2173.496832008153</v>
+        <v>-948.7399139216814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5098500045172614</v>
+        <v>0.6974562026864697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-969.58231972252</v>
+        <v>7.757016215957812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6959407196151416</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.235056508326885</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7847056435104388</v>
+        <v>0.7935829053950464</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5464.853721269448</v>
+        <v>5492.771995283008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1335633397375375</v>
+        <v>0.118158273484361</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.02491719648168</v>
+        <v>28.54242626109024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8741568832675819</v>
+        <v>0.8726657686613887</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.1893870016038</v>
+        <v>225.2142478340342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1024964464029185</v>
+        <v>0.08648505068391966</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04690563804331313</v>
+        <v>0.04515411116744725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.639895370460233</v>
+        <v>0.6282211767926573</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.915600982669381e-05</v>
+        <v>1.751771215122085e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8806779439501684</v>
+        <v>0.8851083890940502</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.94566155445239</v>
+        <v>-11.57416259606673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.71477688879795</v>
+        <v>0.7107777156459951</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.64619693471993</v>
+        <v>-34.83290898753316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1209687754097991</v>
+        <v>0.1056368889088714</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2339.95363999922</v>
+        <v>2378.211427113429</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3712011976172301</v>
+        <v>0.3354540381341422</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1527.716768330955</v>
+        <v>-1457.347732465726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5282810464804002</v>
+        <v>0.4789840526492141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.4036158105646</v>
+        <v>1286.403876956925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9523013102624586</v>
+        <v>0.5121021470867368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1306.834999868038</v>
+        <v>26.14818961700991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5230788399846786</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.90527739122154</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3344763049508549</v>
+        <v>0.3110982285875509</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4882.39586817389</v>
+        <v>3475.086334377134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1038276482462192</v>
+        <v>0.2679110711970728</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-40.50513194296593</v>
+        <v>-23.83021010563266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7858127531378354</v>
+        <v>0.8837387824932887</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3824862164113</v>
+        <v>175.7687485631336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2077333548322802</v>
+        <v>0.07724996088698839</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0565176539232821</v>
+        <v>0.01332371433797623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5492456637155529</v>
+        <v>0.8903645453922684</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003032982607304507</v>
+        <v>-8.082743922270525e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1989028807455288</v>
+        <v>0.7213876262919801</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.0398585340421</v>
+        <v>6.196674935438942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3904678274571691</v>
+        <v>0.8307915049831511</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.16749978471752</v>
+        <v>-5.261057673100801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2810653686925528</v>
+        <v>0.7681842448474762</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6081.289141335948</v>
+        <v>2684.911218116325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06607969249304003</v>
+        <v>0.375347296182495</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1605.13023659181</v>
+        <v>-3135.055305628156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4206215753462321</v>
+        <v>0.1325018719423279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4924.802807420804</v>
+        <v>2464.476353522133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04109654550392756</v>
+        <v>0.2862909389881258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2832.553112555803</v>
+        <v>11.06258545284532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1850934492385619</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.19849331823326</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4039818924420718</v>
+        <v>0.7392472015268591</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2217.696013180881</v>
+        <v>2538.892001130144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5746761194199546</v>
+        <v>0.4679074405338794</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-100.9249726715869</v>
+        <v>-97.43878496988907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.643185502494923</v>
+        <v>0.6447805925450747</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.3519818983766</v>
+        <v>269.9507274173027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05192830826282913</v>
+        <v>0.02955137393649556</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09235942939685376</v>
+        <v>-0.08918848260359474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4818126059392094</v>
+        <v>0.4817689604742212</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001905018944973518</v>
+        <v>-0.0001900282043776618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5518717396282331</v>
+        <v>0.542144405602714</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.23203454009287</v>
+        <v>46.74020512847974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3140333331488341</v>
+        <v>0.3081154750580348</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.549479008430042</v>
+        <v>-4.028825702908236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.948324923001137</v>
+        <v>0.8376469328505951</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2590.475668174664</v>
+        <v>2721.705484523478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5068843433670405</v>
+        <v>0.4673638322854664</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4002.808550537211</v>
+        <v>-3568.832766138002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2675380367534599</v>
+        <v>0.1924598564215864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>692.1377901049436</v>
+        <v>-767.5681965465646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8466503778282261</v>
+        <v>0.7451607980166906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-846.4649689550706</v>
+        <v>13.65517239076061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.730800638457235</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.70249648884332</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7148025855567606</v>
+        <v>0.6447393275162365</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5036.285824738051</v>
+        <v>4468.269462540788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2383377438890871</v>
+        <v>0.2312343651027953</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.47342786894706</v>
+        <v>-77.27961266497005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7329160652995581</v>
+        <v>0.7423344699912238</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.8497051486248</v>
+        <v>233.7920208506706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1415425620872338</v>
+        <v>0.06712246938489079</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04938605468910487</v>
+        <v>-0.03590289819989623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6915457892802206</v>
+        <v>0.7515492664425338</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.080229086344303e-06</v>
+        <v>1.239822114975447e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9885749055950261</v>
+        <v>0.9262655707224718</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.47095757844257</v>
+        <v>17.78598923110142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6451922956090931</v>
+        <v>0.6487802095734519</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.44597464832454</v>
+        <v>-11.3119029215605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5372673872817888</v>
+        <v>0.5808677117962562</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>726.0071752411095</v>
+        <v>362.1213982912204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8060534977342125</v>
+        <v>0.8908400352561563</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2153.580569767698</v>
+        <v>-2726.221444049082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.514601874810934</v>
+        <v>0.3073602515681064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1053.63089619598</v>
+        <v>-989.3347285093405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7597621769267531</v>
+        <v>0.7022584268924232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1190.299654172123</v>
+        <v>5.998290288641336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.663530009435878</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.77571560985119</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8010067470854447</v>
+        <v>0.8547467912264046</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3061.20478763929</v>
+        <v>2665.870319582772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4328845880837745</v>
+        <v>0.4507597734686754</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-116.7589970584751</v>
+        <v>-116.1355555805718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5357471946783761</v>
+        <v>0.5267921794033109</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1615129100848</v>
+        <v>229.0887011000855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09750392054562709</v>
+        <v>0.06237679549875332</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06701163553565301</v>
+        <v>-0.06472375089387367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5899333675606521</v>
+        <v>0.5918905084286676</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.196944007090988e-05</v>
+        <v>-1.360452301640998e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8728655342050103</v>
+        <v>0.9169238545002873</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.75235348316787</v>
+        <v>16.90197682305347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6454011570372968</v>
+        <v>0.6515268127713629</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.48135969767808</v>
+        <v>-9.718147275192869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5656989728177692</v>
+        <v>0.6055212462626769</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1158.461256259516</v>
+        <v>894.3484861500874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6341601239781215</v>
+        <v>0.6819466088080924</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-680.2380735856759</v>
+        <v>-986.0062318014307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8316312162942007</v>
+        <v>0.7365807726260983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-847.795086230125</v>
+        <v>-800.129311069622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7788777221164287</v>
+        <v>0.7414471686737997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-913.9780127328213</v>
+        <v>37.24439015558937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7174119021113028</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>37.98200978958839</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2195129974809409</v>
+        <v>0.2140168206956014</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2280.652815608985</v>
+        <v>1414.722864837129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4371733536085475</v>
+        <v>0.58995139935771</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.52337821378615</v>
+        <v>69.29601871300883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6078229471900261</v>
+        <v>0.61396986390282</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.5716782716612</v>
+        <v>174.4073761800177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1515737324758999</v>
+        <v>0.05089095495066424</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04676223521258849</v>
+        <v>0.06592161333352831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5566595363491511</v>
+        <v>0.3754572052014232</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.31619016427633e-05</v>
+        <v>0.0001126243514616896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3337676420738102</v>
+        <v>0.2201171207836928</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.493134154921236</v>
+        <v>-2.310430290893677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9477375215400137</v>
+        <v>0.9179986728350042</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.60663500376728</v>
+        <v>20.78929287362895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4366225100836233</v>
+        <v>0.2641393272377413</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2232.783558152711</v>
+        <v>1550.225060569428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2687306196905739</v>
+        <v>0.3724685780975799</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1043.365369474881</v>
+        <v>-1832.520874276189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5968239837002427</v>
+        <v>0.2637246932404335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1468.629564092596</v>
+        <v>-424.2135762724811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4730657803987607</v>
+        <v>0.7927330148189305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-746.4134454665173</v>
+        <v>-7.197249695380663</v>
       </c>
       <c r="C12" t="n">
-        <v>0.660579642013204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.531265174012312</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7516604881734394</v>
+        <v>0.723471282494867</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3484.378522706196</v>
+        <v>3101.122442013326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3514765714905821</v>
+        <v>0.4065877196332495</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-167.5569622758161</v>
+        <v>-192.6962160056889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3786901982125185</v>
+        <v>0.3123956212630935</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.3765283135255</v>
+        <v>214.4118996391647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08993059462966373</v>
+        <v>0.04701964786445198</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02872958206938631</v>
+        <v>-0.0003641872351455855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7643847267378866</v>
+        <v>0.9968725110604699</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003214461166264003</v>
+        <v>-0.0001789751680561905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2700979880454898</v>
+        <v>0.4909217421183742</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.91067693936728</v>
+        <v>26.24545536020985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2976370446861349</v>
+        <v>0.4309249028509503</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-23.38721178180246</v>
+        <v>-14.35759621617591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2330930586820016</v>
+        <v>0.4174286598185858</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3625.495058115243</v>
+        <v>1450.072929668571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3421586319209919</v>
+        <v>0.6559746351143254</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3381.046475813196</v>
+        <v>-4486.775740205869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1814110214181627</v>
+        <v>0.06003604484327692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2920.018440748004</v>
+        <v>3318.461484236989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2724377918499901</v>
+        <v>0.1793535581098582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3877.132283042697</v>
+        <v>39.27697437782905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1256146939637278</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>54.48380648262118</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1561034527915421</v>
+        <v>0.2693808069959857</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5042.939960703761</v>
+        <v>5136.663384695633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1519715408799474</v>
+        <v>0.1246602576359302</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-48.62519118585556</v>
+        <v>-50.97264184888115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.814891403002818</v>
+        <v>0.8000304998294633</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.5105278793908</v>
+        <v>275.4518634546686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07527292424033501</v>
+        <v>0.05887419068235617</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03685197210316322</v>
+        <v>0.03202202474458489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7398401074022836</v>
+        <v>0.7506291508894808</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.745483986034661e-05</v>
+        <v>-2.14427244527545e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8972396848758134</v>
+        <v>0.8665237304316882</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.84962712241264</v>
+        <v>-11.90248227735258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7219157664530714</v>
+        <v>0.7285152298383417</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.71179289882355</v>
+        <v>-30.17385987005332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2012371374057753</v>
+        <v>0.176631866037319</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2246.913500351006</v>
+        <v>2319.438645155979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4220031673669941</v>
+        <v>0.383522255248504</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1272.22826737178</v>
+        <v>-1130.942693433691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6400400146862115</v>
+        <v>0.6361603866325137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>320.8595475890424</v>
+        <v>1803.343385352218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.903421823261661</v>
+        <v>0.4252747199791052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1870.641824111435</v>
+        <v>25.84029205284064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4340359381103305</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.48589027256497</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3904371831988845</v>
+        <v>0.368645520664811</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ15330260" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ15463775" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15688753" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15827122" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16037159" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16222012" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16354316" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16476778" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16593436" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ16726860" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ16854576" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ16986012" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ17108613" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ17240129" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ17356858" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ17471329" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ17606216" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ17762650" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ17909912" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18030221" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ18154069" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ18290640" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ18432405" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ18555197" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ18664850" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ18791510" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ18904305" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ19043600" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ19158718" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ19272052" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ19399976" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ19516130" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ19632708" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ19746639" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ19844041" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ19948304" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ20078881" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ20285127" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ20400253" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ20503474" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ20606795" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ20715471" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ20820327" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ20912147" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ21028223" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ21131624" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ21232458" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ21330338" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ21466315" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ21576929" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ44455485" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ44552852" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ44650364" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ44747331" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ44841619" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ44936125" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ45036395" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45224728" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ45333769" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45430285" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ45526804" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ45641523" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ45764194" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ45881236" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ45993932" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ46114640" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ46241092" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ46360998" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ46465322" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ46565342" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ46662856" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ46755865" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ46849377" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ46942334" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ47036845" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ47135572" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ47231449" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ47331294" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ47430807" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ47529515" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ47626280" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ47726257" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ47822775" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ47915807" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ48010327" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ48107849" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ48201363" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ48294874" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ48393389" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ48491068" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ48585575" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ48685669" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ48779441" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ48875803" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ48969331" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ49065845" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ49209423" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ49307464" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ49401973" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ49497596" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ44455485" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ44552852" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ44650364" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ44747331" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44841619" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44936125" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ45036395" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45224728" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ45333769" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ45430285" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ45526804" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ45641523" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ45764194" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ45881236" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ45993932" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ46114640" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ46241092" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ46360998" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ46465322" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ46565342" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ46662856" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ46755865" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ46849377" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ46942334" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ47036845" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ47135572" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ47231449" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ47331294" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ47430807" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ47529515" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ47626280" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ47726257" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ47822775" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ47915807" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ48010327" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ48107849" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ48201363" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ48294874" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ48393389" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ48491068" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ48585575" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ48685669" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ48779441" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ48875803" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ48969331" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ49065845" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ49209423" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ49307464" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ49401973" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ49497596" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ20107105" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ20242711" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ20390173" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ20530934" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20664124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20792190" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20929977" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ21093832" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21262616" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ21406463" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ21535628" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ21681932" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ21859484" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ21975648" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ22096343" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ22209583" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ22411217" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ22528717" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ22642217" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ22769233" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ22882450" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ22985024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ23098434" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ23217767" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ23323035" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ23434918" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ23587517" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ23745063" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ23888273" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ24011949" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ24132167" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ24242900" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ24353696" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ24462033" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ24594943" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ24735726" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ24898611" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ25041944" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ25178465" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ25314580" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ25481778" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ25593771" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ25718778" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ25836628" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ25959451" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ26078102" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ26187708" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ26340763" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ26459453" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ26594738" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4669.399697298675</v>
+        <v>5560.003095795707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2140210861065637</v>
+        <v>2.072019034606379e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.44311348012616</v>
+        <v>115.8475996723416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9338221439123164</v>
+        <v>0.2084088687876664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.8646017457581</v>
+        <v>0.1048891590072547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11055003135793</v>
+        <v>0.2648537479475946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.020893455576937</v>
+        <v>-158.5305971273688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8135482130229521</v>
+        <v>0.931557118122974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.727085686217575e-05</v>
+        <v>-4047.534666151266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4912658513884024</v>
+        <v>0.06275069481926239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.626669927190335</v>
+        <v>-210.7382988092183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8875801668869824</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-22.19643451359971</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2251590687841779</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>21.36717717182455</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.992084309591226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3027.249516204164</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1767683865412884</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4115.199221258998</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1088073954555379</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.6256301921951</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5588253461445543</v>
+        <v>0.2952383786278073</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5028.241990734728</v>
+        <v>3936.667076205865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1556914682162599</v>
+        <v>0.000229534197142419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.78313412257238</v>
+        <v>199.2401317151797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8478178138540312</v>
+        <v>0.0130119909172444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.7421493449207</v>
+        <v>0.1642185639543765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06099889467803508</v>
+        <v>0.05127163924628132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01402965268284623</v>
+        <v>193.7614773883398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9020841210262008</v>
+        <v>0.9051123527506012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.276794263724735e-05</v>
+        <v>-3311.00975168932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801059924338159</v>
+        <v>0.06786046326458334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.461942934233555</v>
+        <v>15.81282992643628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9632627386845528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-15.05400790642537</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4146911736097232</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>272.9049641432898</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9074687643194687</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1379.426188724337</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5484379900183654</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>305.4173560728282</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8851328557694808</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.921769878984875</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8757367219179426</v>
+        <v>0.9186294897316288</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6180.090825003148</v>
+        <v>4920.48235196274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09736975636906524</v>
+        <v>0.0001280079438973405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.3613075738448</v>
+        <v>215.0822175231158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6031443577346893</v>
+        <v>0.03471691996236842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.8425327373836</v>
+        <v>0.01293978286444677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2506726860075058</v>
+        <v>0.9071802265466473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09694423913301403</v>
+        <v>-230.7747551858993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3369870452869994</v>
+        <v>0.9051223588901895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.414781912565388e-05</v>
+        <v>-644.7122397596609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5880309069734335</v>
+        <v>0.795856684099909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.55868803423224</v>
+        <v>-393.6718518769332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4292565747021464</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.478918981392553</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7728703778185591</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2457.605270302626</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3724391462084672</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1814.295350711529</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4043648259797878</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>624.7714105736663</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7610111456066315</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-34.36989926142584</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3060471016055238</v>
+        <v>0.08557713805397903</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.659991109805</v>
+        <v>5710.333862486276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6572327051967234</v>
+        <v>1.528737354285844e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-26.95691267416572</v>
+        <v>105.9041722067274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8633218885058044</v>
+        <v>0.226118954679937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.9039112176852</v>
+        <v>0.02852293671562157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03314218558305038</v>
+        <v>0.7837430450956947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03408870008904917</v>
+        <v>-774.3921021929987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7103538501359214</v>
+        <v>0.682713180066687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.884752704643227e-05</v>
+        <v>-2946.269848201282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.649665315996677</v>
+        <v>0.1913617705067332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.54839800110112</v>
+        <v>-120.5666569630637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.504342909140463</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.42381049829055</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7032781880625323</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-680.6840740526</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7193723818459228</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2518.265636604568</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1947235753849131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1134.66144526986</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5628615789867103</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.24137859228868</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1683053223694537</v>
+        <v>0.4952042291212374</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3817.955265676155</v>
+        <v>4151.81951480895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2327869976071227</v>
+        <v>0.0006592833441586716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.60945844653656</v>
+        <v>165.706653358964</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8609116291712503</v>
+        <v>0.06231984690930078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7436462951735</v>
+        <v>0.1442650185373155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02645190299288709</v>
+        <v>0.139015870541805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02548554516097789</v>
+        <v>875.0126651992662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7640420024430995</v>
+        <v>0.6764176236552595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.55109797097815e-05</v>
+        <v>-3164.842873197178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5154621693882288</v>
+        <v>0.1891566640844911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.43050650046041</v>
+        <v>-88.32156987098068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4608937769096713</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-29.24409807857277</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1017047215720952</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1857.292124407791</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.315804375808916</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3444.974672643903</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1374660377931567</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2213.937807538725</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3322551962683478</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>42.83040099270224</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1215133855975508</v>
+        <v>0.6376018171864302</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3596.075781782782</v>
+        <v>4542.776725505459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3162820434284717</v>
+        <v>7.910693611118925e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-155.5845286721523</v>
+        <v>216.161071934476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4094278015495071</v>
+        <v>0.02852672210257467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.2036888245951</v>
+        <v>0.08382698423256979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02683383327966818</v>
+        <v>0.3030390463597379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0443031084171369</v>
+        <v>1134.097302399188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6995130002897909</v>
+        <v>0.5894911904299927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002918372722919014</v>
+        <v>-3009.559079793588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3861360061691284</v>
+        <v>0.1132493445342693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.61082475605424</v>
+        <v>-84.73748319349829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4149266445977814</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.780236285079575</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6684472332731495</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2295.929294383983</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5259129407415897</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2283.802028302761</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3468318055778277</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>306.4937727361128</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.883463705193812</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.19353015547819</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5884965267533099</v>
+        <v>0.6148062819290121</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3881.19953024833</v>
+        <v>4616.589100271941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2186850731601383</v>
+        <v>0.0005625747101981089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-49.36406237819011</v>
+        <v>185.6149204635603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8003006224467298</v>
+        <v>0.1032789922585343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.8482011122555</v>
+        <v>0.09773504275986061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.156166912426202</v>
+        <v>0.33601711497939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01176275668656543</v>
+        <v>-14.37077834651745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9121364380692993</v>
+        <v>0.9945689889342453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.407254087511546e-06</v>
+        <v>-3112.313491439074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9793343954665207</v>
+        <v>0.2227465051364789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.008160082937945</v>
+        <v>-65.83946947334653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9735447680789222</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-16.13208385248543</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3746090608991514</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1345.825950599603</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5436463195633524</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1528.72155736499</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5632954347092682</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>516.1995922634933</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8277614550034273</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.75473221608956</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4040350114145129</v>
+        <v>0.765728391265154</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8214.654232811386</v>
+        <v>4426.500625729458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02504637743723992</v>
+        <v>0.001041591313687787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.10601246857868</v>
+        <v>225.8653726448168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9278753123510587</v>
+        <v>0.06522587386389173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.4590210945805</v>
+        <v>0.1257877485583775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1030898240256169</v>
+        <v>0.2614792751352417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05268135470552512</v>
+        <v>-404.5048546168555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5989885175586582</v>
+        <v>0.8483994273063186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.644884121972343e-05</v>
+        <v>-2992.067440993947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8294701669566822</v>
+        <v>0.226863950956214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.812931917898652</v>
+        <v>-110.9524463932109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7864868721823332</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-45.51499301447802</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04212141190793155</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1822.335389230097</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4119997357547642</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-901.6110557706343</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6914053442007406</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1028.172503233648</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6393543062448648</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.80469003591883</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6512074075124323</v>
+        <v>0.5669388541018652</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4263.41601265238</v>
+        <v>5112.56133257267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2327305656906171</v>
+        <v>0.0001454396456676994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.342293026990205</v>
+        <v>163.0405747981711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9815197315491732</v>
+        <v>0.09825857164098106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.7311110571411</v>
+        <v>0.04683709323292153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2005491502610143</v>
+        <v>0.6484084799435608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08718738736321574</v>
+        <v>-251.1138732427926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4261501696438779</v>
+        <v>0.9057980174547016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.566508501861337e-05</v>
+        <v>-1882.752495640965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8370246817106888</v>
+        <v>0.486800255270866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.882918168230972</v>
+        <v>-246.1006979126409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8063079219904092</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.739659729902172</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8422432770817161</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1874.131417912615</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4621641538408885</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2218.436682449955</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3524524485780975</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>642.995862207177</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7393461724137522</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.97020032938255</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8395313175910467</v>
+        <v>0.2660164175707921</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-731.6772738910968</v>
+        <v>4358.573684142882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8052983434984702</v>
+        <v>0.0002703464346065541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-154.1016651369642</v>
+        <v>148.4661325746049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4267790268184218</v>
+        <v>0.08104402836207146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.4380322000759</v>
+        <v>0.102796141980353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006383043707670049</v>
+        <v>0.2386203458755059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06137307643309751</v>
+        <v>4469.996730376686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5363649257909597</v>
+        <v>0.09206742171508643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.247937343119124e-05</v>
+        <v>-4091.368863262962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8333454004014076</v>
+        <v>0.04766535206876123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.01613691533014</v>
+        <v>-80.62793949252995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2575590811499752</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.32859645715371</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2505758760878889</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-901.2681725446405</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6517503005299419</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2992.402475730484</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2263701771630056</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-531.2271479951455</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7966116020471858</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.57557188561779</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3491151084458015</v>
+        <v>0.6405768352256807</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3029.091257550598</v>
+        <v>5110.766490677884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3637912761558614</v>
+        <v>2.89822541852529e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.18035986269649</v>
+        <v>151.2642778501479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7799006690877519</v>
+        <v>0.05915561856735253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.9721073416558</v>
+        <v>0.05888757780655349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04152731365377249</v>
+        <v>0.4757785740643841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0280046039315425</v>
+        <v>-1000.769700049417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7584016302885837</v>
+        <v>0.5229828321629403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.107352576736178e-05</v>
+        <v>-2495.482742287314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5825401440239033</v>
+        <v>0.1966964094296371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.82665278655064</v>
+        <v>-124.1439563108434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7075493071988506</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-16.17875067368662</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3499888041738684</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>746.0453924721614</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7351268052065825</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3288.825347248418</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1314370222699898</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3662.137676485951</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1259601970670128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35.83380884337345</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2357288057455818</v>
+        <v>0.4538413616040124</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3426.924796337098</v>
+        <v>4330.0597966258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3204039712791132</v>
+        <v>0.0004131650114538617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.02369931466166</v>
+        <v>211.4794285087511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9433443510987387</v>
+        <v>0.04341186546510226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.0659528268667</v>
+        <v>0.04232603573347127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07701484098871726</v>
+        <v>0.6699252651064636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04722159171418157</v>
+        <v>502.1423819085066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6710437646257434</v>
+        <v>0.7891383444559238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.56128058291834e-05</v>
+        <v>-1244.426806719301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8481036287088615</v>
+        <v>0.6116848534075098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.417108503801174</v>
+        <v>-244.5705687431361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9007475188683338</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-16.26806471970954</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4058990276457879</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1202.845355020177</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.631717580824811</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-501.2189799015171</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8579760837264857</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-889.3531202749164</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7303870034374389</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>35.69602979811619</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2852224704068733</v>
+        <v>0.2547030898049351</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2914.771725680402</v>
+        <v>4153.066453174384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4028717522784767</v>
+        <v>0.002043049013187051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-25.3581610006739</v>
+        <v>168.7630275004944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8945461211540324</v>
+        <v>0.1075523426462583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.3814805222377</v>
+        <v>0.06170838642640511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04489344449204202</v>
+        <v>0.5646210650368568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03890457487337792</v>
+        <v>393.023080695265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7122981822122456</v>
+        <v>0.8482303406744927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.269112895481568e-05</v>
+        <v>-1777.993862126395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7586974787131365</v>
+        <v>0.4426293305757034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.95792535711996</v>
+        <v>20.14047814821276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.753219216460238</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.21167703717786</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5142419569123118</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2325.85735222531</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5338321127528547</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1140.753599846782</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6745859252684669</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-312.1212428749895</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8962179569533575</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.83943516494783</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2923134066596761</v>
+        <v>0.9288588521740151</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1519.575764074596</v>
+        <v>4534.01262686167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5896930065837594</v>
+        <v>0.0003213110964912969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-139.8565154895796</v>
+        <v>206.3615770156992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3200216200871338</v>
+        <v>0.0365393153936219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.6130445105559</v>
+        <v>0.0899789833542842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009846365654717724</v>
+        <v>0.475874747316425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05436343844814095</v>
+        <v>-327.5744368906799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5063002360582574</v>
+        <v>0.8751610279768411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.235375108532794e-05</v>
+        <v>-1268.600430992852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6870359079375424</v>
+        <v>0.6236851219142754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.15013061707575</v>
+        <v>-275.3249537521327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1647585406181289</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.89265949187015</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3795350660935655</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-110.6991783994515</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9487098005970731</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3456.385883616798</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08209939292583417</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2360.402641069397</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.267520724709345</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>47.64320182754507</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05873977414824293</v>
+        <v>0.185144826056992</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6576.7479837135</v>
+        <v>5870.309653707352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09406131716021385</v>
+        <v>2.10331237776899e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.2527974832465</v>
+        <v>108.2016761129071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5932569369769881</v>
+        <v>0.2520548299182363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.3340953253114</v>
+        <v>0.04474072218045282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3513123090271549</v>
+        <v>0.680412723555034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03594883237810681</v>
+        <v>-501.329486476584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7323635430273689</v>
+        <v>0.7937978729682504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.113356382222933e-05</v>
+        <v>-4046.478888097487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9286785389787595</v>
+        <v>0.1003312436867834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.680254065688956</v>
+        <v>-92.66110423704311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8385939347713032</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-31.19248330976959</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1552813136185989</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1069.490322390706</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6285106895674327</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2426.650783348852</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2996492756565883</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>653.9918349205745</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7554800966806381</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.24074652157301</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5081674447755655</v>
+        <v>0.6121472581104401</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5075.931191899749</v>
+        <v>4854.846513859989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1423980290350289</v>
+        <v>8.630402693839224e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.01911613445077</v>
+        <v>167.3494324067793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9268862845246386</v>
+        <v>0.1030131747103192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.5713186274616</v>
+        <v>0.0836378852844011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07606865229187086</v>
+        <v>0.3791959051562797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02578422157326089</v>
+        <v>-155.0857694304923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.814338455605141</v>
+        <v>0.9428142440023269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.227527764182092e-05</v>
+        <v>-2875.090982917462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9259314255175002</v>
+        <v>0.2413077189849867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.421616509082838</v>
+        <v>-137.6408807933246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9384538983032653</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.72849255409911</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.48196382585836</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-799.9059868616241</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7451001964791473</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1578.447558044872</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4968657358588471</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>767.6954079846041</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7151732973155791</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.09804734661027226</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9975660391739607</v>
+        <v>0.5005066072058688</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4421.556577779049</v>
+        <v>4830.535135827315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390447484748282</v>
+        <v>0.0002211069028954475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.773880782576</v>
+        <v>145.5559541928603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5092039911508364</v>
+        <v>0.1547526796931606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.1329260957669</v>
+        <v>0.09485766416782884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1430349444287851</v>
+        <v>0.3323985386830383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1144012201601838</v>
+        <v>-55.8156565551335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2357556737332853</v>
+        <v>0.9782951678201414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.565146764306e-05</v>
+        <v>-2972.356169810904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6265058872452895</v>
+        <v>0.1830245507566663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.60758662190555</v>
+        <v>-125.6791783972615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3570712352709574</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.129395831299679</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7369857091246974</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4325.829142949769</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08844204533356143</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1191.409009524288</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5544938453306629</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1220.833176782095</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5415205616140575</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.276478814608311</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7324933032274555</v>
+        <v>0.5625552559834244</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3804.004846780632</v>
+        <v>3729.668039982239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2501778345017643</v>
+        <v>0.001065367781103368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-90.83595668046001</v>
+        <v>226.7755031546187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6040347064281029</v>
+        <v>0.01425551204425174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.0535979859885</v>
+        <v>0.09474482173000845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07750331264307825</v>
+        <v>0.2125435765389732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07469951400309519</v>
+        <v>2201.045354958092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4878708278539634</v>
+        <v>0.2763516970569143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.655931394413029e-05</v>
+        <v>-2468.250190226552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8132328970571798</v>
+        <v>0.1895174608890612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.405188946642447</v>
+        <v>9.629272561921425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9668318908179936</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-14.98680548334921</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4189905217801407</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1268.13626037066</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7181974379359674</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>48.32566539010486</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9861968341475882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-131.5799515549477</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9549538210006405</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.42228945634166</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2167292134231196</v>
+        <v>0.9542982167124341</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2414.6034911679</v>
+        <v>5242.279660183425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3721336018346338</v>
+        <v>0.0001255973992681049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-44.30985832215501</v>
+        <v>123.5914700062613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7568128331162985</v>
+        <v>0.2910428687042853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.1915998589668</v>
+        <v>0.01707091094299037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002403310430327823</v>
+        <v>0.8799867414846285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006445971977529732</v>
+        <v>-1291.26789153167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9305302393721291</v>
+        <v>0.5946578606196662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003717375946173941</v>
+        <v>-1022.659094624291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1656461868950259</v>
+        <v>0.7162794380280941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.84339840411335</v>
+        <v>-113.0987866678095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3446878569115106</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.966370158349434</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7974429112659075</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>783.7690530249674</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7559125052511606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1695.010648046273</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3505264005683435</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1779.660714913972</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2917462729756751</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.877319012656184</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8844586232892813</v>
+        <v>0.6351990152651554</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3851.00350774075</v>
+        <v>4736.024171524218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2356194074722292</v>
+        <v>0.0002557119911558908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.78633430246668</v>
+        <v>176.4274357140129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7069235754992572</v>
+        <v>0.07099911849003002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.0457022138121</v>
+        <v>0.1073307401017048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03611249554317934</v>
+        <v>0.3381920490883857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01210115868139006</v>
+        <v>436.7484575659314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8927854042857584</v>
+        <v>0.8189829679252058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000203037300258306</v>
+        <v>-3570.133960917131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1028089351674898</v>
+        <v>0.1130521941622612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.38495994629086</v>
+        <v>-137.1380982101758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7703782609854006</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-42.67582238935196</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0455388384394525</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4123.382548110732</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0734615207088026</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3195.477646149503</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1474379993341897</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5986.375085137067</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05316849314075227</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>62.53217530372677</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02261774339044565</v>
+        <v>0.4817757786459048</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5381.441057967942</v>
+        <v>4686.219860856771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1592527794493086</v>
+        <v>0.0004938756435380715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.60545924159624</v>
+        <v>180.5126568007313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7046051274496966</v>
+        <v>0.1177718637033513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.0250172975032</v>
+        <v>0.1088143380750999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1261137809490601</v>
+        <v>0.2742582786225117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06014820512463563</v>
+        <v>344.2248211944852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5909169790168528</v>
+        <v>0.8737631936405684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.301106843276615e-05</v>
+        <v>-3314.752313126002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8642041573465381</v>
+        <v>0.1533478994721685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.116873428993728</v>
+        <v>-161.1190232941292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8632395027487213</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-17.09523856851719</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3703604431410944</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>218.1799857022497</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9228937104020851</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1692.536900536608</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4936868599018299</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-365.8079121812843</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8730281737533792</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.863610970115346</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8023748263410313</v>
+        <v>0.4406512781852691</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4352.757148135013</v>
+        <v>5011.485876778203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1924550769629803</v>
+        <v>3.934034020215397e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.2804523704591</v>
+        <v>122.878435535698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7693895481606015</v>
+        <v>0.1517340219105744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.2084061645994</v>
+        <v>0.1311460044132104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1161185588826732</v>
+        <v>0.1290330136961107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08313873280906853</v>
+        <v>2135.854604280818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4488380663953363</v>
+        <v>0.3346219446794595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.330397784132391e-05</v>
+        <v>-4581.356449454363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7814592156278803</v>
+        <v>0.03281106620024585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.632417531711724</v>
+        <v>-180.6529975562365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8210447522559965</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-16.90049805307569</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3468031385127517</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>769.4974004660321</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.714556626635469</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1299.114176942193</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6235777694351923</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-341.2419592782662</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8824895928823028</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.33532033874508</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3355711779332096</v>
+        <v>0.3010860158291572</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3937.611701784688</v>
+        <v>4931.802033726599</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2695018537583308</v>
+        <v>0.0006509091622263234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.599588131215</v>
+        <v>206.15369194862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6999942482630881</v>
+        <v>0.1291906255224363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.4341101111483</v>
+        <v>0.06023148842049213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06570732767908737</v>
+        <v>0.5856327065032798</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04379499835502459</v>
+        <v>64.76372322901216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7346111004317735</v>
+        <v>0.9760549043559728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.260485377730525e-05</v>
+        <v>-2679.865052845169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.922537065617852</v>
+        <v>0.277342437306513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.776974870175625</v>
+        <v>-198.5021330310053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7517320313152989</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-11.92306869791984</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5370301268307716</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>172.7623973661189</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9393421975945203</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-571.5591936911678</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8214375446948772</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-392.6914440768378</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8647183933308445</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.08193094982546</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5396062425058601</v>
+        <v>0.3735772759982589</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3950.582107116913</v>
+        <v>4562.440136103507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2626433136022743</v>
+        <v>5.866796824456826e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-73.0335965150166</v>
+        <v>210.4535753769954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6809917763346098</v>
+        <v>0.009027188766605167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.5688184318696</v>
+        <v>-0.007518026679995946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06822779927664976</v>
+        <v>0.9327746238587797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05865740801450077</v>
+        <v>-1100.233227635772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5576059056134155</v>
+        <v>0.5204312454900477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.050670560054973e-05</v>
+        <v>-157.1874266840739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6731616655476269</v>
+        <v>0.9405670732620484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.980460351906629</v>
+        <v>-64.11926177295186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.818881391775143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.25941455818392</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6267944631252592</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1632.320581171873</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4647032240761206</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3582.521688379971</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1017327205669794</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-273.1207479784598</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.885421717958049</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.84811232505806</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4023936251298311</v>
+        <v>0.7003757501778406</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261.5273819204049</v>
+        <v>4137.4976868139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.938680806081999</v>
+        <v>0.000244982136599013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-152.5368991862967</v>
+        <v>204.9897504533225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4193527203104794</v>
+        <v>0.02004666919250667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.4184005998843</v>
+        <v>0.108642208798092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01867463575594954</v>
+        <v>0.3128581524718233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08995389125136072</v>
+        <v>462.6752362972038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3954448152798929</v>
+        <v>0.7950480835610207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001424384548319091</v>
+        <v>-2801.497350191551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2893572176177491</v>
+        <v>0.2486464751697191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.69894669553282</v>
+        <v>-106.8860590422212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2413995574595716</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.9282763356173973</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9596162129071233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1383.117059403079</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5295641978376353</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3214.18931322449</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2446042199217697</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2686.313478537993</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2760403222570668</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>40.29558151182829</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1817056504219551</v>
+        <v>0.5468758166230043</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1432.885488303328</v>
+        <v>4253.228823631183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6560877838786956</v>
+        <v>0.001545121989932193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-116.9801046884269</v>
+        <v>140.7620582902144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4639931868195474</v>
+        <v>0.1676266250046869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.4723748768285</v>
+        <v>0.07254153076708129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008025803233433151</v>
+        <v>0.4936135953976932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0108941006306332</v>
+        <v>266.6089667024135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9009564279213889</v>
+        <v>0.9110549463227389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.451826982993672e-05</v>
+        <v>-1855.722483087335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6612687419607034</v>
+        <v>0.491470512935655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.42412651310251</v>
+        <v>58.2540531755007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.478859802882964</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.898636722098296</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.683027924086797</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-746.8386658118452</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6983063142521211</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2037.13354230582</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2862053698961258</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1063.227097961338</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5731908607282097</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.92392627529798</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3680220805125479</v>
+        <v>0.7913899555917228</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4194.593179539448</v>
+        <v>5684.753893929166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2230602594493914</v>
+        <v>1.136799653265068e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.30505096158754</v>
+        <v>101.759770537062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9943807836623011</v>
+        <v>0.2666459082080964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.283887690529</v>
+        <v>0.04064027068317015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1196121930838484</v>
+        <v>0.6635337982277901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06833015011803328</v>
+        <v>1761.088024520001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5116040272266948</v>
+        <v>0.4074204246499729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.884998288573632e-05</v>
+        <v>-4068.997652071845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7648334821192656</v>
+        <v>0.05610369412650812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.973637849086863</v>
+        <v>-194.6899148089079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7981068042101979</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.455024331590405</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9102253338148032</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2698.56734192496</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2837951526897394</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2382.622576603667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2851234660393556</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>463.9198589429277</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8169012793512198</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.725952378482816</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7840351013699749</v>
+        <v>0.2749087785859129</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5866.062674690251</v>
+        <v>4918.794437395858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09320328478670518</v>
+        <v>2.598928919116229e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.53783872422747</v>
+        <v>217.9497628636776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8464924978776655</v>
+        <v>0.02399142490144509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.6519990690765</v>
+        <v>0.09508163597387242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1808285089102876</v>
+        <v>0.2676801568452116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03179299702305985</v>
+        <v>-1258.212446327891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7548789752921872</v>
+        <v>0.4705342084895461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001110392105726551</v>
+        <v>-2360.48281574643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6619453805168865</v>
+        <v>0.2002992037638837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.083172803126274</v>
+        <v>-183.7146613129042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7776870972700799</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-20.61519138219328</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657400002452722</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-822.1267930710037</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7946907387689933</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1419.744023481043</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5174355745948362</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>306.9167972057458</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8853930475238201</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.48559316537981</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6545010154774967</v>
+        <v>0.27611400377582</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5248.539682299835</v>
+        <v>4719.396764581255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1155588928392832</v>
+        <v>0.0004372443272325965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.48381132164332</v>
+        <v>188.5032863908803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8787525037403753</v>
+        <v>0.0739304566269577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.2280623357218</v>
+        <v>0.0767216013816506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1277514277123194</v>
+        <v>0.4326261317883628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02331944673143379</v>
+        <v>134.8656637320137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8213998912376062</v>
+        <v>0.9481131309837862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.625985125615272e-06</v>
+        <v>-2460.975607886581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9772332330172703</v>
+        <v>0.3130138715651528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.161494683659097</v>
+        <v>-161.7272956820329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9690138775750275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-28.01001051471626</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1621339754782138</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1489.398789852783</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4879462647827685</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2081.610933179447</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4443918680171912</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>237.4488683328009</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9174176541766971</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.77198273934752</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4160408039039157</v>
+        <v>0.4686151424691242</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7279.374715615714</v>
+        <v>4917.131948394563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02404824472343164</v>
+        <v>0.000246715509727963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.33588803312375</v>
+        <v>195.7889919416503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6910883081403787</v>
+        <v>0.07994513928804289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.3152411913501</v>
+        <v>0.1247806521226636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2022932908570532</v>
+        <v>0.2066493104986261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02202956343840967</v>
+        <v>311.2244625815963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8424908390264617</v>
+        <v>0.8787539030004805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.127590168150546e-06</v>
+        <v>-4443.8302078097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9572695473633411</v>
+        <v>0.0775194516250499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.09618245618</v>
+        <v>-119.1040859559711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6264730678996254</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-37.64213829544584</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05125578618319531</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1072.407499845302</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5704794391940085</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1113.719099619049</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6241350610085803</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>556.5498992535186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7963063314958436</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.81729544855351</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6353752295943143</v>
+        <v>0.5392806044693246</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1645.989124932667</v>
+        <v>5609.194778907005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5908968114251308</v>
+        <v>9.176124992810947e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.23401521294181</v>
+        <v>156.0293137191065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5542564290298564</v>
+        <v>0.06191614266554218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303.6205673964569</v>
+        <v>0.01786070692748271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001195292738969895</v>
+        <v>0.8651294460729616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02583064892334644</v>
+        <v>-2260.573058895686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7343546398793547</v>
+        <v>0.2167876238638431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.39064658177631e-05</v>
+        <v>-1287.339690593509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6433641366314935</v>
+        <v>0.5119468901985447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.45278440980937</v>
+        <v>-199.072138743317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1155045531993983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.82047346217362</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4888455358740668</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>320.3838720582362</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8492206583374124</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3943.529906635671</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03552353009892992</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2354.886908273091</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4170836705849744</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>50.51032414425715</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04895338049741138</v>
+        <v>0.2338193362263144</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2786.29904138219</v>
+        <v>4445.966908543909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4245231079370495</v>
+        <v>0.0005520634811213879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.28351925020002</v>
+        <v>186.8476661865619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8188100667134157</v>
+        <v>0.08809187371155321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6647844831051</v>
+        <v>0.1255105081405201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07676262214408211</v>
+        <v>0.1964730831417107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.111912122219563</v>
+        <v>2339.348532805541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3581279814219142</v>
+        <v>0.3454998769241466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.431876547626012e-06</v>
+        <v>-3632.108020189311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.941489348850205</v>
+        <v>0.1058393237542536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.841203404885135</v>
+        <v>-201.9012800184317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9328069797097712</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.54989867375119</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5166012968592817</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1183.800176759143</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6339785758262403</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>450.6815643934315</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8705688407515852</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>506.4802882595363</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8194847086317467</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>44.14568480011765</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1805368461403356</v>
+        <v>0.363407820224339</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3679.967991996244</v>
+        <v>3696.471778800676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2931210132543789</v>
+        <v>0.002241029499802466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.63278010632007</v>
+        <v>158.3973940800093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9270003171197297</v>
+        <v>0.0846753534654163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6361049552081</v>
+        <v>0.1136520823227556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07397002218299067</v>
+        <v>0.2107779959726626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01432529555876164</v>
+        <v>506.1888223847031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8948486286150164</v>
+        <v>0.7866925430215208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.424887591565089e-06</v>
+        <v>-2252.463723428536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9733573086810408</v>
+        <v>0.3065389644502272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.912109949659154</v>
+        <v>126.9399227417474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9136069421188179</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-11.70432866535923</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5477786890261183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>900.9668474326909</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8087032821889624</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1814.197829708909</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4675456598362963</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>733.3382982107032</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7539361989907014</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.27863672567305</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5794781472509145</v>
+        <v>0.5342953721466818</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2371.04269514843</v>
+        <v>4564.538821509488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3339516611326813</v>
+        <v>0.000116941464860865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-35.1951724211022</v>
+        <v>173.002728763712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7591680479459467</v>
+        <v>0.04144720351021621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.4679244961773</v>
+        <v>0.05039669149834752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02205306566462745</v>
+        <v>0.5795506989990267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1001762065491318</v>
+        <v>-585.4055257596765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09260542183546648</v>
+        <v>0.7719582077875231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.590245796251904e-05</v>
+        <v>-1369.252778763143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2671153107852486</v>
+        <v>0.5471911578695969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.24106208326691</v>
+        <v>-12.62790936098395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.578591487730359</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.81075909800644</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4951452813142988</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1845.093536503258</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1994739993342985</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2362.470924558358</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07210820022488784</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>581.2833684406023</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.621773183610733</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.03833484938364506</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9984014457160424</v>
+        <v>0.9429883058583699</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6077.668439967201</v>
+        <v>5114.579376035732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.084295620792464</v>
+        <v>2.908464922947955e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-99.69678578366236</v>
+        <v>161.4611132453865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6206251052677001</v>
+        <v>0.07829334947797319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.5157373950954</v>
+        <v>0.01746692975379385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2227985684818413</v>
+        <v>0.8676295118117119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06099030904055711</v>
+        <v>-208.4118899900868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.527696625787154</v>
+        <v>0.9158606031830039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.893292226991944e-05</v>
+        <v>-1763.451249057279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6316558274563646</v>
+        <v>0.4882119596714862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.73649212053294</v>
+        <v>-203.9489068318502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6535758391560055</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-10.92948703330771</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5980690861257051</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3079.534864215447</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2383756092914245</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2184.860167734951</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3061396306225678</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>184.6122679002801</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.92113045208739</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.35932911153574</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4300777095863267</v>
+        <v>0.2673892063190674</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4701.141127541239</v>
+        <v>3497.808363327891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1769120273908863</v>
+        <v>0.004907011691172468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-70.50462509966746</v>
+        <v>186.546928251816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7177232443280055</v>
+        <v>0.04654913580682759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.4640196927647</v>
+        <v>0.1454405403220793</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08536495309623696</v>
+        <v>0.1174333916425727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0718251938728251</v>
+        <v>3447.343325908272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5622271024602588</v>
+        <v>0.1371345147906146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.830327017132742e-06</v>
+        <v>-3321.357787791525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9779638236361363</v>
+        <v>0.109974552807095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.152040449164502</v>
+        <v>2.507801732501548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7849496643318435</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-15.92975239756085</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4141660518224671</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>367.3692321493363</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8792188039382708</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1337.403120211413</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5923438660849383</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-63.36799507173509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9779043737221588</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.36564683111381</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6524669768389899</v>
+        <v>0.9893713987408369</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.56097461422087</v>
+        <v>5327.051256655744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9823542804200271</v>
+        <v>2.717069019610067e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-120.8136998529438</v>
+        <v>134.3756730330188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4413882372420438</v>
+        <v>0.1125213798553923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.0017629465877</v>
+        <v>0.08144600192192739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01037502325433777</v>
+        <v>0.4155268968913119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02331237598454428</v>
+        <v>211.5387909749179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7525946372968119</v>
+        <v>0.9100771332467769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.904758138944053e-05</v>
+        <v>-4383.41395388049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.748692445476539</v>
+        <v>0.06178691243289475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.79270946237388</v>
+        <v>-107.85664064614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4107690032003477</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.808652112277663</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8834224807391775</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>373.3221061061413</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8947920585207004</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3168.787390330438</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1179244018612713</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3365.372416457687</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1030320906295833</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>53.58837139196397</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0456570280622887</v>
+        <v>0.5320642551560706</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5342.623447597752</v>
+        <v>5643.25097922185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1010748145810076</v>
+        <v>2.060346536070198e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.7928165818197</v>
+        <v>135.1739683255911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4994626493199747</v>
+        <v>0.1027029626954545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0501451612899</v>
+        <v>-0.02539463516001736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08982471985596029</v>
+        <v>0.7770738627085735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003413611722511339</v>
+        <v>-3109.647367082327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9722608703794942</v>
+        <v>0.1179553802797246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.729749543454115e-05</v>
+        <v>26.12680905405455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8908272242232765</v>
+        <v>0.9908459839744527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.420957860359081</v>
+        <v>-84.91309889041418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.965705037354138</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-32.22984160414467</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1264674107035053</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1579.252203222275</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5249908966121681</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1617.647731411948</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4881768118251476</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-303.1901872842368</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8917887557371948</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.69220189312881</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3613469486324545</v>
+        <v>0.605043666363094</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3786.658409054669</v>
+        <v>4343.980331231657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2312516883998209</v>
+        <v>0.0004844188224533417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.18634467872062</v>
+        <v>233.6947528429372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9176616237982612</v>
+        <v>0.03663107121595745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.7653545794703</v>
+        <v>0.0690116034017782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05976149608603031</v>
+        <v>0.5296416408073565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07961980907262844</v>
+        <v>76.63800027995239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4654368353452317</v>
+        <v>0.9685717519335407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.626045784984331e-05</v>
+        <v>-1369.504898309868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7492777285263255</v>
+        <v>0.5688787132594818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.502975889485327</v>
+        <v>-236.5397923900935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8800954264749645</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.502406631833267</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8038385926284155</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1790.391392164458</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4036736032016958</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2958.476276957125</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2097942745183481</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-219.1656810518398</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9123680991741521</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.19972261652637</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5395367286955497</v>
+        <v>0.2245034343722723</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4370.754456940607</v>
+        <v>5355.796082880068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3191559420138534</v>
+        <v>7.431216308164123e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-31.51783520721284</v>
+        <v>145.3310924676866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8706910092587734</v>
+        <v>0.1870535422532096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.9697990400966</v>
+        <v>0.08672640897734027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.184262564711101</v>
+        <v>0.36675590941554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01410826418958276</v>
+        <v>-128.3937670649266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8984172052167808</v>
+        <v>0.9505029166513259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.490383063844911e-05</v>
+        <v>-3377.286352775902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8509543686403197</v>
+        <v>0.1406102656398872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.735003179656822</v>
+        <v>-279.3026456672233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9257463806588038</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-14.27216882089451</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4834497865998434</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>634.8894744843265</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7949052119912381</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1683.066467311602</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5151751189865779</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>139.8481518413519</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.955102696916369</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.73895739647243</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6178159540933384</v>
+        <v>0.2642760059373313</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1698.303845934388</v>
+        <v>4993.72506904509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.565661016612492</v>
+        <v>2.001246264926456e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-162.2089677052068</v>
+        <v>210.2005588439014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3029486804885234</v>
+        <v>0.02738624222564703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.1755920703919</v>
+        <v>0.05647251860776009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003010196468434765</v>
+        <v>0.5117860964986809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01326431491083627</v>
+        <v>-1057.979629040872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.872906549096766</v>
+        <v>0.5709345704018738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.079972538008477e-05</v>
+        <v>-2138.399429143375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6697986409286727</v>
+        <v>0.2859812091551949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.39763964853194</v>
+        <v>-142.2093555273383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3248632383179679</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.35633507969712</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2922184538159389</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-641.721968027915</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6946599916269458</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1390.262740945406</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4933204344139444</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>584.0980799813151</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7131541990303347</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>48.99599663444269</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08763646588985952</v>
+        <v>0.3762381434243122</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4794.063632077603</v>
+        <v>4729.352800719575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180190765982966</v>
+        <v>0.0002051167147213703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.456524743752</v>
+        <v>172.2876112414424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5661462411211859</v>
+        <v>0.09278518591733492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.5697255901635</v>
+        <v>0.1193799187400776</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08744117990096331</v>
+        <v>0.225995490992445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08501760522831808</v>
+        <v>-118.2241217025603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4767686940422273</v>
+        <v>0.9541037689155979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.632950964035741e-05</v>
+        <v>-3661.371223519115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.904982648871632</v>
+        <v>0.1132726340198433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.842562886954759</v>
+        <v>-123.6352032030076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8088954453425726</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.05577474630446</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5079950183291851</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>69.41390493251538</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9769312385651996</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>232.655709962969</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9352732531754088</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-948.7399139216814</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6974562026864697</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7.757016215957812</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7935829053950464</v>
+        <v>0.5804419293812442</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5492.771995283008</v>
+        <v>4166.575563962826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.118158273484361</v>
+        <v>0.00165820525039647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.54242626109024</v>
+        <v>157.010775995819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8726657686613887</v>
+        <v>0.1073005431040068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.2142478340342</v>
+        <v>0.05634946306096984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08648505068391966</v>
+        <v>0.5973631171143157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04515411116744725</v>
+        <v>180.1353231064675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6282211767926573</v>
+        <v>0.9268424325098181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.751771215122085e-05</v>
+        <v>-1740.632096079131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8851083890940502</v>
+        <v>0.4575353436560975</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.57416259606673</v>
+        <v>68.68750364578318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7107777156459951</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-34.83290898753316</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1056368889088714</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2378.211427113429</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3354540381341422</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1457.347732465726</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4789840526492141</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1286.403876956925</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5121021470867368</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.14818961700991</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3110982285875509</v>
+        <v>0.7426349663579943</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3475.086334377134</v>
+        <v>4704.354863748955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2679110711970728</v>
+        <v>0.0001752840895622063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-23.83021010563266</v>
+        <v>182.5273883988071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8837387824932887</v>
+        <v>0.06192724901143192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.7687485631336</v>
+        <v>0.09775439101770783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07724996088698839</v>
+        <v>0.4265109111648246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01332371433797623</v>
+        <v>-858.325941494073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8903645453922684</v>
+        <v>0.679674953786674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.082743922270525e-05</v>
+        <v>-1439.301989930993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7213876262919801</v>
+        <v>0.5849126166236853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.196674935438942</v>
+        <v>-210.9201197860149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8307915049831511</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.261057673100801</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7681842448474762</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2684.911218116325</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.375347296182495</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3135.055305628156</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1325018719423279</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2464.476353522133</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2862909389881258</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.06258545284532</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7392472015268591</v>
+        <v>0.2864844677271607</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2538.892001130144</v>
+        <v>4525.786654499791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4679074405338794</v>
+        <v>0.0002198517758736148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-97.43878496988907</v>
+        <v>171.7198875145301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6447805925450747</v>
+        <v>0.0559026573709841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.9507274173027</v>
+        <v>0.1037203944473941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02955137393649556</v>
+        <v>0.3090830447675089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08918848260359474</v>
+        <v>1493.184516290626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4817689604742212</v>
+        <v>0.546648820507732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001900282043776618</v>
+        <v>-3101.615247838262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542144405602714</v>
+        <v>0.188397132342073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.74020512847974</v>
+        <v>-124.8674791691799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3081154750580348</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.028825702908236</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8376469328505951</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2721.705484523478</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4673638322854664</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3568.832766138002</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1924598564215864</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-767.5681965465646</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7451607980166906</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.65517239076061</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6447393275162365</v>
+        <v>0.5035465379239079</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4468.269462540788</v>
+        <v>5250.763595626353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2312343651027953</v>
+        <v>3.483063433394918e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-77.27961266497005</v>
+        <v>111.4845503322154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7423344699912238</v>
+        <v>0.2176511410468481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.7920208506706</v>
+        <v>0.09822548407578352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06712246938489079</v>
+        <v>0.2277509668332129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03590289819989623</v>
+        <v>2490.014803181864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7515492664425338</v>
+        <v>0.2366403681231755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.239822114975447e-05</v>
+        <v>-4682.982796976061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9262655707224718</v>
+        <v>0.0301923981442198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.78598923110142</v>
+        <v>-179.3195105097149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6487802095734519</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-11.3119029215605</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5808677117962562</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>362.1213982912204</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8908400352561563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2726.221444049082</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3073602515681064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-989.3347285093405</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7022584268924232</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.998290288641336</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8547467912264046</v>
+        <v>0.3121431259718924</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2665.870319582772</v>
+        <v>4839.918925287035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4507597734686754</v>
+        <v>0.0001934621268373575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-116.1355555805718</v>
+        <v>207.832513364507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5267921794033109</v>
+        <v>0.03492807204598389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.0887011000855</v>
+        <v>-0.0614357466336381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06237679549875332</v>
+        <v>0.5975230968212966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06472375089387367</v>
+        <v>-1036.668878723328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5918905084286676</v>
+        <v>0.6288746016040123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.360452301640998e-05</v>
+        <v>1070.545318933529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9169238545002873</v>
+        <v>0.7084285017735592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.90197682305347</v>
+        <v>-245.5014302701436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6515268127713629</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.718147275192869</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6055212462626769</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>894.3484861500874</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6819466088080924</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-986.0062318014307</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7365807726260983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-800.129311069622</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7414471686737997</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>37.24439015558937</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2140168206956014</v>
+        <v>0.2225442711567543</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1414.722864837129</v>
+        <v>5251.578851210181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.58995139935771</v>
+        <v>5.842580288745055e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.29601871300883</v>
+        <v>107.9599150957209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.61396986390282</v>
+        <v>0.2997391304133459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.4073761800177</v>
+        <v>0.09271394182810699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05089095495066424</v>
+        <v>0.2746338540178264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06592161333352831</v>
+        <v>2549.424055977448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3754572052014232</v>
+        <v>0.2378550822114387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001126243514616896</v>
+        <v>-4826.326241971612</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2201171207836928</v>
+        <v>0.02428749925510583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.310430290893677</v>
+        <v>-95.31336328809721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9179986728350042</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.78929287362895</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2641393272377413</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1550.225060569428</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3724685780975799</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1832.520874276189</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2637246932404335</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-424.2135762724811</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7927330148189305</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.197249695380663</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.723471282494867</v>
+        <v>0.5815031692026658</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3101.122442013326</v>
+        <v>5052.26737278325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4065877196332495</v>
+        <v>0.0001491348619286748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-192.6962160056889</v>
+        <v>158.4909071564434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3123956212630935</v>
+        <v>0.1054953022907912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.4118996391647</v>
+        <v>0.1136612490626023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04701964786445198</v>
+        <v>0.2758794757575743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003641872351455855</v>
+        <v>-613.2687245436982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9968725110604699</v>
+        <v>0.7661026566694565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001789751680561905</v>
+        <v>-3074.613347387035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4909217421183742</v>
+        <v>0.201584818618351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.24545536020985</v>
+        <v>-212.2570613127399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4309249028509503</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-14.35759621617591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4174286598185858</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1450.072929668571</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6559746351143254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-4486.775740205869</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06003604484327692</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3318.461484236989</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1793535581098582</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>39.27697437782905</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2693808069959857</v>
+        <v>0.3301897233333377</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5136.663384695633</v>
+        <v>5198.984643922528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1246602576359302</v>
+        <v>3.582618275359044e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.97264184888115</v>
+        <v>137.4723777918926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8000304998294633</v>
+        <v>0.1805575321681036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.4518634546686</v>
+        <v>0.05119851137017867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05887419068235617</v>
+        <v>0.6145879873062168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03202202474458489</v>
+        <v>-25.64318523331258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7506291508894808</v>
+        <v>0.9900957839478568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.14427244527545e-05</v>
+        <v>-2890.978384008264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8665237304316882</v>
+        <v>0.2198228890934644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.90248227735258</v>
+        <v>-181.9357060496053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7285152298383417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-30.17385987005332</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.176631866037319</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2319.438645155979</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.383522255248504</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1130.942693433691</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6361603866325137</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1803.343385352218</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4252747199791052</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.84029205284064</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.368645520664811</v>
+        <v>0.4145748233450199</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ20107105" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ20242711" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ20390173" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ20530934" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ20664124" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20792190" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20929977" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ21093832" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ21262616" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ21406463" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ21535628" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ21681932" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ21859484" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ21975648" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ22096343" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ22209583" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ22411217" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ22528717" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ22642217" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ22769233" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ22882450" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ22985024" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ23098434" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ23217767" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ23323035" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ23434918" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ23587517" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ23745063" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ23888273" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ24011949" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ24132167" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ24242900" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ24353696" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ24462033" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ24594943" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ24735726" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ24898611" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ25041944" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ25178465" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ25314580" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ25481778" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ25593771" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ25718778" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ25836628" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ25959451" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ26078102" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ26187708" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ26340763" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ26459453" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ26594738" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ13625108" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13705841" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13803991" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13887328" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13973609" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14057919" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14141135" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14223715" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14306943" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14392891" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14475729" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ14556999" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ14656228" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ14740442" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ14823341" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ14906170" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ14990318" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ15088180" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ15185528" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15271582" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ15361187" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ15441545" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ15523053" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ15607062" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ15691542" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ15876058" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ15956808" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ16038129" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ16125988" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ16206919" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ16290418" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ16372176" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ16457066" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ16541417" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ16623057" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ16707117" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ16804822" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ16899041" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ16975761" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ17057102" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ17159231" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ17242164" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ17353246" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ17439553" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ17522428" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ17606254" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ17689368" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ17774029" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ17856535" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ17940438" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13625108" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13705841" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13803991" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13887328" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13973609" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14057919" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14141135" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14223715" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14306943" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ14392891" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ14475729" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ14556999" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ14656228" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ14740442" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ14823341" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ14906170" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ14990318" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ15088180" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15185528" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15271582" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ15361187" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ15441545" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ15523053" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ15607062" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ15691542" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ15876058" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ15956808" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ16038129" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ16125988" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ16206919" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ16290418" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ16372176" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ16457066" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ16541417" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ16623057" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ16707117" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ16804822" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ16899041" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ16975761" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ17057102" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ17159231" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ17242164" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ17353246" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ17439553" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ17522428" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ17606254" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ17689368" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ17774029" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ17856535" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ17940438" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ46092531" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46191041" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46287054" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46382515" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46476897" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46578550" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ46678790" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46881518" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46981461" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47078971" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ47181481" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ47287258" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ47387075" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ47482977" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ47582985" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ47679254" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ47775912" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ47877954" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ47979167" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ48075096" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ48169632" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ48266976" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ48363211" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ48461426" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ48558177" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ48661248" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ48773204" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ48880373" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ48992990" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ49105666" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ49208036" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ49315680" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ49427323" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ49538019" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ49646081" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ49760663" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ49872309" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ49975860" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ50088339" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ50200676" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ50310054" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ50418347" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ50530656" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ50651096" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ50763483" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ50874653" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ50982328" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ51088451" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ51211124" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ51332522" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5560.003095795707</v>
+        <v>5559.98919655598</v>
       </c>
       <c r="C2" t="n">
-        <v>2.072019034606379e-05</v>
+        <v>0.1314692905048066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8475996723416</v>
+        <v>-125.7090485564697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2084088687876664</v>
+        <v>0.6152247100278661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1048891590072547</v>
+        <v>112.5662711455267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2648537479475946</v>
+        <v>0.2461143547862218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-158.5305971273688</v>
+        <v>0.1028055652733204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.931557118122974</v>
+        <v>0.3299530441096374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4047.534666151266</v>
+        <v>8.139400549364443e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06275069481926239</v>
+        <v>0.5935643795121466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-210.7382988092183</v>
+        <v>10.71298153491127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2952383786278073</v>
+        <v>0.6491256667582396</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2625.957047011417</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.363012562239584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3833.311174652908</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09925326200956507</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2024.385158292052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4599480046943545</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-35.13374367275745</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4137098462973831</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3936.667076205865</v>
+        <v>3090.391921188073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000229534197142419</v>
+        <v>0.3423463316918278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199.2401317151797</v>
+        <v>28.65261525724793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0130119909172444</v>
+        <v>0.8757892365681782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1642185639543765</v>
+        <v>206.3225703130321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05127163924628132</v>
+        <v>0.01956080749271346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.7614773883398</v>
+        <v>0.1679239947751972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9051123527506012</v>
+        <v>0.07390341303276299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3311.00975168932</v>
+        <v>9.960241417411544e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06786046326458334</v>
+        <v>0.4521034480829033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.81282992643628</v>
+        <v>-0.1345205920728318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9186294897316288</v>
+        <v>0.994988464115645</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1103.72403683325</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6549237291890858</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3262.794903095511</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1081947919474022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-140.6045715725722</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9478589694931632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.05330960761023</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.607154580777805</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4920.48235196274</v>
+        <v>4269.438981984062</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001280079438973405</v>
+        <v>0.2920935444050353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>215.0822175231158</v>
+        <v>-332.1700382917876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03471691996236842</v>
+        <v>0.2473379166339892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01293978286444677</v>
+        <v>225.7019922641365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9071802265466473</v>
+        <v>0.0522323045982326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-230.7747551858993</v>
+        <v>-0.0007372070338620418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9051223588901895</v>
+        <v>0.9952837871567866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-644.7122397596609</v>
+        <v>5.089297660515444e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.795856684099909</v>
+        <v>0.7575874252540392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-393.6718518769332</v>
+        <v>-5.36442193232493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08557713805397903</v>
+        <v>0.8016947494606843</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>263.5462496103469</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9326423143696539</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-203.2417606280651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9458416993421404</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-515.983790842733</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8542345017083965</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.81622042718573</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6732251394909801</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5710.333862486276</v>
+        <v>7321.820365407037</v>
       </c>
       <c r="C2" t="n">
-        <v>1.528737354285844e-05</v>
+        <v>0.04177467038363632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9041722067274</v>
+        <v>48.15547547675237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226118954679937</v>
+        <v>0.8112234490435272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02852293671562157</v>
+        <v>100.9664303885456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7837430450956947</v>
+        <v>0.2562936455778019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-774.3921021929987</v>
+        <v>0.05878079425336927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.682713180066687</v>
+        <v>0.6016710794321312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2946.269848201282</v>
+        <v>-0.0002380525400730538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1913617705067332</v>
+        <v>0.3588338027984291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-120.5666569630637</v>
+        <v>-16.16540247298967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4952042291212374</v>
+        <v>0.5059893924542457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6604.255934742264</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08192753165290696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3423.935878080346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1432726162152314</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1898.202307947746</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4432551736772635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.16853564869272</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7765713021890555</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4151.81951480895</v>
+        <v>4155.74161954312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006592833441586716</v>
+        <v>0.2288297141036867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.706653358964</v>
+        <v>-85.75092596331586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06231984690930078</v>
+        <v>0.7084246582126225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1442650185373155</v>
+        <v>155.8638174001117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.139015870541805</v>
+        <v>0.1073800213263183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>875.0126651992662</v>
+        <v>0.1489011066632187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6764176236552595</v>
+        <v>0.209904498604162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3164.842873197178</v>
+        <v>-5.075211038513814e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1891566640844911</v>
+        <v>0.9741325654481582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-88.32156987098068</v>
+        <v>-12.50659645708078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6376018171864302</v>
+        <v>0.5227116193739438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>741.6575694882476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7831294883435748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3483.089710078976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2258668808232569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>610.0095542369281</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8365745617829579</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30.28162630546521</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4901078119832109</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4542.776725505459</v>
+        <v>1807.606927297327</v>
       </c>
       <c r="C2" t="n">
-        <v>7.910693611118925e-05</v>
+        <v>0.6402790647040545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.161071934476</v>
+        <v>-17.29499189593329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02852672210257467</v>
+        <v>0.9376656742494485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08382698423256979</v>
+        <v>204.3863874281981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3030390463597379</v>
+        <v>0.05302824921284953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1134.097302399188</v>
+        <v>0.1053785655659746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5894911904299927</v>
+        <v>0.2613986742830958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3009.559079793588</v>
+        <v>-2.856619470229438e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1132493445342693</v>
+        <v>0.8695525513023313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-84.73748319349829</v>
+        <v>-0.3389884848415221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6148062819290121</v>
+        <v>0.9868938195078998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>601.6845231653983</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8443704959777281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2825.767263821908</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1922735517140197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3123.161131043648</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3973376199886485</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46.46588194173518</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2685162058584927</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4616.589100271941</v>
+        <v>4281.336148117531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005625747101981089</v>
+        <v>0.2812065529878205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185.6149204635603</v>
+        <v>-5.559110764751267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1032789922585343</v>
+        <v>0.9828125351655506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09773504275986061</v>
+        <v>208.468915031438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.33601711497939</v>
+        <v>0.1160352969274901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-14.37077834651745</v>
+        <v>0.09167561849789145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9945689889342453</v>
+        <v>0.4272606833026478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3112.313491439074</v>
+        <v>2.607939135329046e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2227465051364789</v>
+        <v>0.887328831248968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-65.83946947334653</v>
+        <v>-15.94949766947371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.765728391265154</v>
+        <v>0.5769872356039685</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1250.50169085063</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7527000445784391</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3019.786110207961</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2853517207994855</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-123.2868945973601</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9656527398025576</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.23948543441342</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4106079677379082</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4426.500625729458</v>
+        <v>5086.520058373833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001041591313687787</v>
+        <v>0.2122921521566457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225.8653726448168</v>
+        <v>-75.2202405603206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06522587386389173</v>
+        <v>0.7488709149518642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1257877485583775</v>
+        <v>214.3679622739029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2614792751352417</v>
+        <v>0.1204250624956277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-404.5048546168555</v>
+        <v>0.1071677853571033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8483994273063186</v>
+        <v>0.4144333621661409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2992.067440993947</v>
+        <v>-8.409102276808045e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226863950956214</v>
+        <v>0.7985082880502297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-110.9524463932109</v>
+        <v>-16.12380181666875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5669388541018652</v>
+        <v>0.5040734084850618</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1427.425826947669</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7446710920208592</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2819.281998064329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3062087310348957</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-312.6239627332207</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9152785016652312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.43015684917312</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5214284539285152</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5112.56133257267</v>
+        <v>7697.287826502064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001454396456676994</v>
+        <v>0.1388146957468611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.0405747981711</v>
+        <v>-233.2940182886821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09825857164098106</v>
+        <v>0.4546919922304032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04683709323292153</v>
+        <v>164.5598310195016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6484084799435608</v>
+        <v>0.1376770261075729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-251.1138732427926</v>
+        <v>0.01335828883423973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9057980174547016</v>
+        <v>0.9132773768744347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1882.752495640965</v>
+        <v>6.230552762898738e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.486800255270866</v>
+        <v>0.7327112644881317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-246.1006979126409</v>
+        <v>-15.47714074154683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2660164175707921</v>
+        <v>0.5194685175430426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-177.2257953039416</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9590163733116827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1981.189382314407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5559679302302385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1909.716046590273</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5811531933525438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.16358329118032</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8009332132122571</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4358.573684142882</v>
+        <v>1272.118912017871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002703464346065541</v>
+        <v>0.682765499268838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.4661325746049</v>
+        <v>100.8031251243617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08104402836207146</v>
+        <v>0.634421963516267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.102796141980353</v>
+        <v>159.4265492896077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2386203458755059</v>
+        <v>0.07216850386696641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4469.996730376686</v>
+        <v>0.1422346059159388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09206742171508643</v>
+        <v>0.1431735153707659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4091.368863262962</v>
+        <v>-0.0001200143762581558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04766535206876123</v>
+        <v>0.4393457167875741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-80.62793949252995</v>
+        <v>6.297968928696918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6405768352256807</v>
+        <v>0.7540137302204007</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5154.007006310136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1013645588779321</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3737.029110000202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0827540307835945</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5833.451814159991</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1375489307689269</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.22489710172458</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5682422998785022</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5110.766490677884</v>
+        <v>1618.73028912727</v>
       </c>
       <c r="C2" t="n">
-        <v>2.89822541852529e-06</v>
+        <v>0.5756000157339725</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.2642778501479</v>
+        <v>-55.07345749330022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05915561856735253</v>
+        <v>0.7595091020514138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05888757780655349</v>
+        <v>164.2442046366454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4757785740643841</v>
+        <v>0.04189735045411615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1000.769700049417</v>
+        <v>0.05115246835441856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5229828321629403</v>
+        <v>0.5127031962900903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2495.482742287314</v>
+        <v>9.776552865800895e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1966964094296371</v>
+        <v>0.4064439924066129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-124.1439563108434</v>
+        <v>-2.683116482871412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4538413616040124</v>
+        <v>0.8913681980335346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>665.6679998836139</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7471942551620154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1313.281550732221</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5198440308787791</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-852.1382386210444</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6618950367231964</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.51783492290403</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03565167980046026</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4330.0597966258</v>
+        <v>2964.970880792636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004131650114538617</v>
+        <v>0.4088050456679944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>211.4794285087511</v>
+        <v>-69.6046542130307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04341186546510226</v>
+        <v>0.7695053731208286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04232603573347127</v>
+        <v>253.4390169943995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6699252651064636</v>
+        <v>0.03279053428168786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.1423819085066</v>
+        <v>0.03108487479820152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7891383444559238</v>
+        <v>0.7595352610985492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1244.426806719301</v>
+        <v>6.734572102367882e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6116848534075098</v>
+        <v>0.6518831384988824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-244.5705687431361</v>
+        <v>-17.30876396701414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2547030898049351</v>
+        <v>0.4042091107137659</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2459.50553840096</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3931269895604332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-277.1244898227897</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9223620448058354</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-88.61895704880862</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9712887518999739</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.6387106573718</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2431420474132604</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4153.066453174384</v>
+        <v>6381.257523679104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002043049013187051</v>
+        <v>0.1009453795260395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.7630275004944</v>
+        <v>-1.564161619824063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1075523426462583</v>
+        <v>0.9951041033436924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06170838642640511</v>
+        <v>175.2929812390728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5646210650368568</v>
+        <v>0.1350538777076819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.023080695265</v>
+        <v>0.03246396605185833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8482303406744927</v>
+        <v>0.7913349816037833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1777.993862126395</v>
+        <v>-2.333683694598612e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4426293305757034</v>
+        <v>0.8928488981836704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.14047814821276</v>
+        <v>-17.91605005306909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9288588521740151</v>
+        <v>0.4990243464532724</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>391.328609922437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.917783468600203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2175.596806856091</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.398560842998865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-30.34585282795024</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9913838143017115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.68207083445715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9719342993731721</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4534.01262686167</v>
+        <v>2594.857621339444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003213110964912969</v>
+        <v>0.4887801695309929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.3615770156992</v>
+        <v>-240.8524461019457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0365393153936219</v>
+        <v>0.3452900461390241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0899789833542842</v>
+        <v>215.3018971462037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.475874747316425</v>
+        <v>0.04691242537358575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-327.5744368906799</v>
+        <v>0.0854441480352717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8751610279768411</v>
+        <v>0.5366527344501966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1268.600430992852</v>
+        <v>3.378198790090642e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6236851219142754</v>
+        <v>0.8371874912460747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-275.3249537521327</v>
+        <v>-2.675671227243832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185144826056992</v>
+        <v>0.9019498996836358</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>373.0658420654768</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.90142490590045</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-710.7627726292549</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8125402509424217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-78.30435414430667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9782849388958412</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.45431586077085</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3455811073233235</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5870.309653707352</v>
+        <v>4116.241672132221</v>
       </c>
       <c r="C2" t="n">
-        <v>2.10331237776899e-05</v>
+        <v>0.2767726146541925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.2016761129071</v>
+        <v>-7.91933385030984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2520548299182363</v>
+        <v>0.9704052487942686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04474072218045282</v>
+        <v>128.5029268004655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.680412723555034</v>
+        <v>0.2146766798311362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-501.329486476584</v>
+        <v>0.09661276159674737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7937978729682504</v>
+        <v>0.4810337774745187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4046.478888097487</v>
+        <v>7.716704125676607e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1003312436867834</v>
+        <v>0.6176107881855704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-92.66110423704311</v>
+        <v>13.56336973517858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6121472581104401</v>
+        <v>0.5896115450443726</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2518.990347798062</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4254806691905743</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3916.811416506145</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1451766599172907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1432.414176719032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6009322566925845</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.73997694218686</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6864973310158244</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4854.846513859989</v>
+        <v>5114.539204623783</v>
       </c>
       <c r="C2" t="n">
-        <v>8.630402693839224e-05</v>
+        <v>0.2472864612717207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.3494324067793</v>
+        <v>-24.48536368334459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1030131747103192</v>
+        <v>0.9262945104143969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0836378852844011</v>
+        <v>207.1254794247542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3791959051562797</v>
+        <v>0.07124122143310986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-155.0857694304923</v>
+        <v>0.09865677364855305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9428142440023269</v>
+        <v>0.3817174801847417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2875.090982917462</v>
+        <v>-0.0002984168969690534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2413077189849867</v>
+        <v>0.4281495922749687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-137.6408807933246</v>
+        <v>-24.96407925869828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5005066072058688</v>
+        <v>0.3222663026144311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5743.604741369267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2880614783214029</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2934.178489197027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3175441479572157</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>894.5412709114116</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7868140717094809</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.1707179138787</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4083991178348142</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4830.535135827315</v>
+        <v>7798.917105809345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002211069028954475</v>
+        <v>0.04110756825664855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.5559541928603</v>
+        <v>143.6430914969427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1547526796931606</v>
+        <v>0.5972405224954067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09485766416782884</v>
+        <v>133.8340052382625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3323985386830383</v>
+        <v>0.2042646284541274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-55.8156565551335</v>
+        <v>0.05907693667434238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9782951678201414</v>
+        <v>0.5617073595710114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2972.356169810904</v>
+        <v>6.268462812618792e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1830245507566663</v>
+        <v>0.6980044772198718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-125.6791783972615</v>
+        <v>-42.49486672664276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5625552559834244</v>
+        <v>0.07949382946680281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1936.872359765444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5016922685945302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3086.196756838208</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1899507503607732</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2468.248449768859</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3815072414613078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.73968818491844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4895747641324057</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3729.668039982239</v>
+        <v>3193.154808914853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001065367781103368</v>
+        <v>0.2941122934612019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226.7755031546187</v>
+        <v>-54.4622813395755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01425551204425174</v>
+        <v>0.7737372691551505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09474482173000845</v>
+        <v>204.9948413698515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2125435765389732</v>
+        <v>0.04730366133853652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2201.045354958092</v>
+        <v>0.1033472000468269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2763516970569143</v>
+        <v>0.2280987423382889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2468.250190226552</v>
+        <v>-7.526609271086838e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1895174608890612</v>
+        <v>0.6096865062674885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.629272561921425</v>
+        <v>-0.5790242006546293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9542982167124341</v>
+        <v>0.9758318926721268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1112.582867807708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6776634771756953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2971.792670529915</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1657649827515177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4073.113138140259</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.171245610320079</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20.97656014004147</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6050164176815478</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5242.279660183425</v>
+        <v>7260.020200232071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001255973992681049</v>
+        <v>0.0843748448307315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5914700062613</v>
+        <v>-3.423945088528853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2910428687042853</v>
+        <v>0.990685777987562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01707091094299037</v>
+        <v>137.3699720825181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8799867414846285</v>
+        <v>0.2789912960857576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1291.26789153167</v>
+        <v>-0.0311661983124035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5946578606196662</v>
+        <v>0.8136454476372914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1022.659094624291</v>
+        <v>4.53406574841993e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7162794380280941</v>
+        <v>0.8125265890499107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-113.0987866678095</v>
+        <v>-28.49174758824772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6351990152651554</v>
+        <v>0.2631254603122957</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1671.023447968022</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6424218580445298</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-432.481519779436</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8902851337963904</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3044.760472741772</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4224757280252837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.31794556262113</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6753535410675898</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4736.024171524218</v>
+        <v>3252.791237471379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002557119911558908</v>
+        <v>0.3945290853827067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4274357140129</v>
+        <v>-34.42538197688327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07099911849003002</v>
+        <v>0.8938485149861004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1073307401017048</v>
+        <v>192.9997653038862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3381920490883857</v>
+        <v>0.08090463645127281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436.7484575659314</v>
+        <v>0.1119568852424236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8189829679252058</v>
+        <v>0.3879392235241754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3570.133960917131</v>
+        <v>7.119111880362776e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1130521941622612</v>
+        <v>0.6711888114230997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-137.1380982101758</v>
+        <v>-5.579671020630123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4817757786459048</v>
+        <v>0.7931153709836664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>190.600113015671</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9503334841482772</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3262.85668338812</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2035815311547212</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>361.6994361247944</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8938579115292281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.30725410911418</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4294585219487561</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4686.219860856771</v>
+        <v>7184.370484976824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004938756435380715</v>
+        <v>0.06990806723302025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.5126568007313</v>
+        <v>-59.8494996371378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1177718637033513</v>
+        <v>0.8105795203085742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1088143380750999</v>
+        <v>188.7021108001647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2742582786225117</v>
+        <v>0.1265772417299568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.2248211944852</v>
+        <v>0.08593778103671709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8737631936405684</v>
+        <v>0.4297266491664404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3314.752313126002</v>
+        <v>1.989131359096189e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1533478994721685</v>
+        <v>0.9009644004751606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-161.1190232941292</v>
+        <v>-30.19378077742383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4406512781852691</v>
+        <v>0.207214275011184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>958.2024655090072</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7458511061595074</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3682.661232228386</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1556982813102853</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-891.7176932488401</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.754129832607384</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.34438636820677</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6952132953372834</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5011.485876778203</v>
+        <v>3645.684769666663</v>
       </c>
       <c r="C2" t="n">
-        <v>3.934034020215397e-05</v>
+        <v>0.2364677704871879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.878435535698</v>
+        <v>-56.92715515798619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1517340219105744</v>
+        <v>0.7731902019412038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1311460044132104</v>
+        <v>108.1445407556607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1290330136961107</v>
+        <v>0.226265178032957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2135.854604280818</v>
+        <v>0.1633182854301609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3346219446794595</v>
+        <v>0.08958142841775475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4581.356449454363</v>
+        <v>-0.0002629842575898816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03281106620024585</v>
+        <v>0.3018403053341683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-180.6529975562365</v>
+        <v>-4.505997278415435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3010860158291572</v>
+        <v>0.8223709001284085</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5711.007741859708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1171453942604315</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4521.309930921402</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0471252396136544</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2711.147208417562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3998826166013822</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.39231558279849</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5344249634922336</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4931.802033726599</v>
+        <v>8464.40939747779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006509091622263234</v>
+        <v>0.07938351347208186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206.15369194862</v>
+        <v>-246.337145241578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1291906255224363</v>
+        <v>0.3383024434978014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06023148842049213</v>
+        <v>268.2489632308109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5856327065032798</v>
+        <v>0.104844845927945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.76372322901216</v>
+        <v>0.02320567501543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9760549043559728</v>
+        <v>0.8514792903762024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2679.865052845169</v>
+        <v>-2.702149551010106e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.277342437306513</v>
+        <v>0.878091001024927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-198.5021330310053</v>
+        <v>-40.60774272340034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3735772759982589</v>
+        <v>0.179458819114574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1983.78196262143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5813235263072817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3710.905156737286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1790309132997641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-584.5431737636941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8369492114860276</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.66838297280218</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6287211637206309</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4562.440136103507</v>
+        <v>-886.8188533674238</v>
       </c>
       <c r="C2" t="n">
-        <v>5.866796824456826e-05</v>
+        <v>0.8152359996435056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.4535753769954</v>
+        <v>-124.0211382592881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009027188766605167</v>
+        <v>0.498199110719215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007518026679995946</v>
+        <v>225.2188417216758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9327746238587797</v>
+        <v>0.008305346010280547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1100.233227635772</v>
+        <v>-0.02526930814275428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5204312454900477</v>
+        <v>0.78511283666169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157.1874266840739</v>
+        <v>5.775283826102927e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9405670732620484</v>
+        <v>0.668482241726266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-64.11926177295186</v>
+        <v>25.56893454784345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7003757501778406</v>
+        <v>0.2270207663748363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1329.112222825302</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6159702420499051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1883.739645522027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.459169448229595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>41.1057677503486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9852635979594281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.69263714272297</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2420463747731871</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4137.4976868139</v>
+        <v>2663.313989786364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000244982136599013</v>
+        <v>0.4349901071576586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.9897504533225</v>
+        <v>-53.43750823224133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02004666919250667</v>
+        <v>0.7973251969341635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.108642208798092</v>
+        <v>212.0068014812981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3128581524718233</v>
+        <v>0.02462014939386787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.6752362972038</v>
+        <v>0.09044227133836286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7950480835610207</v>
+        <v>0.425065678785877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2801.497350191551</v>
+        <v>5.126206792698898e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2486464751697191</v>
+        <v>0.7244484580745207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-106.8860590422212</v>
+        <v>-9.391902213378845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5468758166230043</v>
+        <v>0.6647872232937727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>271.5785636809737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9241169643086158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2301.70910012923</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3785533578785349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>750.7815782917014</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7596971727110376</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.77832881719696</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2024643612716879</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4253.228823631183</v>
+        <v>7047.746550760149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001545121989932193</v>
+        <v>0.07742985751120626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.7620582902144</v>
+        <v>186.045470819776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1676266250046869</v>
+        <v>0.5021749384206345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07254153076708129</v>
+        <v>134.0975924586622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4936135953976932</v>
+        <v>0.2242756584731187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.6089667024135</v>
+        <v>0.03196499438218615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9110549463227389</v>
+        <v>0.7879723753076897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1855.722483087335</v>
+        <v>7.163465797103678e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.491470512935655</v>
+        <v>0.6892882687393337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.2540531755007</v>
+        <v>-24.42953409563592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7913899555917228</v>
+        <v>0.3025237380026115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>757.3366070360953</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8081793392669615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1556.341044908844</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6115736195498904</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2055.015466032208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5604358305346182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.931878681114739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9161514255265354</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5684.753893929166</v>
+        <v>5060.036341602334</v>
       </c>
       <c r="C2" t="n">
-        <v>1.136799653265068e-05</v>
+        <v>0.1166498121040984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.759770537062</v>
+        <v>-125.8580465010549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2666459082080964</v>
+        <v>0.532699834434761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04064027068317015</v>
+        <v>126.182335190331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6635337982277901</v>
+        <v>0.1954485469923752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1761.088024520001</v>
+        <v>0.06000697968529811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4074204246499729</v>
+        <v>0.5739512058305927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4068.997652071845</v>
+        <v>-0.0001206467022528429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05610369412650812</v>
+        <v>0.437343611838039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-194.6899148089079</v>
+        <v>-16.2461103314337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2749087785859129</v>
+        <v>0.4752002778506549</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4031.144854057413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1398074828731517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4177.108004279504</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06505799685213461</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2755.708821999169</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3913762650426299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>33.96699802071203</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4028943839743467</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4918.794437395858</v>
+        <v>3281.37471740699</v>
       </c>
       <c r="C2" t="n">
-        <v>2.598928919116229e-05</v>
+        <v>0.3679970291516792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.9497628636776</v>
+        <v>-173.4060299068448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02399142490144509</v>
+        <v>0.4281681144998398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09508163597387242</v>
+        <v>216.5550069278511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2676801568452116</v>
+        <v>0.0447238944518852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1258.212446327891</v>
+        <v>0.1129614783760265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4705342084895461</v>
+        <v>0.2595353559589946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2360.48281574643</v>
+        <v>-7.715718081075548e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2002992037638837</v>
+        <v>0.9773968250989042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-183.7146613129042</v>
+        <v>6.282088018658534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27611400377582</v>
+        <v>0.7675214512955939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-88.75280632408158</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9808485552627931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2220.350913568997</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2954451581156222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-536.0845005005622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8226318678180663</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.04384939276024</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.653767050189997</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4719.396764581255</v>
+        <v>5056.335094995247</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004372443272325965</v>
+        <v>0.2938523410150638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.5032863908803</v>
+        <v>-39.379576320799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0739304566269577</v>
+        <v>0.8930433370845549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0767216013816506</v>
+        <v>202.8809213441699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4326261317883628</v>
+        <v>0.09531266953651821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134.8656637320137</v>
+        <v>0.06703769142477507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9481131309837862</v>
+        <v>0.5532853083900221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2460.975607886581</v>
+        <v>5.194847511970639e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3130138715651528</v>
+        <v>0.7758129136291191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-161.7272956820329</v>
+        <v>-14.90417848429325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4686151424691242</v>
+        <v>0.532597940900193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>908.3232598414143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8066984199141218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2346.661199771912</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4358731759663886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-686.0269882360387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8253901418799782</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18.07490318229735</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6975978849132612</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4917.131948394563</v>
+        <v>2804.819465606472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000246715509727963</v>
+        <v>0.4393580541916869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.7889919416503</v>
+        <v>64.84032104813713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07994513928804289</v>
+        <v>0.7953206465546648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1247806521226636</v>
+        <v>201.6257403822708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2066493104986261</v>
+        <v>0.0967552642835962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.2244625815963</v>
+        <v>0.1411175246918735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8787539030004805</v>
+        <v>0.1989381823495364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4443.8302078097</v>
+        <v>9.275783724873351e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0775194516250499</v>
+        <v>0.571559662160213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-119.1040859559711</v>
+        <v>12.88473958885632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5392806044693246</v>
+        <v>0.5760206049842174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3350.540697033177</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3317852822832843</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3531.226628923373</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.185575763301113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1067.949331588351</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6940919058998011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.9691447089135</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7917141674692805</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5609.194778907005</v>
+        <v>4150.910198278252</v>
       </c>
       <c r="C2" t="n">
-        <v>9.176124992810947e-06</v>
+        <v>0.2933871341545521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0293137191065</v>
+        <v>-182.0585092444614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06191614266554218</v>
+        <v>0.3921240529739565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01786070692748271</v>
+        <v>158.7906427374334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8651294460729616</v>
+        <v>0.1003451069175866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2260.573058895686</v>
+        <v>0.03979577581871391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2167876238638431</v>
+        <v>0.7606167081412464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1287.339690593509</v>
+        <v>-2.740713143909834e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5119468901985447</v>
+        <v>0.918832463205029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-199.072138743317</v>
+        <v>1.784385492320851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2338193362263144</v>
+        <v>0.9357911240940904</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>176.5468341176506</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9612315814693619</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1264.605879612797</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5648939441323353</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1387.762782174165</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5850673230656882</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.72141233574328</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5213034013264111</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4445.966908543909</v>
+        <v>3841.099752453685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005520634811213879</v>
+        <v>0.2298098626485453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.8476661865619</v>
+        <v>-264.8344819670363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08809187371155321</v>
+        <v>0.2669614828874224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1255105081405201</v>
+        <v>173.5239825930983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1964730831417107</v>
+        <v>0.1131040060263355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2339.348532805541</v>
+        <v>0.1431479689797067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3454998769241466</v>
+        <v>0.1526043801544304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3632.108020189311</v>
+        <v>-0.0002535915241399776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1058393237542536</v>
+        <v>0.1368379424772189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-201.9012800184317</v>
+        <v>-33.80216715655752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.363407820224339</v>
+        <v>0.1275811569391402</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3152.046943880384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2837826694258517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4795.696405556873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04562028036535735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6177.265922858107</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07072092962696243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.52521624294499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03195582298385865</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3696.471778800676</v>
+        <v>9756.766456881844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002241029499802466</v>
+        <v>0.008599539194829028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3973940800093</v>
+        <v>311.6497191396095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0846753534654163</v>
+        <v>0.1774932742034621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1136520823227556</v>
+        <v>137.4182938934274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2107779959726626</v>
+        <v>0.1333201618880695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1888223847031</v>
+        <v>0.08602562625898819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7866925430215208</v>
+        <v>0.3427720220503475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2252.463723428536</v>
+        <v>5.358814533636645e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3065389644502272</v>
+        <v>0.7150814500223347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.9399227417474</v>
+        <v>-50.26409600764413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5342953721466818</v>
+        <v>0.03827376072644757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>531.3545817513052</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8437202392030173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3893.600830359852</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09662625757097835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2031.346972581819</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4260826428209755</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-6.601056141119901</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8493043815621425</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4564.538821509488</v>
+        <v>2919.332331004575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000116941464860865</v>
+        <v>0.4096765838163388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.002728763712</v>
+        <v>-14.81822855050007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04144720351021621</v>
+        <v>0.9461937322570286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05039669149834752</v>
+        <v>183.0046485804099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5795506989990267</v>
+        <v>0.05062212011405055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-585.4055257596765</v>
+        <v>0.05891495380709622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7719582077875231</v>
+        <v>0.5749130381730025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1369.252778763143</v>
+        <v>8.322462664517174e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5471911578695969</v>
+        <v>0.582734945913034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.62790936098395</v>
+        <v>8.625688534519986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9429883058583699</v>
+        <v>0.6884643536375601</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-686.352806563897</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7988920239233162</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1030.456739548089</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6931571211088053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-833.0128689939374</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7696163182409689</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.95214630029496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7780873082797626</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5114.579376035732</v>
+        <v>2939.731745591616</v>
       </c>
       <c r="C2" t="n">
-        <v>2.908464922947955e-05</v>
+        <v>0.4673331443499191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.4611132453865</v>
+        <v>-104.0411351136776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07829334947797319</v>
+        <v>0.6389881072869159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01746692975379385</v>
+        <v>179.0316471645239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8676295118117119</v>
+        <v>0.07171428821068269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-208.4118899900868</v>
+        <v>0.00307506586421849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9158606031830039</v>
+        <v>0.9787800536677196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1763.451249057279</v>
+        <v>5.412920501328262e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4882119596714862</v>
+        <v>0.7329971869886479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-203.9489068318502</v>
+        <v>-6.65183135688558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2673892063190674</v>
+        <v>0.7452468561189585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1210.272811605761</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6736614524779616</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-586.8079444832583</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8428012092786332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-305.2769567366031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9184230353415243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.44278471363388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3225502266976139</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3497.808363327891</v>
+        <v>4053.356254196578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004907011691172468</v>
+        <v>0.3016589277086595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.546928251816</v>
+        <v>40.10114527144384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04654913580682759</v>
+        <v>0.8580461753055562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1454405403220793</v>
+        <v>172.2459476092805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1174333916425727</v>
+        <v>0.08885436175659174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3447.343325908272</v>
+        <v>0.1429766197739897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1371345147906146</v>
+        <v>0.172152071987846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3321.357787791525</v>
+        <v>-0.0001139124835703012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.109974552807095</v>
+        <v>0.494451608283197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.507801732501548</v>
+        <v>-20.96610008859483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9893713987408369</v>
+        <v>0.2889029711027717</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1065.460575027101</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7073031109989536</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3898.035420895907</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1059451766416755</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5063.148192982706</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1544072012590092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.26106158220579</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3811793591833977</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5327.051256655744</v>
+        <v>1868.960688369045</v>
       </c>
       <c r="C2" t="n">
-        <v>2.717069019610067e-05</v>
+        <v>0.5527487261429893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.3756730330188</v>
+        <v>107.3337971675276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1125213798553923</v>
+        <v>0.5963887082052577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08144600192192739</v>
+        <v>140.0191969371589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4155268968913119</v>
+        <v>0.09738413295450501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>211.5387909749179</v>
+        <v>0.1906370503401641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9100771332467769</v>
+        <v>0.1062444517692686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4383.41395388049</v>
+        <v>0.0001191440737486275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06178691243289475</v>
+        <v>0.4058806045677781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-107.85664064614</v>
+        <v>22.11913316078432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5320642551560706</v>
+        <v>0.2788481830698332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6180.967677556121</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1016931744365141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5047.566039574034</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03477355411558587</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1343.398283063388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5803174651889662</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.03260743141283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7095621022157723</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5643.25097922185</v>
+        <v>3466.629936857454</v>
       </c>
       <c r="C2" t="n">
-        <v>2.060346536070198e-06</v>
+        <v>0.304027583579377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.1739683255911</v>
+        <v>-81.82529259418556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1027029626954545</v>
+        <v>0.6878612543909093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02539463516001736</v>
+        <v>137.3515212727133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7770738627085735</v>
+        <v>0.1353602038689783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3109.647367082327</v>
+        <v>-0.001820193625699823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1179553802797246</v>
+        <v>0.9861120368187687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.12680905405455</v>
+        <v>-1.978270892414376e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9908459839744527</v>
+        <v>0.9414157034962614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-84.91309889041418</v>
+        <v>6.280754902476254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.605043666363094</v>
+        <v>0.7658359695914549</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>164.9654147837318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9635051711774096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22.03573893530756</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9932986187901889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1932.820489813932</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4916101439969899</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.26192965474917</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4256463338674455</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4343.980331231657</v>
+        <v>4790.21922997828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004844188224533417</v>
+        <v>0.1869035789588444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.6947528429372</v>
+        <v>-103.2882795102354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03663107121595745</v>
+        <v>0.6568751073927401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0690116034017782</v>
+        <v>229.0992218506163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5296416408073565</v>
+        <v>0.05497014505052571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.63800027995239</v>
+        <v>0.0333362630600052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9685717519335407</v>
+        <v>0.7736131186457047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1369.504898309868</v>
+        <v>2.522588207866727e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5688787132594818</v>
+        <v>0.8722249516232317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-236.5397923900935</v>
+        <v>-23.66257072244412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2245034343722723</v>
+        <v>0.298347465650992</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1713.16523575568</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5584211981691238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-887.2858506540942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.746955562737228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-729.4911472061003</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7762550837160125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.10933531381046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3564266534472706</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5355.796082880068</v>
+        <v>6791.634677860147</v>
       </c>
       <c r="C2" t="n">
-        <v>7.431216308164123e-05</v>
+        <v>0.100078940946377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.3310924676866</v>
+        <v>-216.7129813121892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1870535422532096</v>
+        <v>0.4715503425009225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08672640897734027</v>
+        <v>153.3370016380072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36675590941554</v>
+        <v>0.2042181152113315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-128.3937670649266</v>
+        <v>0.07160158222045382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9505029166513259</v>
+        <v>0.5152085659212835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3377.286352775902</v>
+        <v>-1.003368084812886e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1406102656398872</v>
+        <v>0.9545375059328265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-279.3026456672233</v>
+        <v>-24.29198885906672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2642760059373313</v>
+        <v>0.3394109546918159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1165.136993932198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7142389905663622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3691.263328460902</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1566291870591319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-692.5013046679333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.816986562584448</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.17555924001611</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5717437416496175</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4993.72506904509</v>
+        <v>2448.160948843091</v>
       </c>
       <c r="C2" t="n">
-        <v>2.001246264926456e-05</v>
+        <v>0.4584429432691599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.2005588439014</v>
+        <v>-109.438790691202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02738624222564703</v>
+        <v>0.5798683692812958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05647251860776009</v>
+        <v>216.7877822774817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5117860964986809</v>
+        <v>0.03375070355852989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1057.979629040872</v>
+        <v>0.07610319656925429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5709345704018738</v>
+        <v>0.4373679264461556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2138.399429143375</v>
+        <v>8.891554387841394e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859812091551949</v>
+        <v>0.5192518676452349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-142.2093555273383</v>
+        <v>6.832778658697169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3762381434243122</v>
+        <v>0.7298195372221986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-743.152370989812</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7786915517921392</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1876.894165250485</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3877208778455541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-797.6199332386213</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7446233733957592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.77762597912908</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3572140961178796</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4729.352800719575</v>
+        <v>9806.355318984854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002051167147213703</v>
+        <v>0.03419953143125216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.2876112414424</v>
+        <v>-74.22465480029194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09278518591733492</v>
+        <v>0.7777532987978155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1193799187400776</v>
+        <v>198.1081989921781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225995490992445</v>
+        <v>0.06637605440534398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-118.2241217025603</v>
+        <v>0.06783862185000032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9541037689155979</v>
+        <v>0.5271144218834191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3661.371223519115</v>
+        <v>-0.0003371865931914341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1132726340198433</v>
+        <v>0.3114377809128559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-123.6352032030076</v>
+        <v>-53.95037185075552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5804419293812442</v>
+        <v>0.07360462988457479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6224.89497040819</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2194203295904259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3832.17920667803</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1273008793525287</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-849.8458669124852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7559164463197323</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20.2406562264778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6344807523229141</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4166.575563962826</v>
+        <v>6985.600757939797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00165820525039647</v>
+        <v>0.07082793402321463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.010775995819</v>
+        <v>86.42462506585804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1073005431040068</v>
+        <v>0.718980381022724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05634946306096984</v>
+        <v>141.4199415430503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5973631171143157</v>
+        <v>0.1820931185977611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.1353231064675</v>
+        <v>0.01434077861918837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9268424325098181</v>
+        <v>0.9065032663600789</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1740.632096079131</v>
+        <v>1.179788835763224e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4575353436560975</v>
+        <v>0.9443468493142892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.68750364578318</v>
+        <v>-19.13939403802698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7426349663579943</v>
+        <v>0.3971463667848022</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1050.080901344018</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7412480894798263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2211.029573133453</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3891524267733919</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-526.7936878249538</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8538606075198389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.538324739867818</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9296460165268721</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4704.354863748955</v>
+        <v>2754.29458149216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001752840895622063</v>
+        <v>0.4632762004811726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.5273883988071</v>
+        <v>-91.80026981592692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06192724901143192</v>
+        <v>0.7165865971761695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09775439101770783</v>
+        <v>208.5360748247334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4265109111648246</v>
+        <v>0.05342572757974626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-858.325941494073</v>
+        <v>0.07193919098512119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.679674953786674</v>
+        <v>0.5939804142483804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1439.301989930993</v>
+        <v>7.707095679069525e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5849126166236853</v>
+        <v>0.6524675598493664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-210.9201197860149</v>
+        <v>-8.013693807190471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2864844677271607</v>
+        <v>0.7022553469873225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>946.6495567434267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7491723225567701</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-207.7499466321988</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9473906133909196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1182.352219769613</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6988998037878187</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.10008893250419</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2984786175681932</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4525.786654499791</v>
+        <v>4200.775565639338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002198517758736148</v>
+        <v>0.2598035785572393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.7198875145301</v>
+        <v>-90.35330903065199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0559026573709841</v>
+        <v>0.6887996697459204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1037203944473941</v>
+        <v>151.5408055752999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3090830447675089</v>
+        <v>0.1137381351770558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1493.184516290626</v>
+        <v>0.1000699045875704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.546648820507732</v>
+        <v>0.3847147883496906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3101.615247838262</v>
+        <v>-0.0002080814680298035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188397132342073</v>
+        <v>0.4751979197675662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-124.8674791691799</v>
+        <v>-18.48321058772382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5035465379239079</v>
+        <v>0.3880009087371268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1895.538456230418</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6231883318383604</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3393.73693780421</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1839533638488412</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4008.658924144778</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2491635675606379</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.32569044163276</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1962271392367344</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5250.763595626353</v>
+        <v>3537.600122524574</v>
       </c>
       <c r="C2" t="n">
-        <v>3.483063433394918e-05</v>
+        <v>0.2504463396944333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.4845503322154</v>
+        <v>-82.40046478766936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2176511410468481</v>
+        <v>0.6861320784512266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09822548407578352</v>
+        <v>117.0758695612249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2277509668332129</v>
+        <v>0.2291053321918547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2490.014803181864</v>
+        <v>0.1239909739014287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2366403681231755</v>
+        <v>0.1802112063654044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4682.982796976061</v>
+        <v>-7.25747750006278e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0301923981442198</v>
+        <v>0.643360979971666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-179.3195105097149</v>
+        <v>2.72955238686481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3121431259718924</v>
+        <v>0.8952645912798574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3628.065020864402</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1738411759682469</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4376.109907153921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06392614677290022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2777.151757977353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3975100753971077</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.32496336512914</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7814003019462332</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4839.918925287035</v>
+        <v>4163.70216957228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001934621268373575</v>
+        <v>0.3247432464542375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.832513364507</v>
+        <v>-196.5091037714443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03492807204598389</v>
+        <v>0.4145121391850548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0614357466336381</v>
+        <v>212.3522872472709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5975230968212966</v>
+        <v>0.05226041023446302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1036.668878723328</v>
+        <v>-0.06856737024205084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6288746016040123</v>
+        <v>0.5978789990823663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070.545318933529</v>
+        <v>4.21349689344388e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7084285017735592</v>
+        <v>0.8021476934508299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-245.5014302701436</v>
+        <v>-8.948984066726581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2225442711567543</v>
+        <v>0.693872889994785</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>245.4053847406585</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9361458031220822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1169.803331068927</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7137901031518448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1204.433162883944</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6881954201132168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.09781867683807</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4723497252797159</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5251.578851210181</v>
+        <v>3693.599047023114</v>
       </c>
       <c r="C2" t="n">
-        <v>5.842580288745055e-05</v>
+        <v>0.248463936856632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.9599150957209</v>
+        <v>25.33159137795408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2997391304133459</v>
+        <v>0.9052913723775516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09271394182810699</v>
+        <v>85.65870757831749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2746338540178264</v>
+        <v>0.4458186794982127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2549.424055977448</v>
+        <v>0.1121507379320564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2378550822114387</v>
+        <v>0.2381635132584773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4826.326241971612</v>
+        <v>-6.683568346909513e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02428749925510583</v>
+        <v>0.6797872988302806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-95.31336328809721</v>
+        <v>5.368767316931709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5815031692026658</v>
+        <v>0.8090844582151024</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3741.272886044811</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1991899971859767</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4461.993087338346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05689641459877012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2399.406989762279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4818444601058457</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.025952728164853</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8962580529327895</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5052.26737278325</v>
+        <v>5107.548571726411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001491348619286748</v>
+        <v>0.1985521541998124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4909071564434</v>
+        <v>-143.7597544548582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1054953022907912</v>
+        <v>0.6137548716994988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1136612490626023</v>
+        <v>139.0927540068345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2758794757575743</v>
+        <v>0.195868317532394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-613.2687245436982</v>
+        <v>0.1256178723343244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7661026566694565</v>
+        <v>0.2798582543521801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3074.613347387035</v>
+        <v>-0.0003027982550964045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201584818618351</v>
+        <v>0.3787276279540743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-212.2570613127399</v>
+        <v>-17.86333202905621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3301897233333377</v>
+        <v>0.4353570875887294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4065.749218961671</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3998058047523457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3347.747714185863</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2225208898070637</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>646.2634515897425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8221195955648692</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.80384406408174</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3549394281100563</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5198.984643922528</v>
+        <v>6621.694300318286</v>
       </c>
       <c r="C2" t="n">
-        <v>3.582618275359044e-05</v>
+        <v>0.09008870149684448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.4723777918926</v>
+        <v>-80.56644110918432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1805575321681036</v>
+        <v>0.7631414414652067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05119851137017867</v>
+        <v>151.6904327326926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6145879873062168</v>
+        <v>0.1742351430592137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-25.64318523331258</v>
+        <v>0.02171281185860718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9900957839478568</v>
+        <v>0.8526563699986429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2890.978384008264</v>
+        <v>5.472440548289425e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2198228890934644</v>
+        <v>0.7456023380110708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-181.9357060496053</v>
+        <v>-22.80603555866965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4145748233450199</v>
+        <v>0.3323761621795369</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>880.1051531383146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7660726523654086</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2777.421443752933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3018670660249854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1258.724425450254</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6908901189752131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>17.71930418464589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6382853732843583</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/dist_LR/Frankfurt am Main.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46092531" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46191041" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46287054" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46382515" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46476897" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46578550" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ46678790" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ46881518" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ46981461" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ47078971" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ47181481" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ47287258" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ47387075" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ47482977" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ47582985" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ47679254" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ47775912" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ47877954" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ47979167" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ48075096" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ48169632" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ48266976" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ48363211" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ48461426" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ48558177" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ48661248" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ48773204" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ48880373" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ48992990" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ49105666" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ49208036" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ49315680" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ49427323" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ49538019" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ49646081" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ49760663" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ49872309" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ49975860" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ50088339" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ50200676" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ50310054" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ50418347" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ50530656" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ50651096" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ50763483" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ50874653" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ50982328" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ51088451" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ51211124" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ51332522" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ37926829" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ38032887" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ38136309" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38239986" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38341016" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38448847" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ38550526" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38760149" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38886676" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38989319" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ39087316" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ39192174" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ39290937" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ39390502" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ39493057" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ39597498" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ39701511" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ39800446" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ39900858" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ40001684" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ40102374" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ40208630" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ40309841" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ40411737" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ40513948" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ40615367" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ40719857" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40819235" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ40922569" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ41023865" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ41122075" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ41211022" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ41300045" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ41390073" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ41478363" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ41565535" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ41659606" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ41758377" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ41848550" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ41940090" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ42031343" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ42119198" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ42205024" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ42293329" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ42380087" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ42466474" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ42553447" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ42636280" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42720222" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42805678" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5559.98919655598</v>
+        <v>4247.100622092816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1314692905048066</v>
+        <v>0.2536622065069983</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-125.7090485564697</v>
+        <v>-86.45492572517242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6152247100278661</v>
+        <v>0.740006642869617</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.5662711455267</v>
+        <v>130.5297903232243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2461143547862218</v>
+        <v>0.1981130139765947</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1028055652733204</v>
+        <v>0.5766659880758809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3299530441096374</v>
+        <v>0.9498040228031246</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.139400549364443e-05</v>
+        <v>105.9172800131182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5935643795121466</v>
+        <v>0.5065030262536308</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.71298153491127</v>
+        <v>12.21885108882735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6491256667582396</v>
+        <v>0.6204329622910441</v>
       </c>
     </row>
     <row r="8">
@@ -585,49 +585,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2625.957047011417</v>
+        <v>30.54752253450532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363012562239584</v>
+        <v>0.3118026627066955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3833.311174652908</v>
+        <v>-29.70038768215581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09925326200956507</v>
+        <v>0.2940912966289745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2024.385158292052</v>
+        <v>-23.30106918487474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4599480046943545</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-35.13374367275745</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4137098462973831</v>
+        <v>0.5982019321104664</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3090.391921188073</v>
+        <v>1976.333221764333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3423463316918278</v>
+        <v>0.5484048930435119</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.65261525724793</v>
+        <v>32.22153074884818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8757892365681782</v>
+        <v>0.866031839497256</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.3225703130321</v>
+        <v>218.0481066866015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01956080749271346</v>
+        <v>0.01736949661437577</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1679239947751972</v>
+        <v>7.857739685480468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07390341303276299</v>
+        <v>0.3034780840642147</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.960241417411544e-05</v>
+        <v>118.5585873548325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4521034480829033</v>
+        <v>0.3894251938842294</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1345205920728318</v>
+        <v>4.740861107236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.994988464115645</v>
+        <v>0.8302775443857888</v>
       </c>
     </row>
     <row r="8">
@@ -751,49 +738,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1103.72403683325</v>
+        <v>-4.773439002245681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6549237291890858</v>
+        <v>0.8507870688725794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3262.794903095511</v>
+        <v>-10.73567654078435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1081947919474022</v>
+        <v>0.6206027948710686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-140.6045715725722</v>
+        <v>21.13035173852346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9478589694931632</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>16.05330960761023</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.607154580777805</v>
+        <v>0.5147478085840316</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4269.438981984062</v>
+        <v>4172.578580849651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2920935444050353</v>
+        <v>0.2584688427049369</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-332.1700382917876</v>
+        <v>-331.760447847932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2473379166339892</v>
+        <v>0.2354748692943839</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.7019922641365</v>
+        <v>227.9435319455709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0522323045982326</v>
+        <v>0.03599479256558452</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0007372070338620418</v>
+        <v>-0.6432086964314507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9952837871567866</v>
+        <v>0.9430027567999598</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.089297660515444e-05</v>
+        <v>52.96795076982784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7575874252540392</v>
+        <v>0.7372285051601422</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.36442193232493</v>
+        <v>-5.106787545491784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8016947494606843</v>
+        <v>0.8030379363985943</v>
       </c>
     </row>
     <row r="8">
@@ -917,49 +891,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.5462496103469</v>
+        <v>3.016265695485828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9326423143696539</v>
+        <v>0.9195975203023901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.2417606280651</v>
+        <v>-5.538850484041696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9458416993421404</v>
+        <v>0.8363645352945459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-515.983790842733</v>
+        <v>19.41921543305524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8542345017083965</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18.81622042718573</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6732251394909801</v>
+        <v>0.6485161424603659</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7321.820365407037</v>
+        <v>6341.689545023954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04177467038363632</v>
+        <v>0.07685921915103217</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.15547547675237</v>
+        <v>37.98427040573586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8112234490435272</v>
+        <v>0.8550251372595518</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.9664303885456</v>
+        <v>109.705360011898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2562936455778019</v>
+        <v>0.231454423996716</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05878079425336927</v>
+        <v>-4.489836887341233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6016710794321312</v>
+        <v>0.6245679400795023</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002380525400730538</v>
+        <v>-194.3486073912283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3588338027984291</v>
+        <v>0.463060704995172</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.16540247298967</v>
+        <v>-12.61303387349118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5059893924542457</v>
+        <v>0.6124473759873226</v>
       </c>
     </row>
     <row r="8">
@@ -1083,49 +1044,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6604.255934742264</v>
+        <v>61.98408330202744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08192753165290696</v>
+        <v>0.1097216019199539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3423.935878080346</v>
+        <v>-26.98859961085888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1432726162152314</v>
+        <v>0.2826289012513835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1898.202307947746</v>
+        <v>-1.855484666073437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4432551736772635</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-10.16853564869272</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7765713021890555</v>
+        <v>0.959456816146632</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4155.74161954312</v>
+        <v>4258.824211841631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2288297141036867</v>
+        <v>0.2229550544566201</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-85.75092596331586</v>
+        <v>2.800053967844349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7084246582126225</v>
+        <v>0.9898501101772856</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8638174001117</v>
+        <v>162.8649598461506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1073800213263183</v>
+        <v>0.09620902603389062</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1489011066632187</v>
+        <v>4.700798361305484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209904498604162</v>
+        <v>0.5729327996198983</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.075211038513814e-06</v>
+        <v>53.4609657795188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9741325654481582</v>
+        <v>0.7237890240430032</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.50659645708078</v>
+        <v>-11.84498311966627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5227116193739438</v>
+        <v>0.5494902898806351</v>
       </c>
     </row>
     <row r="8">
@@ -1249,49 +1197,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741.6575694882476</v>
+        <v>9.290570705557244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7831294883435748</v>
+        <v>0.7332051703488893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3483.089710078976</v>
+        <v>-9.37355887492641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2258668808232569</v>
+        <v>0.7298446882525467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.0095542369281</v>
+        <v>17.08892657056711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8365745617829579</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>30.28162630546521</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4901078119832109</v>
+        <v>0.6903736433224114</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1807.606927297327</v>
+        <v>439.9505938483308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6402790647040545</v>
+        <v>0.9075555980116627</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.29499189593329</v>
+        <v>23.04077613394432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9376656742494485</v>
+        <v>0.9177775584874518</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.3863874281981</v>
+        <v>211.146006924986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05302824921284953</v>
+        <v>0.04929098318284057</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1053785655659746</v>
+        <v>3.953326912668885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2613986742830958</v>
+        <v>0.6198333298171204</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.856619470229438e-05</v>
+        <v>-2.740753988391475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8695525513023313</v>
+        <v>0.9875784145157205</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3389884848415221</v>
+        <v>5.686405172177835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9868938195078998</v>
+        <v>0.7818104078760837</v>
       </c>
     </row>
     <row r="8">
@@ -1415,49 +1350,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.6845231653983</v>
+        <v>12.09490759639891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8443704959777281</v>
+        <v>0.6956677040411655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2825.767263821908</v>
+        <v>20.70862447134286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1922735517140197</v>
+        <v>0.5706011643918771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3123.161131043648</v>
+        <v>52.20208380502214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3973376199886485</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>46.46588194173518</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2685162058584927</v>
+        <v>0.2210665306878583</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4281.336148117531</v>
+        <v>3348.566620032718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2812065529878205</v>
+        <v>0.3868908221607724</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.559110764751267</v>
+        <v>23.30638162388937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9828125351655506</v>
+        <v>0.9279630466112296</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.468915031438</v>
+        <v>217.3103777617287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1160352969274901</v>
+        <v>0.102432702118144</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09167561849789145</v>
+        <v>1.609172564390825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4272606833026478</v>
+        <v>0.8601148442479992</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.607939135329046e-05</v>
+        <v>35.99809170690645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.887328831248968</v>
+        <v>0.8454395061505202</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.94949766947371</v>
+        <v>-13.71948384341847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5769872356039685</v>
+        <v>0.6315281020432137</v>
       </c>
     </row>
     <row r="8">
@@ -1581,49 +1503,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.50169085063</v>
+        <v>18.47568882044007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7527000445784391</v>
+        <v>0.6401919248149501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3019.786110207961</v>
+        <v>-9.249371520865616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2853517207994855</v>
+        <v>0.7394795363431179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-123.2868945973601</v>
+        <v>40.03299667430345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9656527398025576</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>35.23948543441342</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4106079677379082</v>
+        <v>0.3502914772582407</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5086.520058373833</v>
+        <v>5097.11587346626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2122921521566457</v>
+        <v>0.211770504720169</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-75.2202405603206</v>
+        <v>-72.14319898313272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7488709149518642</v>
+        <v>0.7592197551093935</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.3679622739029</v>
+        <v>196.8359104967568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1204250624956277</v>
+        <v>0.1489466029716259</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1071677853571033</v>
+        <v>1.525208655652708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4144333621661409</v>
+        <v>0.8732053920507382</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.409102276808045e-05</v>
+        <v>-90.93827959656969</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7985082880502297</v>
+        <v>0.782894661400962</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.12380181666875</v>
+        <v>-17.47444530760271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5040734084850618</v>
+        <v>0.4695540322102182</v>
       </c>
     </row>
     <row r="8">
@@ -1747,49 +1656,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1427.425826947669</v>
+        <v>21.79925049415213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7446710920208592</v>
+        <v>0.6153661504413381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2819.281998064329</v>
+        <v>-14.36050927726076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3062087310348957</v>
+        <v>0.6010700869524119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-312.6239627332207</v>
+        <v>27.22233325675072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9152785016652312</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>24.43015684917312</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5214284539285152</v>
+        <v>0.4751579401027665</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7697.287826502064</v>
+        <v>6715.634631779375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1388146957468611</v>
+        <v>0.1623374904029204</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-233.2940182886821</v>
+        <v>-189.4823761565405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4546919922304032</v>
+        <v>0.5237804797791212</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.5598310195016</v>
+        <v>173.1292628080396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1376770261075729</v>
+        <v>0.109990262102949</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01335828883423973</v>
+        <v>-2.448658352614411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9132773768744347</v>
+        <v>0.8119999961719142</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.230552762898738e-05</v>
+        <v>85.55456000080491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7327112644881317</v>
+        <v>0.6257232671227538</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.47714074154683</v>
+        <v>-12.88003015848597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5194685175430426</v>
+        <v>0.5784943194325065</v>
       </c>
     </row>
     <row r="8">
@@ -1913,49 +1809,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-177.2257953039416</v>
+        <v>3.709988838539545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9590163733116827</v>
+        <v>0.9095752214041535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1981.189382314407</v>
+        <v>-25.37971117266724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5559679302302385</v>
+        <v>0.434836167449154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1909.716046590273</v>
+        <v>-8.710733226676844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5811531933525438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-13.16358329118032</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8009332132122571</v>
+        <v>0.8637716520665022</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.118912017871</v>
+        <v>160.3892959105115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.682765499268838</v>
+        <v>0.9601162015806486</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.8031251243617</v>
+        <v>139.069681779413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.634421963516267</v>
+        <v>0.5321707611161174</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.4265492896077</v>
+        <v>183.0990041763688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07216850386696641</v>
+        <v>0.0486334791678905</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1422346059159388</v>
+        <v>3.711310617689961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1431735153707659</v>
+        <v>0.636757149837516</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001200143762581558</v>
+        <v>-93.05338450030865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4393457167875741</v>
+        <v>0.5660310993991708</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.297968928696918</v>
+        <v>8.097521535894202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7540137302204007</v>
+        <v>0.7019486816800642</v>
       </c>
     </row>
     <row r="8">
@@ -2079,49 +1962,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5154.007006310136</v>
+        <v>55.41969134579678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1013645588779321</v>
+        <v>0.0936372164029252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3737.029110000202</v>
+        <v>51.07188852934135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0827540307835945</v>
+        <v>0.2103932916409509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5833.451814159991</v>
+        <v>28.7855301083578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1375489307689269</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22.22489710172458</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5682422998785022</v>
+        <v>0.4818427142138794</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.73028912727</v>
+        <v>793.4162146484132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5756000157339725</v>
+        <v>0.7555239261636379</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-55.07345749330022</v>
+        <v>-65.71030155167512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7595091020514138</v>
+        <v>0.7099534891992244</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.2442046366454</v>
+        <v>180.8043136024499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04189735045411615</v>
+        <v>0.01767069033522541</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05115246835441856</v>
+        <v>1.709508324321169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5127031962900903</v>
+        <v>0.7618774433735953</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.776552865800895e-05</v>
+        <v>113.537147408351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4064439924066129</v>
+        <v>0.3188567498623552</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.683116482871412</v>
+        <v>1.929151748795462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8913681980335346</v>
+        <v>0.9148543299408218</v>
       </c>
     </row>
     <row r="8">
@@ -2245,49 +2115,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>665.6679998836139</v>
+        <v>6.95407915001455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7471942551620154</v>
+        <v>0.7325985917004634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1313.281550732221</v>
+        <v>-10.45403335646697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5198440308787791</v>
+        <v>0.5822472205540685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-852.1382386210444</v>
+        <v>65.16952671851925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6618950367231964</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>62.51783492290403</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03565167980046026</v>
+        <v>0.0253800633331269</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2964.970880792636</v>
+        <v>2812.235955944129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4088050456679944</v>
+        <v>0.3708925383946046</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.6046542130307</v>
+        <v>-74.09228429289044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7695053731208286</v>
+        <v>0.7442112820455955</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.4390169943995</v>
+        <v>258.0563762248418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03279053428168786</v>
+        <v>0.01516301607378371</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03108487479820152</v>
+        <v>2.461918481010578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7595352610985492</v>
+        <v>0.7422469783125587</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.734572102367882e-05</v>
+        <v>69.72763150727553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6518831384988824</v>
+        <v>0.6270457303116838</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.30876396701414</v>
+        <v>-16.7382411951215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4042091107137659</v>
+        <v>0.3878453595593012</v>
       </c>
     </row>
     <row r="8">
@@ -2411,49 +2268,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2459.50553840096</v>
+        <v>25.20727657445991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3931269895604332</v>
+        <v>0.3575706094312462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-277.1244898227897</v>
+        <v>-1.155260747527699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9223620448058354</v>
+        <v>0.96134703220188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-88.61895704880862</v>
+        <v>43.166076965648</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9712887518999739</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42.6387106573718</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2431420474132604</v>
+        <v>0.2202866314435654</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6381.257523679104</v>
+        <v>5693.549833743677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1009453795260395</v>
+        <v>0.1289124941676389</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.564161619824063</v>
+        <v>32.96367641170127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9951041033436924</v>
+        <v>0.8951132219728927</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.2929812390728</v>
+        <v>171.6695992958203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1350538777076819</v>
+        <v>0.1395481765965811</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03246396605185833</v>
+        <v>-2.59944762754146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7913349816037833</v>
+        <v>0.7968699929290025</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.333683694598612e-05</v>
+        <v>-11.5872978840095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8928488981836704</v>
+        <v>0.9461363364068702</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.91605005306909</v>
+        <v>-13.85155513139765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4990243464532724</v>
+        <v>0.5917594527255027</v>
       </c>
     </row>
     <row r="8">
@@ -2577,49 +2421,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.328609922437</v>
+        <v>3.597033611565479</v>
       </c>
       <c r="C8" t="n">
-        <v>0.917783468600203</v>
+        <v>0.9238930374044826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2175.596806856091</v>
+        <v>-6.631531624139118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.398560842998865</v>
+        <v>0.8055539112342152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.34585282795024</v>
+        <v>2.242244299138406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9913838143017115</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.68207083445715</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9719342993731721</v>
+        <v>0.9623383831170303</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2594.857621339444</v>
+        <v>2302.309680585698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4887801695309929</v>
+        <v>0.5043065201923949</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-240.8524461019457</v>
+        <v>-238.5381249798137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3452900461390241</v>
+        <v>0.3375087902035896</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.3018971462037</v>
+        <v>220.1587146919409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04691242537358575</v>
+        <v>0.03429243706901818</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0854441480352717</v>
+        <v>6.327684011153915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5366527344501966</v>
+        <v>0.5229407551809575</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.378198790090642e-05</v>
+        <v>40.33053928166181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8371874912460747</v>
+        <v>0.7986930367629165</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.675671227243832</v>
+        <v>-1.516882985824871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9019498996836358</v>
+        <v>0.9414181264286575</v>
       </c>
     </row>
     <row r="8">
@@ -2743,49 +2574,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.0658420654768</v>
+        <v>4.54945402833631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.90142490590045</v>
+        <v>0.8761537430261586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-710.7627726292549</v>
+        <v>-1.813060670536423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8125402509424217</v>
+        <v>0.9478954370272517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-78.30435414430667</v>
+        <v>40.80261071188831</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9782849388958412</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>39.45431586077085</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3455811073233235</v>
+        <v>0.313236465512854</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4116.241672132221</v>
+        <v>4237.208272784309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2767726146541925</v>
+        <v>0.2772383935686876</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.91933385030984</v>
+        <v>-22.92215388543173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9704052487942686</v>
+        <v>0.9170052987373338</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.5029268004655</v>
+        <v>131.865398555852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2146766798311362</v>
+        <v>0.2163863215583599</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09661276159674737</v>
+        <v>-3.50815710545357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4810337774745187</v>
+        <v>0.7441962680008939</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.716704125676607e-05</v>
+        <v>79.93019139377304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6176107881855704</v>
+        <v>0.6160685403672159</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.56336973517858</v>
+        <v>7.79833440911483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5896115450443726</v>
+        <v>0.7602925495786379</v>
       </c>
     </row>
     <row r="8">
@@ -2909,49 +2727,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2518.990347798062</v>
+        <v>29.2323852086877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4254806691905743</v>
+        <v>0.3690023183768697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3916.811416506145</v>
+        <v>-26.77889789114342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1451766599172907</v>
+        <v>0.3238725985034374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1432.414176719032</v>
+        <v>-7.432687015993011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6009322566925845</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-15.73997694218686</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6864973310158244</v>
+        <v>0.8516605160243768</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5114.539204623783</v>
+        <v>3705.7399345589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2472864612717207</v>
+        <v>0.3729291547040352</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-24.48536368334459</v>
+        <v>59.71893798602486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9262945104143969</v>
+        <v>0.8123601529345048</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.1254794247542</v>
+        <v>203.3487865503567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07124122143310986</v>
+        <v>0.07560290172241982</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09865677364855305</v>
+        <v>3.555286902496928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3817174801847417</v>
+        <v>0.7019290543895078</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002984168969690534</v>
+        <v>-210.5759793627769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4281495922749687</v>
+        <v>0.5640851071833574</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.96407925869828</v>
+        <v>-19.61540913174629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3222663026144311</v>
+        <v>0.4241909356665343</v>
       </c>
     </row>
     <row r="8">
@@ -3075,49 +2880,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5743.604741369267</v>
+        <v>58.26390416319163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2880614783214029</v>
+        <v>0.2812597344359227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2934.178489197027</v>
+        <v>-3.704867108832147</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3175441479572157</v>
+        <v>0.9036821868438256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>894.5412709114116</v>
+        <v>41.00727853212737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7868140717094809</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>36.1707179138787</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4083991178348142</v>
+        <v>0.3469592099300898</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7798.917105809345</v>
+        <v>6603.940957431504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04110756825664855</v>
+        <v>0.07541682653325285</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.6430914969427</v>
+        <v>163.6296551640537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5972405224954067</v>
+        <v>0.5544970326141931</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.8340052382625</v>
+        <v>145.5944382304909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2042646284541274</v>
+        <v>0.1746426549837634</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05907693667434238</v>
+        <v>-2.184323917548358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5617073595710114</v>
+        <v>0.7925366704655205</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.268462812618792e-05</v>
+        <v>74.4698354363772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6980044772198718</v>
+        <v>0.6507722771052061</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.49486672664276</v>
+        <v>-38.34126389796356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07949382946680281</v>
+        <v>0.1139562615433352</v>
       </c>
     </row>
     <row r="8">
@@ -3241,49 +3033,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1936.872359765444</v>
+        <v>25.81051009616569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5016922685945302</v>
+        <v>0.3747525940084109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3086.196756838208</v>
+        <v>-32.02727035222621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1899507503607732</v>
+        <v>0.2586120314401988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2468.248449768859</v>
+        <v>33.67507426618579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3815072414613078</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.73968818491844</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4895747641324057</v>
+        <v>0.3902584464960354</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3329,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3193.154808914853</v>
+        <v>2446.217433117838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2941122934612019</v>
+        <v>0.4226494545580582</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.4622813395755</v>
+        <v>-22.06833946626932</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7737372691551505</v>
+        <v>0.9087305821759641</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.9948413698515</v>
+        <v>235.6135262540053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04730366133853652</v>
+        <v>0.02420237951817542</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1033472000468269</v>
+        <v>2.78089512973754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2280987423382889</v>
+        <v>0.6779948503708653</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.526609271086838e-05</v>
+        <v>-24.72574633899194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6096865062674885</v>
+        <v>0.8656239196700061</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5790242006546293</v>
+        <v>7.103481801124524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9758318926721268</v>
+        <v>0.7057543101427833</v>
       </c>
     </row>
     <row r="8">
@@ -3407,49 +3186,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1112.582867807708</v>
+        <v>-15.25113551257041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6776634771756953</v>
+        <v>0.5764626428274279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2971.792670529915</v>
+        <v>25.55604284474018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1657649827515177</v>
+        <v>0.3609290327670147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4073.113138140259</v>
+        <v>11.44536967937648</v>
       </c>
       <c r="C10" t="n">
-        <v>0.171245610320079</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20.97656014004147</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6050164176815478</v>
+        <v>0.7794734593215407</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7260.020200232071</v>
+        <v>7256.017038015654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0843748448307315</v>
+        <v>0.07670584029035231</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.423945088528853</v>
+        <v>6.169619327503369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.990685777987562</v>
+        <v>0.9822740280780524</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.3699720825181</v>
+        <v>134.5587804432301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2789912960857576</v>
+        <v>0.2699544000097924</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0311661983124035</v>
+        <v>-4.411501012642553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8136454476372914</v>
+        <v>0.6274386670374582</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.53406574841993e-05</v>
+        <v>51.25606530033451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8125265890499107</v>
+        <v>0.777757603467081</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.49174758824772</v>
+        <v>-28.47980140526514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2631254603122957</v>
+        <v>0.2510407382614754</v>
       </c>
     </row>
     <row r="8">
@@ -3573,49 +3339,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.023447968022</v>
+        <v>17.1764749233172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6424218580445298</v>
+        <v>0.6228378765505923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-432.481519779436</v>
+        <v>-33.07694790972955</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8902851337963904</v>
+        <v>0.3021561676508213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3044.760472741772</v>
+        <v>16.96746754598155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4224757280252837</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17.31794556262113</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6753535410675898</v>
+        <v>0.6731027386245263</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3252.791237471379</v>
+        <v>2237.211032210564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3945290853827067</v>
+        <v>0.5542928894758108</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.42538197688327</v>
+        <v>9.065836145025628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8938485149861004</v>
+        <v>0.9722093361626114</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.9997653038862</v>
+        <v>208.9790321218246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08090463645127281</v>
+        <v>0.06237497432072146</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1119568852424236</v>
+        <v>2.321468023186107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3879392235241754</v>
+        <v>0.8338600342701983</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.119111880362776e-05</v>
+        <v>94.00797293624828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6711888114230997</v>
+        <v>0.5801505299441819</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.579671020630123</v>
+        <v>-4.393819631686284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7931153709836664</v>
+        <v>0.8389465930139739</v>
       </c>
     </row>
     <row r="8">
@@ -3739,49 +3492,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.600113015671</v>
+        <v>11.49133915231903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9503334841482772</v>
+        <v>0.7042366219805272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3262.85668338812</v>
+        <v>-5.624386354958091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2035815311547212</v>
+        <v>0.8327032536153953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.6994361247944</v>
+        <v>37.66652904988421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8938579115292281</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>31.30725410911418</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4294585219487561</v>
+        <v>0.3477921975940796</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7184.370484976824</v>
+        <v>5804.984096027627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06990806723302025</v>
+        <v>0.1349468731337614</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-59.8494996371378</v>
+        <v>-46.16485646201468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8105795203085742</v>
+        <v>0.8569951789903418</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.7021108001647</v>
+        <v>201.9988881654326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1265772417299568</v>
+        <v>0.1106696532549556</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08593778103671709</v>
+        <v>-0.8898426185575694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4297266491664404</v>
+        <v>0.9198871998768281</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.989131359096189e-05</v>
+        <v>51.23405518746949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9009644004751606</v>
+        <v>0.7530308927690108</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.19378077742383</v>
+        <v>-23.87947515452015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207214275011184</v>
+        <v>0.3189883617061513</v>
       </c>
     </row>
     <row r="8">
@@ -3905,49 +3645,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>958.2024655090072</v>
+        <v>15.47077109982283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7458511061595074</v>
+        <v>0.6076570012382518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3682.661232228386</v>
+        <v>-15.51609279986867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1556982813102853</v>
+        <v>0.5917570625237539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-891.7176932488401</v>
+        <v>17.52233217118473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.754129832607384</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>15.34438636820677</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6952132953372834</v>
+        <v>0.6629844998688429</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3993,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3645.684769666663</v>
+        <v>2646.761868282691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2364677704871879</v>
+        <v>0.4152026728227292</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-56.92715515798619</v>
+        <v>-26.49066589926508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7731902019412038</v>
+        <v>0.9007214615204731</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1445407556607</v>
+        <v>151.8637893147292</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226265178032957</v>
+        <v>0.1093049763481184</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1633182854301609</v>
+        <v>4.657040728334341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08958142841775475</v>
+        <v>0.5610607187091169</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002629842575898816</v>
+        <v>-161.8443042828244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3018403053341683</v>
+        <v>0.5447040899072713</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.505997278415435</v>
+        <v>2.038867313744831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8223709001284085</v>
+        <v>0.9240226374339211</v>
       </c>
     </row>
     <row r="8">
@@ -4071,49 +3798,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5711.007741859708</v>
+        <v>56.19472446962538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1171453942604315</v>
+        <v>0.1503951705158902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4521.309930921402</v>
+        <v>4.950875549166938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0471252396136544</v>
+        <v>0.8788706716161728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2711.147208417562</v>
+        <v>17.81767214592057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3998826166013822</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.39231558279849</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5344249634922336</v>
+        <v>0.6952216033993586</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8464.40939747779</v>
+        <v>6270.333507280964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07938351347208186</v>
+        <v>0.1683502565888683</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-246.337145241578</v>
+        <v>-155.168800687008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3383024434978014</v>
+        <v>0.5379107748958354</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.2489632308109</v>
+        <v>243.9424356325637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104844845927945</v>
+        <v>0.1432180170975957</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02320567501543</v>
+        <v>-5.863710331568861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8514792903762024</v>
+        <v>0.598534006247314</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.702149551010106e-05</v>
+        <v>-10.39354006656771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.878091001024927</v>
+        <v>0.953821235229912</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.60774272340034</v>
+        <v>-27.99830008341139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179458819114574</v>
+        <v>0.334822571737555</v>
       </c>
     </row>
     <row r="8">
@@ -4237,49 +3951,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1983.78196262143</v>
+        <v>19.64311843766889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5813235263072817</v>
+        <v>0.5928132206920459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3710.905156737286</v>
+        <v>-12.8514438768392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1790309132997641</v>
+        <v>0.6531621867596034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-584.5431737636941</v>
+        <v>29.97197587744723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8369492114860276</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23.66838297280218</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6287211637206309</v>
+        <v>0.547690932472781</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-886.8188533674238</v>
+        <v>614.7229586403155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8152359996435056</v>
+        <v>0.846702348444769</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-124.0211382592881</v>
+        <v>-122.4388046302521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.498199110719215</v>
+        <v>0.4988538301455372</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.2188417216758</v>
+        <v>215.7560472154547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008305346010280547</v>
+        <v>0.009099883604059325</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02526930814275428</v>
+        <v>2.090164840938566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78511283666169</v>
+        <v>0.7590643232912327</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.775283826102927e-05</v>
+        <v>54.28339887936215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.668482241726266</v>
+        <v>0.683778137968624</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.56893454784345</v>
+        <v>19.63733050029278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2270207663748363</v>
+        <v>0.3069620427160983</v>
       </c>
     </row>
     <row r="8">
@@ -4403,49 +4104,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1329.112222825302</v>
+        <v>-15.50738744134566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6159702420499051</v>
+        <v>0.5519886261093516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1883.739645522027</v>
+        <v>1.99598116710267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.459169448229595</v>
+        <v>0.9274273930149848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.1057677503486</v>
+        <v>36.67845840210953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9852635979594281</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>49.69263714272297</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2420463747731871</v>
+        <v>0.333502800009604</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2663.313989786364</v>
+        <v>1852.893353648893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4349901071576586</v>
+        <v>0.5691622647775857</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.43750823224133</v>
+        <v>-57.84713497949059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7973251969341635</v>
+        <v>0.779827471864922</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.0068014812981</v>
+        <v>222.0132265150101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02462014939386787</v>
+        <v>0.01753043150230576</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09044227133836286</v>
+        <v>1.770477394487767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425065678785877</v>
+        <v>0.8177019168068209</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.126206792698898e-05</v>
+        <v>58.10894923553559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7244484580745207</v>
+        <v>0.6875676099309509</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.391902213378845</v>
+        <v>-6.176323632965344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6647872232937727</v>
+        <v>0.7710549533148945</v>
       </c>
     </row>
     <row r="8">
@@ -4569,49 +4257,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.5785636809737</v>
+        <v>4.252465497493205</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9241169643086158</v>
+        <v>0.8806098585211792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2301.70910012923</v>
+        <v>2.895987372713947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3785533578785349</v>
+        <v>0.9033001460903201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.7815782917014</v>
+        <v>50.74652678842376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7596971727110376</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>44.77832881719696</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2024643612716879</v>
+        <v>0.1410315292278483</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7047.746550760149</v>
+        <v>6817.400800202056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07742985751120626</v>
+        <v>0.07871440314023503</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.045470819776</v>
+        <v>213.512571225622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5021749384206345</v>
+        <v>0.4243082850760355</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.0975924586622</v>
+        <v>135.4558290154864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2242756584731187</v>
+        <v>0.210671250979707</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03196499438218615</v>
+        <v>-1.005226780947602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7879723753076897</v>
+        <v>0.9045421672249889</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.163465797103678e-05</v>
+        <v>89.2967576826519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6892882687393337</v>
+        <v>0.6049457084293133</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.42953409563592</v>
+        <v>-23.96349769272619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3025237380026115</v>
+        <v>0.3017809152985544</v>
       </c>
     </row>
     <row r="8">
@@ -4735,49 +4410,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>757.3366070360953</v>
+        <v>10.18611586050163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8081793392669615</v>
+        <v>0.735905112282218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1556.341044908844</v>
+        <v>-26.64875068019352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6115736195498904</v>
+        <v>0.4148229112553209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2055.015466032208</v>
+        <v>-5.504821974390666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5604358305346182</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-4.931878681114739</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9161514255265354</v>
+        <v>0.9046111065513197</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5060.036341602334</v>
+        <v>4524.312319991102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1166498121040984</v>
+        <v>0.1813359355549894</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-125.8580465010549</v>
+        <v>-87.65571957952858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.532699834434761</v>
+        <v>0.6806991127098745</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.182335190331</v>
+        <v>137.4806733328274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1954485469923752</v>
+        <v>0.1841982065263241</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06000697968529811</v>
+        <v>-6.509060301845722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5739512058305927</v>
+        <v>0.4703813859280027</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001206467022528429</v>
+        <v>-56.5623619181307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.437343611838039</v>
+        <v>0.7243940670244056</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.2461103314337</v>
+        <v>-12.15737118360926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4752002778506549</v>
+        <v>0.6128213817836892</v>
       </c>
     </row>
     <row r="8">
@@ -4901,49 +4563,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4031.144854057413</v>
+        <v>38.38764986356209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1398074828731517</v>
+        <v>0.183293562033773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4177.108004279504</v>
+        <v>5.690432477006567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06505799685213461</v>
+        <v>0.8574702885432685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2755.708821999169</v>
+        <v>30.44770222172971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3913762650426299</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>33.96699802071203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4028943839743467</v>
+        <v>0.4793677767392358</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3281.37471740699</v>
+        <v>2259.56764720888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3679970291516792</v>
+        <v>0.5191209728353618</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-173.4060299068448</v>
+        <v>-145.1411631953141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4281681144998398</v>
+        <v>0.5041818907385086</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.5550069278511</v>
+        <v>223.4974958008137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0447238944518852</v>
+        <v>0.03860705554424108</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1129614783760265</v>
+        <v>5.662268222557881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2595353559589946</v>
+        <v>0.4990474288718211</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.715718081075548e-06</v>
+        <v>32.99560757111988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9773968250989042</v>
+        <v>0.9029087633806671</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.282088018658534</v>
+        <v>10.40006576481072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7675214512955939</v>
+        <v>0.6203588722975901</v>
       </c>
     </row>
     <row r="8">
@@ -5067,49 +4716,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-88.75280632408158</v>
+        <v>0.2622133875101298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9808485552627931</v>
+        <v>0.9943562133795285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2220.350913568997</v>
+        <v>-11.96964050618723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2954451581156222</v>
+        <v>0.6062058341413601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-536.0845005005622</v>
+        <v>20.89890155901493</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8226318678180663</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>16.04384939276024</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.653767050189997</v>
+        <v>0.5576177701721148</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5056.335094995247</v>
+        <v>3437.72103012844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2938523410150638</v>
+        <v>0.4209978370644014</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.379576320799</v>
+        <v>-19.61890998479956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8930433370845549</v>
+        <v>0.9458790315014427</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.8809213441699</v>
+        <v>227.1401586466185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09531266953651821</v>
+        <v>0.05307670120453871</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06703769142477507</v>
+        <v>2.795320266727984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5532853083900221</v>
+        <v>0.7800878277676581</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.194847511970639e-05</v>
+        <v>62.19721978796821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7758129136291191</v>
+        <v>0.7301412185722946</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.90417848429325</v>
+        <v>-9.911989716024287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.532597940900193</v>
+        <v>0.6628657953279289</v>
       </c>
     </row>
     <row r="8">
@@ -5233,49 +4869,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.3232598414143</v>
+        <v>18.51594759085874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8066984199141218</v>
+        <v>0.595571788595211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2346.661199771912</v>
+        <v>-8.437473679457803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4358731759663886</v>
+        <v>0.7837754096405887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-686.0269882360387</v>
+        <v>24.76477010812035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8253901418799782</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>18.07490318229735</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6975978849132612</v>
+        <v>0.5852158530357094</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2804.819465606472</v>
+        <v>1886.396377311075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4393580541916869</v>
+        <v>0.6024277940965147</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.84032104813713</v>
+        <v>91.75096389654925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7953206465546648</v>
+        <v>0.7186226293924958</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.6257403822708</v>
+        <v>212.5418675349894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0967552642835962</v>
+        <v>0.08590809596636174</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1411175246918735</v>
+        <v>4.8078443294387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1989381823495364</v>
+        <v>0.570501189311619</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.275783724873351e-05</v>
+        <v>106.2947027220178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.571559662160213</v>
+        <v>0.5251166233992965</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.88473958885632</v>
+        <v>13.84633219622519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5760206049842174</v>
+        <v>0.5561375650783212</v>
       </c>
     </row>
     <row r="8">
@@ -5399,49 +5022,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3350.540697033177</v>
+        <v>41.9537605960212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3317852822832843</v>
+        <v>0.228872419672734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3531.226628923373</v>
+        <v>-16.66633418089832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.185575763301113</v>
+        <v>0.5434783070281912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1067.949331588351</v>
+        <v>-6.559940826602755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6940919058998011</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-10.9691447089135</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7917141674692805</v>
+        <v>0.8766472777709127</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5487,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4150.910198278252</v>
+        <v>3942.026450033367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2933871341545521</v>
+        <v>0.3071138430809208</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-182.0585092444614</v>
+        <v>-174.5827995856728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3921240529739565</v>
+        <v>0.4024054293959661</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.7906427374334</v>
+        <v>158.1166924824701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1003451069175866</v>
+        <v>0.09562138419040424</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03979577581871391</v>
+        <v>-0.09026531678067329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7606167081412464</v>
+        <v>0.9933280309705</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.740713143909834e-05</v>
+        <v>-10.03368299167892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.918832463205029</v>
+        <v>0.969525106255405</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.784385492320851</v>
+        <v>2.519416827369923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9357911240940904</v>
+        <v>0.9077172002610203</v>
       </c>
     </row>
     <row r="8">
@@ -5565,49 +5175,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5468341176506</v>
+        <v>2.335410502980899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9612315814693619</v>
+        <v>0.9478170158582184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1264.605879612797</v>
+        <v>-18.95927435515827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5648939441323353</v>
+        <v>0.4203216250691576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1387.762782174165</v>
+        <v>23.24728569789832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5850673230656882</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21.72141233574328</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5213034013264111</v>
+        <v>0.4838956683343829</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3841.099752453685</v>
+        <v>2616.202911779204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2298098626485453</v>
+        <v>0.43600113816377</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-264.8344819670363</v>
+        <v>-155.679315102536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2669614828874224</v>
+        <v>0.5312396602010776</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.5239825930983</v>
+        <v>195.2414024262044</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1131040060263355</v>
+        <v>0.09778408116497161</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1431479689797067</v>
+        <v>1.394727115991188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1526043801544304</v>
+        <v>0.8646977315955496</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002535915241399776</v>
+        <v>-165.5670892345013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1368379424772189</v>
+        <v>0.3443846707045999</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.80216715655752</v>
+        <v>-25.49371460708322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1275811569391402</v>
+        <v>0.2719817267856074</v>
       </c>
     </row>
     <row r="8">
@@ -5731,49 +5328,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3152.046943880384</v>
+        <v>36.39522410122669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2837826694258517</v>
+        <v>0.2511330387562661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4795.696405556873</v>
+        <v>36.14496274282882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04562028036535735</v>
+        <v>0.278349200171468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6177.265922858107</v>
+        <v>83.68821292750289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07072092962696243</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>92.52521624294499</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03195582298385865</v>
+        <v>0.06598331460838855</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9756.766456881844</v>
+        <v>7770.528122828018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008599539194829028</v>
+        <v>0.02830089077311994</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.6497191396095</v>
+        <v>280.8614628820179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1774932742034621</v>
+        <v>0.2410653603353185</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.4182938934274</v>
+        <v>163.7721013783337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1333201618880695</v>
+        <v>0.08504744912703965</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08602562625898819</v>
+        <v>-0.6438460194114484</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3427720220503475</v>
+        <v>0.9317107060871908</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.358814533636645e-05</v>
+        <v>57.26946022744664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7150814500223347</v>
+        <v>0.7093581487208227</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-50.26409600764413</v>
+        <v>-37.93244550525934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03827376072644757</v>
+        <v>0.1073177609140522</v>
       </c>
     </row>
     <row r="8">
@@ -5897,49 +5481,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.3545817513052</v>
+        <v>5.906869879246429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8437202392030173</v>
+        <v>0.834166871700367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3893.600830359852</v>
+        <v>-23.67446547784188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09662625757097835</v>
+        <v>0.3748362400751858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2031.346972581819</v>
+        <v>-3.445773403330687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4260826428209755</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-6.601056141119901</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8493043815621425</v>
+        <v>0.9243827538348629</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5985,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2919.332331004575</v>
+        <v>2748.267954056637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4096765838163388</v>
+        <v>0.4240306486417645</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.81822855050007</v>
+        <v>2.687623471032282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9461937322570286</v>
+        <v>0.9898168271254957</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.0046485804099</v>
+        <v>182.1269532375385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05062212011405055</v>
+        <v>0.04673384425065806</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05891495380709622</v>
+        <v>3.022449616392223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5749130381730025</v>
+        <v>0.682771258702259</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.322462664517174e-05</v>
+        <v>95.75432764311829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582734945913034</v>
+        <v>0.5097015941047129</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.625688534519986</v>
+        <v>9.611448697285679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6884643536375601</v>
+        <v>0.646151359811336</v>
       </c>
     </row>
     <row r="8">
@@ -6063,49 +5634,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-686.352806563897</v>
+        <v>-5.885947940746465</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7988920239233162</v>
+        <v>0.8226595815002212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1030.456739548089</v>
+        <v>-12.31401230132199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6931571211088053</v>
+        <v>0.6368477083222959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-833.0128689939374</v>
+        <v>10.05396285018307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7696163182409689</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10.95214630029496</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7780873082797626</v>
+        <v>0.7912501469234546</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6151,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2939.731745591616</v>
+        <v>2692.131536739762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4673331443499191</v>
+        <v>0.473006051740484</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-104.0411351136776</v>
+        <v>-98.11818796961779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6389881072869159</v>
+        <v>0.6473450136624456</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.0316471645239</v>
+        <v>181.3605493845879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07171428821068269</v>
+        <v>0.06010622634620248</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00307506586421849</v>
+        <v>-1.233510162652864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9787800536677196</v>
+        <v>0.8827375339324952</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.412920501328262e-05</v>
+        <v>60.24181246895149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7329971869886479</v>
+        <v>0.6918984151846976</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.65183135688558</v>
+        <v>-6.033945308220076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7452468561189585</v>
+        <v>0.7599738290735533</v>
       </c>
     </row>
     <row r="8">
@@ -6229,49 +5787,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.272811605761</v>
+        <v>13.1257521798598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6736614524779616</v>
+        <v>0.6345489316411854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-586.8079444832583</v>
+        <v>-4.921945430050172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8428012092786332</v>
+        <v>0.8585377778753753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-305.2769567366031</v>
+        <v>45.4054909292928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9184230353415243</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>43.44278471363388</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3225502266976139</v>
+        <v>0.2776155756269483</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6317,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4053.356254196578</v>
+        <v>2065.761023306739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3016589277086595</v>
+        <v>0.5927717107741037</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.10114527144384</v>
+        <v>90.66831872206137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8580461753055562</v>
+        <v>0.6966444496051435</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.2459476092805</v>
+        <v>200.7027551536283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08885436175659174</v>
+        <v>0.0559904694104769</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1429766197739897</v>
+        <v>6.068090607460945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.172152071987846</v>
+        <v>0.5188635828973523</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001139124835703012</v>
+        <v>-65.60982908009169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494451608283197</v>
+        <v>0.7009770538672184</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.96610008859483</v>
+        <v>-14.62498872572736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2889029711027717</v>
+        <v>0.4668575712062306</v>
       </c>
     </row>
     <row r="8">
@@ -6395,49 +5940,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1065.460575027101</v>
+        <v>20.46507364802753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7073031109989536</v>
+        <v>0.4826117990017261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3898.035420895907</v>
+        <v>36.40843167453292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1059451766416755</v>
+        <v>0.3053927992073603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5063.148192982706</v>
+        <v>46.63569891854933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1544072012590092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>37.26106158220579</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3811793591833977</v>
+        <v>0.2919543690420482</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1868.960688369045</v>
+        <v>1384.311923727329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5527487261429893</v>
+        <v>0.6874808254749514</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.3337971675276</v>
+        <v>110.7664115314738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5963887082052577</v>
+        <v>0.6186187834546235</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.0191969371589</v>
+        <v>159.1179149520651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09738413295450501</v>
+        <v>0.08496668131555218</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1906370503401641</v>
+        <v>2.559895433980738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1062444517692686</v>
+        <v>0.7889602735142602</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001191440737486275</v>
+        <v>104.9551186390154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4058806045677781</v>
+        <v>0.503155866452886</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.11913316078432</v>
+        <v>19.12677467551215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2788481830698332</v>
+        <v>0.3899365072594199</v>
       </c>
     </row>
     <row r="8">
@@ -6561,49 +6093,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6180.967677556121</v>
+        <v>52.95363672461008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1016931744365141</v>
+        <v>0.1926264338734981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5047.566039574034</v>
+        <v>-17.11407888650186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03477355411558587</v>
+        <v>0.5209292470671889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1343.398283063388</v>
+        <v>-2.596241209980661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5803174651889662</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-13.03260743141283</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7095621022157723</v>
+        <v>0.945573282835338</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6649,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3466.629936857454</v>
+        <v>3469.988106740003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.304027583579377</v>
+        <v>0.2880882012980029</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.82529259418556</v>
+        <v>-81.99500109260262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6878612543909093</v>
+        <v>0.6782723113598179</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.3515212727133</v>
+        <v>137.3383897848411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1353602038689783</v>
+        <v>0.1257316852395513</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001820193625699823</v>
+        <v>-0.1196966676895208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9861120368187687</v>
+        <v>0.9867101806239137</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.978270892414376e-05</v>
+        <v>-20.34337232827721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9414157034962614</v>
+        <v>0.9362502947674273</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.280754902476254</v>
+        <v>6.261274131749722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7658359695914549</v>
+        <v>0.759395441978123</v>
       </c>
     </row>
     <row r="8">
@@ -6727,49 +6246,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.9654147837318</v>
+        <v>1.661615038321784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9635051711774096</v>
+        <v>0.9622819310088344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.03573893530756</v>
+        <v>-19.21503232956755</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9932986187901889</v>
+        <v>0.4243446745037016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1932.820489813932</v>
+        <v>26.27042104316773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4916101439969899</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.26192965474917</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4256463338674455</v>
+        <v>0.4136630153384352</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6815,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4790.21922997828</v>
+        <v>4393.027772445012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1869035789588444</v>
+        <v>0.1865805921866988</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-103.2882795102354</v>
+        <v>-104.0609689709969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6568751073927401</v>
+        <v>0.6471894848573554</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.0992218506163</v>
+        <v>232.9633290710238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05497014505052571</v>
+        <v>0.04516784977564502</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0333362630600052</v>
+        <v>0.7077403118588137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7736131186457047</v>
+        <v>0.9300542969302318</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.522588207866727e-05</v>
+        <v>31.77014677740408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8722249516232317</v>
+        <v>0.8345745986055361</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.66257072244412</v>
+        <v>-22.26314886683329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.298347465650992</v>
+        <v>0.3072909538317944</v>
       </c>
     </row>
     <row r="8">
@@ -6893,49 +6399,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1713.16523575568</v>
+        <v>18.70073567866447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5584211981691238</v>
+        <v>0.5080772486378975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-887.2858506540942</v>
+        <v>-9.408999559361479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746955562737228</v>
+        <v>0.6984836690954209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-729.4911472061003</v>
+        <v>40.16956296232311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7762550837160125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>37.10933531381046</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3564266534472706</v>
+        <v>0.2944862124900789</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6981,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6791.634677860147</v>
+        <v>5367.734213948483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100078940946377</v>
+        <v>0.1856610186580133</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-216.7129813121892</v>
+        <v>-140.6123043849151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4715503425009225</v>
+        <v>0.6426831971527128</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.3370016380072</v>
+        <v>163.9105833007173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2042181152113315</v>
+        <v>0.1857189941170704</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07160158222045382</v>
+        <v>-2.107160162282891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5152085659212835</v>
+        <v>0.8176432410690105</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.003368084812886e-05</v>
+        <v>35.05996198818696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9545375059328265</v>
+        <v>0.8438195169927626</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.29198885906672</v>
+        <v>-17.45279701375206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3394109546918159</v>
+        <v>0.493607308799744</v>
       </c>
     </row>
     <row r="8">
@@ -7059,49 +6552,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1165.136993932198</v>
+        <v>15.20382331782373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7142389905663622</v>
+        <v>0.6410018137011145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3691.263328460902</v>
+        <v>-17.97787474594803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1566291870591319</v>
+        <v>0.5466733343950756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-692.5013046679333</v>
+        <v>25.38254605877545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.816986562584448</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>24.17555924001611</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5717437416496175</v>
+        <v>0.5630262487016466</v>
       </c>
     </row>
   </sheetData>
@@ -7115,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2448.160948843091</v>
+        <v>2025.797299342354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4584429432691599</v>
+        <v>0.5315543955502373</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-109.438790691202</v>
+        <v>-95.61246390868888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5798683692812958</v>
+        <v>0.6250320789078603</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.7877822774817</v>
+        <v>214.6178487206104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03375070355852989</v>
+        <v>0.03380862840991238</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07610319656925429</v>
+        <v>2.07302039440718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4373679264461556</v>
+        <v>0.7771397584585507</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.891554387841394e-05</v>
+        <v>99.52693428272357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5192518676452349</v>
+        <v>0.4666905337633053</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.832778658697169</v>
+        <v>8.466046099775841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7298195372221986</v>
+        <v>0.6656191790129491</v>
       </c>
     </row>
     <row r="8">
@@ -7225,49 +6705,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-743.152370989812</v>
+        <v>-4.390191538620485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7786915517921392</v>
+        <v>0.8660866216246512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1876.894165250485</v>
+        <v>-12.98580435285386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3877208778455541</v>
+        <v>0.5839504101608688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-797.6199332386213</v>
+        <v>31.49972586864018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7446233733957592</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>29.77762597912908</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3572140961178796</v>
+        <v>0.3266223678830924</v>
       </c>
     </row>
   </sheetData>
@@ -7281,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7313,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9806.355318984854</v>
+        <v>8083.765697082288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03419953143125216</v>
+        <v>0.07582662991099998</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-74.22465480029194</v>
+        <v>-0.5320698699689785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7777532987978155</v>
+        <v>0.9984165007743344</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1081989921781</v>
+        <v>196.5429571477002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06637605440534398</v>
+        <v>0.07736843861375725</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06783862185000032</v>
+        <v>-2.461099583447057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5271144218834191</v>
+        <v>0.7900965626903504</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003371865931914341</v>
+        <v>-344.4538908891291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3114377809128559</v>
+        <v>0.3182130324311593</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-53.95037185075552</v>
+        <v>-49.43692419056396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07360462988457479</v>
+        <v>0.1084655973949893</v>
       </c>
     </row>
     <row r="8">
@@ -7391,49 +6858,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6224.89497040819</v>
+        <v>74.86598979615567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2194203295904259</v>
+        <v>0.1514990605964008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3832.17920667803</v>
+        <v>-17.17561909901749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1273008793525287</v>
+        <v>0.5377208722810336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-849.8458669124852</v>
+        <v>33.36790938333678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7559164463197323</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>20.2406562264778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6344807523229141</v>
+        <v>0.4429254625537263</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6985.600757939797</v>
+        <v>6226.909456393707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07082793402321463</v>
+        <v>0.09304097499424233</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.42462506585804</v>
+        <v>94.12402722888407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.718980381022724</v>
+        <v>0.6932822187023844</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.4199415430503</v>
+        <v>153.9617970846163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1820931185977611</v>
+        <v>0.1414308692399875</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01434077861918837</v>
+        <v>-4.528856214584666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9065032663600789</v>
+        <v>0.6526890802668914</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.179788835763224e-05</v>
+        <v>15.62610487680897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9443468493142892</v>
+        <v>0.9258707664463879</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.13939403802698</v>
+        <v>-15.35600170340238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3971463667848022</v>
+        <v>0.4845759621865552</v>
       </c>
     </row>
     <row r="8">
@@ -7557,49 +7011,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1050.080901344018</v>
+        <v>-10.75845897151707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7412480894798263</v>
+        <v>0.733598628370874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2211.029573133453</v>
+        <v>-8.689455600033241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3891524267733919</v>
+        <v>0.7578024449253365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-526.7936878249538</v>
+        <v>-1.975390597307452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8538606075198389</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-3.538324739867818</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9296460165268721</v>
+        <v>0.9604090989614988</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2754.29458149216</v>
+        <v>2687.260289811471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4632762004811726</v>
+        <v>0.4458671918353962</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.80026981592692</v>
+        <v>-88.63817763379944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7165865971761695</v>
+        <v>0.7143472316177965</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.5360748247334</v>
+        <v>209.2383812532515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05342572757974626</v>
+        <v>0.04594122635608903</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07193919098512119</v>
+        <v>6.589873224976557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5939804142483804</v>
+        <v>0.495197704225944</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.707095679069525e-05</v>
+        <v>80.05860955860805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6524675598493664</v>
+        <v>0.6190568712665173</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.013693807190471</v>
+        <v>-7.889326668210039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7022553469873225</v>
+        <v>0.6984479124027538</v>
       </c>
     </row>
     <row r="8">
@@ -7723,49 +7164,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.6495567434267</v>
+        <v>9.903370818812647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7491723225567701</v>
+        <v>0.7250069067081746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-207.7499466321988</v>
+        <v>-12.66996304768073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9473906133909196</v>
+        <v>0.6397886070800942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1182.352219769613</v>
+        <v>42.60259573062673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6988998037878187</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42.10008893250419</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2984786175681932</v>
+        <v>0.2722719953140218</v>
       </c>
     </row>
   </sheetData>
@@ -7779,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7811,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4200.775565639338</v>
+        <v>3888.369893815023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2598035785572393</v>
+        <v>0.3041118257881959</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-90.35330903065199</v>
+        <v>-64.50477235463217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6887996697459204</v>
+        <v>0.7783340586964764</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.5408055752999</v>
+        <v>156.819581593615</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1137381351770558</v>
+        <v>0.1082138163284839</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1000699045875704</v>
+        <v>-0.3245661886410538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3847147883496906</v>
+        <v>0.9701442887098027</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002080814680298035</v>
+        <v>-169.5896525539559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4751979197675662</v>
+        <v>0.565643808291429</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.48321058772382</v>
+        <v>-18.51235302584509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3880009087371268</v>
+        <v>0.3964715071495741</v>
       </c>
     </row>
     <row r="8">
@@ -7889,49 +7317,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1895.538456230418</v>
+        <v>24.69369682887414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6231883318383604</v>
+        <v>0.5287210231846573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3393.73693780421</v>
+        <v>22.21532500281483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1839533638488412</v>
+        <v>0.4929283006018803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4008.658924144778</v>
+        <v>50.77945564900631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2491635675606379</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>49.32569044163276</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1962271392367344</v>
+        <v>0.1918382817363288</v>
       </c>
     </row>
   </sheetData>
@@ -7945,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7977,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3537.600122524574</v>
+        <v>2490.864894080307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2504463396944333</v>
+        <v>0.435593296801793</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.40046478766936</v>
+        <v>-57.8599286510856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6861320784512266</v>
+        <v>0.7892488835903615</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.0758695612249</v>
+        <v>169.3656193224582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2291053321918547</v>
+        <v>0.09371241247566015</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1239909739014287</v>
+        <v>1.678694223511986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1802112063654044</v>
+        <v>0.8255911429763876</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.25747750006278e-05</v>
+        <v>3.527344656437549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.643360979971666</v>
+        <v>0.9825350334131417</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.72955238686481</v>
+        <v>8.903002963750083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8952645912798574</v>
+        <v>0.6837810262699882</v>
       </c>
     </row>
     <row r="8">
@@ -8055,49 +7470,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3628.065020864402</v>
+        <v>39.44216101335319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1738411759682469</v>
+        <v>0.1641838102090379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4376.109907153921</v>
+        <v>7.446960510906802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06392614677290022</v>
+        <v>0.8204255026443338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2777.151757977353</v>
+        <v>3.577397007764873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3975100753971077</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12.32496336512914</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7814003019462332</v>
+        <v>0.9393443131707261</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8143,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4163.70216957228</v>
+        <v>4572.553464127241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3247432464542375</v>
+        <v>0.2527960945338033</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-196.5091037714443</v>
+        <v>-187.4584980459136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4145121391850548</v>
+        <v>0.4230540585838587</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.3522872472709</v>
+        <v>207.5310770141557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05226041023446302</v>
+        <v>0.05006211340774685</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06856737024205084</v>
+        <v>-3.499201779467338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5978789990823663</v>
+        <v>0.6970875259980217</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.21349689344388e-05</v>
+        <v>39.29296563637286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8021476934508299</v>
+        <v>0.8108681859687359</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.948984066726581</v>
+        <v>-10.66899788857489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.693872889994785</v>
+        <v>0.6240713724650301</v>
       </c>
     </row>
     <row r="8">
@@ -8221,49 +7623,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>245.4053847406585</v>
+        <v>1.852694552059504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9361458031220822</v>
+        <v>0.9505941888160589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1169.803331068927</v>
+        <v>-10.35636341875257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7137901031518448</v>
+        <v>0.7207962963058369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1204.433162883944</v>
+        <v>28.83549544656196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6881954201132168</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>31.09781867683807</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4723497252797159</v>
+        <v>0.4905875424991478</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8309,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3693.599047023114</v>
+        <v>2521.116976784178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248463936856632</v>
+        <v>0.4505821220008269</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.33159137795408</v>
+        <v>61.83028913709293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9052913723775516</v>
+        <v>0.7862855198954359</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.65870757831749</v>
+        <v>116.4179943461341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4458186794982127</v>
+        <v>0.3321536323335955</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1121507379320564</v>
+        <v>-0.08320919914472213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2381635132584773</v>
+        <v>0.9916792060338011</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.683568346909513e-05</v>
+        <v>-18.09624197974495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6797872988302806</v>
+        <v>0.9160084267911256</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.368767316931709</v>
+        <v>6.543380697790209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8090844582151024</v>
+        <v>0.7839562816902119</v>
       </c>
     </row>
     <row r="8">
@@ -8387,49 +7776,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3741.272886044811</v>
+        <v>43.81061318278476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1991899971859767</v>
+        <v>0.1602770845897412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4461.993087338346</v>
+        <v>4.653150150285491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05689641459877012</v>
+        <v>0.8939305177919372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2399.406989762279</v>
+        <v>13.93516391983155</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4818444601058457</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.025952728164853</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8962580529327895</v>
+        <v>0.7783228802275873</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8475,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5107.548571726411</v>
+        <v>3510.754301712414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1985521541998124</v>
+        <v>0.3503622820024199</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-143.7597544548582</v>
+        <v>-45.65571867540447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6137548716994988</v>
+        <v>0.868812395227057</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139.0927540068345</v>
+        <v>165.7334702542376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195868317532394</v>
+        <v>0.1231396696937876</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1256178723343244</v>
+        <v>4.026015794677736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2798582543521801</v>
+        <v>0.66536299401039</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003027982550964045</v>
+        <v>-250.1886281187276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3787276279540743</v>
+        <v>0.467868104057949</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.86333202905621</v>
+        <v>-12.71836227968101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4353570875887294</v>
+        <v>0.5757008614998532</v>
       </c>
     </row>
     <row r="8">
@@ -8553,49 +7929,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4065.749218961671</v>
+        <v>45.60838673277026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3998058047523457</v>
+        <v>0.3503292024432065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3347.747714185863</v>
+        <v>-0.7476401592695616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2225208898070637</v>
+        <v>0.9790777598236904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.2634515897425</v>
+        <v>43.77030014191745</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8221195955648692</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>38.80384406408174</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3549394281100563</v>
+        <v>0.3018303528903206</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6621.694300318286</v>
+        <v>5935.493489990739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09008870149684448</v>
+        <v>0.1208931101354512</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.56644110918432</v>
+        <v>-24.25463297386591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7631414414652067</v>
+        <v>0.9262961910828916</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6904327326926</v>
+        <v>144.0806518899147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1742351430592137</v>
+        <v>0.1954463208106468</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02171281185860718</v>
+        <v>-4.599765656255066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8526563699986429</v>
+        <v>0.6381283479033737</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.472440548289425e-05</v>
+        <v>98.82327283581435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7456023380110708</v>
+        <v>0.547257775071067</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.80603555866965</v>
+        <v>-19.19592552832045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3323761621795369</v>
+        <v>0.4087002244970255</v>
       </c>
     </row>
     <row r="8">
@@ -8719,49 +8082,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>880.1051531383146</v>
+        <v>11.31905257026872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7660726523654086</v>
+        <v>0.7018915856010226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2777.421443752933</v>
+        <v>-26.34832292555084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3018670660249854</v>
+        <v>0.364914360875931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1258.724425450254</v>
+        <v>16.9002708168768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6908901189752131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17.71930418464589</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6382853732843583</v>
+        <v>0.6544449872978433</v>
       </c>
     </row>
   </sheetData>
